--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16068" windowHeight="6780"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -519,7 +519,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,7 +554,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -765,16 +765,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A120" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A77" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -791,7 +791,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -805,7 +805,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -816,7 +816,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -833,7 +833,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -844,7 +844,7 @@
         <v>-1077</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -852,7 +852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -866,7 +866,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -877,7 +877,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -885,7 +885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -896,7 +896,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -907,7 +907,7 @@
         <v>13055</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -918,7 +918,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -929,7 +929,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -940,7 +940,7 @@
         <v>-970</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -954,7 +954,7 @@
         <v>-115</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -965,7 +965,7 @@
         <v>-1600</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -976,7 +976,7 @@
         <v>-10650</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -987,7 +987,7 @@
         <v>-4221</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -998,7 +998,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>-156</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>-656</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>-1596</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>-1410</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>-1868</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>-12600</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>-2567</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>-5600</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>-3043</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>128</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>-1260</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>119</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>-2719</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>120</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>33138</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>121</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>-1103</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>-2522</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>-14126</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>-265</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>46</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>-649</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>122</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>-12452</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>54</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>-146</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>56</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>57</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>-13083</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>58</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>60</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>-5158</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>61</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>-433</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>62</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>-1948</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>63</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>64</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>65</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>66</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>-2342</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>67</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>129</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>68</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>69</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>-8118</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>123</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>70</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>71</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>72</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>-12662</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>73</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>74</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>75</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>76</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>77</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>-7700</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>78</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>80</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>-3045</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>81</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>82</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>124</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>83</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>84</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>-12678</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>85</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>-87178</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>86</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>88</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>89</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>90</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>91</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>92</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>93</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>94</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>23199</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>95</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>96</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>-478</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>97</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>-4498</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>98</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>-7682</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>125</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>-7772</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>99</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>100</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>-15000</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>101</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>-70</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>102</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>103</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>104</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>105</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>106</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>107</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>108</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>-34600</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>109</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>110</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>111</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>112</v>
       </c>
@@ -2249,18 +2249,18 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>134</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
-      <c r="D131">
+      <c r="C131">
         <v>-4163</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>135</v>
       </c>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -31,9 +31,6 @@
     <t>دينار</t>
   </si>
   <si>
-    <t>صندوق واحد</t>
-  </si>
-  <si>
     <t>ابومفيد</t>
   </si>
   <si>
@@ -407,6 +404,9 @@
   </si>
   <si>
     <t>المشهراوي شومر</t>
+  </si>
+  <si>
+    <t>مديونية كاظم</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
   <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="B2">
         <v>-13670</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1520</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>130</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>-970</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>-40</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>-1400</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>-270</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>-160</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>800</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>-470</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>-200</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>1540</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>-12600</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>4272</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>-15</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>-20</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>1950</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>3000</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>150</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>-74</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>-250</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54">
         <v>-14</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57">
         <v>-300</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60">
         <v>687</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <v>-649</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64">
         <v>-150</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65">
         <v>220</v>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71">
         <v>-600</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B78">
         <v>-150</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B79">
         <v>1620</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84">
         <v>-95</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B92">
         <v>5400</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93">
         <v>-7</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97">
         <v>2029</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100">
         <v>2962</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101">
         <v>2335</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105">
         <v>245</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B106">
         <v>100</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B110">
         <v>95</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B111">
         <v>451</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B112">
         <v>173</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B114">
         <v>-800</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B117">
         <v>23800</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B124">
         <v>-250</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B125">
         <v>120</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C135">
         <v>-4163</v>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -1,451 +1,418 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\allfiles\palExchange\backend\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
-    <sheet name="ورقة3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+  <si>
+    <t>صندوق واحد</t>
+  </si>
+  <si>
+    <t>ابومفيد</t>
+  </si>
+  <si>
+    <t>اكسبريس موني</t>
+  </si>
+  <si>
+    <t>سمير حرزالله</t>
+  </si>
+  <si>
+    <t>ابن خلدون/رفح</t>
+  </si>
+  <si>
+    <t>ابويونس شملخ</t>
+  </si>
+  <si>
+    <t>الزيادات في الحوالات</t>
+  </si>
+  <si>
+    <t>ربيع سكيك</t>
+  </si>
+  <si>
+    <t>مرشد</t>
+  </si>
+  <si>
+    <t>اسامه وجدي</t>
+  </si>
+  <si>
+    <t>حاتم مشتهى</t>
+  </si>
+  <si>
+    <t>مدحت حجي</t>
+  </si>
+  <si>
+    <t>اسامه ابوسيدو/وشاح</t>
+  </si>
+  <si>
+    <t>احمد فاتورة جوال</t>
+  </si>
+  <si>
+    <t>سماح الخزندار</t>
+  </si>
+  <si>
+    <t>احمد مفيد</t>
+  </si>
+  <si>
+    <t>بيت كوين</t>
+  </si>
+  <si>
+    <t>وفيق ابوسيدو1900</t>
+  </si>
+  <si>
+    <t>الحداد العماره</t>
+  </si>
+  <si>
+    <t>بسيوني</t>
+  </si>
+  <si>
+    <t>ابوياسين لبد</t>
+  </si>
+  <si>
+    <t>طابو الارض 1200 العشي و800 ابومفيد و275 نص الدور الارضي و400 عماد الاشقر و400 الحجه و 400 احمد و 600 الروف</t>
+  </si>
+  <si>
+    <t>عامل الحجر القدسي</t>
+  </si>
+  <si>
+    <t>سعدو خلف</t>
+  </si>
+  <si>
+    <t>المختار سمير ابوسيدو</t>
+  </si>
+  <si>
+    <t>بيت كوين 2</t>
+  </si>
+  <si>
+    <t>ام محمد ابوسيدو</t>
+  </si>
+  <si>
+    <t>الروف ابورمضان</t>
+  </si>
+  <si>
+    <t>ابوانس مشتهى  لغاية شهر 12</t>
+  </si>
+  <si>
+    <t>محمد تشطيب</t>
+  </si>
+  <si>
+    <t>ناهض الكردي</t>
+  </si>
+  <si>
+    <t>احمد تشطيب</t>
+  </si>
+  <si>
+    <t>ابوخالد مطر</t>
+  </si>
+  <si>
+    <t>محمد تكونه</t>
+  </si>
+  <si>
+    <t>اسامه مصبح</t>
+  </si>
+  <si>
+    <t>ابوعبدالله مشتهى</t>
+  </si>
+  <si>
+    <t>الفت جراده</t>
+  </si>
+  <si>
+    <t>امي عماره+</t>
+  </si>
+  <si>
+    <t>عبدالله الاشقر كندا</t>
+  </si>
+  <si>
+    <t>سعدي عطالله تيسير عاشور</t>
+  </si>
+  <si>
+    <t>ميار دلول</t>
+  </si>
+  <si>
+    <t>ابوالعبد صيام</t>
+  </si>
+  <si>
+    <t>راجي الشوا</t>
+  </si>
+  <si>
+    <t>الازبط</t>
+  </si>
+  <si>
+    <t>ابوصالح</t>
+  </si>
+  <si>
+    <t>كيليو بترا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بهاء غنام </t>
+  </si>
+  <si>
+    <t>ابوعلي نفتنار</t>
+  </si>
+  <si>
+    <t>مطيع مشتهى ابورامي</t>
+  </si>
+  <si>
+    <t>ابوفياض</t>
+  </si>
+  <si>
+    <t>باسم صافي</t>
+  </si>
+  <si>
+    <t>عبد البنا</t>
+  </si>
+  <si>
+    <t>الروف 2</t>
+  </si>
+  <si>
+    <t>سامي الحداد</t>
+  </si>
+  <si>
+    <t>منذر الحلو</t>
+  </si>
+  <si>
+    <t>هيثم سلاخي</t>
+  </si>
+  <si>
+    <t>جوال بي</t>
+  </si>
+  <si>
+    <t>محمد الصباغ ابوعلي</t>
+  </si>
+  <si>
+    <t>نعيم مشتهى ابواشرف</t>
+  </si>
+  <si>
+    <t>احمد شعت</t>
+  </si>
+  <si>
+    <t>زيادات موني جرام</t>
+  </si>
+  <si>
+    <t>خلدون تركيا</t>
+  </si>
+  <si>
+    <t>خلدون البرعصي</t>
+  </si>
+  <si>
+    <t>زين سفير الحب</t>
+  </si>
+  <si>
+    <t>شنيوره</t>
+  </si>
+  <si>
+    <t>احمد بارود جينيف</t>
+  </si>
+  <si>
+    <t>محمد الجيوسي</t>
+  </si>
+  <si>
+    <t>شومر اسامه</t>
+  </si>
+  <si>
+    <t>محمد مفيد عماد الاشقر</t>
+  </si>
+  <si>
+    <t>اسماعيل ناصر عياد</t>
+  </si>
+  <si>
+    <t>ناجي الخضري</t>
+  </si>
+  <si>
+    <t>محمود سكيك ميلاد</t>
+  </si>
+  <si>
+    <t>الاوائل تركيا</t>
+  </si>
+  <si>
+    <t>محمد مفيد تامين عماره</t>
+  </si>
+  <si>
+    <t>النعسان الاصيل</t>
+  </si>
+  <si>
+    <t>ابوالحسن دغمش</t>
+  </si>
+  <si>
+    <t>كرم مشتهى ابومنير</t>
+  </si>
+  <si>
+    <t>طيبه</t>
+  </si>
+  <si>
+    <t>فادي حنونه</t>
+  </si>
+  <si>
+    <t>طيبه تركيا</t>
+  </si>
+  <si>
+    <t>ابوحمده</t>
+  </si>
+  <si>
+    <t>ام فادي ابوسيدو</t>
+  </si>
+  <si>
+    <t>بسام عجور وساطه</t>
+  </si>
+  <si>
+    <t>مجاهد قويدر</t>
+  </si>
+  <si>
+    <t>عبدالله اشتيوي</t>
+  </si>
+  <si>
+    <t>صاحب ابومحمود ابوحليمه</t>
+  </si>
+  <si>
+    <t>الاء الخزندار</t>
+  </si>
+  <si>
+    <t>يوسف الغز</t>
+  </si>
+  <si>
+    <t>ابورفعت مشتهى</t>
+  </si>
+  <si>
+    <t>حبيب استثمار</t>
+  </si>
+  <si>
+    <t>تيودور شحاده</t>
+  </si>
+  <si>
+    <t>دبي الدن</t>
+  </si>
+  <si>
+    <t>الدانا</t>
+  </si>
+  <si>
+    <t>عماره تعويضات ابومفيد 800+3295 شيكل 13-3-2022</t>
+  </si>
+  <si>
+    <t>مامون الريس ابوعبدالله</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مدى غلة غزه </t>
+  </si>
+  <si>
+    <t>مدى غلة تركيا</t>
+  </si>
+  <si>
+    <t>الحرامين الخليل</t>
+  </si>
+  <si>
+    <t>صلاح الملاحي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ولاء القمع </t>
+  </si>
+  <si>
+    <t>ابواحمد الغندور</t>
+  </si>
+  <si>
+    <t>حمدي الريفي ابومحمد</t>
+  </si>
+  <si>
+    <t>عامر ابوحجر ابورهف</t>
+  </si>
+  <si>
+    <t>مهند ابوخضير</t>
+  </si>
+  <si>
+    <t>محمد قنيطه</t>
+  </si>
+  <si>
+    <t>مصباح الشوا</t>
+  </si>
+  <si>
+    <t>ابوعلاء ابوسمهدانه</t>
+  </si>
+  <si>
+    <t>ريم ابوسيدو</t>
+  </si>
+  <si>
+    <t>الجرجاوي ابويامن</t>
+  </si>
+  <si>
+    <t>ناصر العمراني/بنك فلسطين</t>
+  </si>
+  <si>
+    <t>دبابش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تامين سلطة النقد سمير حرزالله </t>
+  </si>
+  <si>
+    <t>ابوخالد الريس</t>
+  </si>
+  <si>
+    <t>هيثم فياض</t>
+  </si>
+  <si>
+    <t>نادر بدير شيفت</t>
+  </si>
+  <si>
+    <t>خالد جراده</t>
+  </si>
+  <si>
+    <t>فراس دير البلح</t>
+  </si>
+  <si>
+    <t>حميد</t>
+  </si>
+  <si>
+    <t>حاتم المشهراوي</t>
+  </si>
+  <si>
+    <t>وفيق2</t>
+  </si>
+  <si>
+    <t>صامد الشريف</t>
+  </si>
+  <si>
+    <t>الاء الريس</t>
+  </si>
+  <si>
+    <t>العالميه للصرافه</t>
+  </si>
+  <si>
+    <t>محمد اخو جلال عياد</t>
+  </si>
+  <si>
+    <t>المشهراوي شومر</t>
+  </si>
   <si>
     <t>شيكل</t>
   </si>
   <si>
+    <t>دينار</t>
+  </si>
+  <si>
     <t>دولار</t>
   </si>
   <si>
-    <t>دينار</t>
-  </si>
-  <si>
-    <t>ابومفيد</t>
-  </si>
-  <si>
-    <t>اكسبريس موني</t>
-  </si>
-  <si>
-    <t>سمير حرزالله</t>
-  </si>
-  <si>
-    <t>ابن خلدون/رفح</t>
-  </si>
-  <si>
-    <t>ابويونس شملخ</t>
-  </si>
-  <si>
-    <t>الزيادات في الحوالات</t>
-  </si>
-  <si>
-    <t>ربيع سكيك</t>
-  </si>
-  <si>
-    <t>مرشد</t>
-  </si>
-  <si>
-    <t>اسامه وجدي</t>
-  </si>
-  <si>
-    <t>حاتم مشتهى</t>
-  </si>
-  <si>
-    <t>مدحت حجي</t>
-  </si>
-  <si>
-    <t>اسامه ابوسيدو/وشاح</t>
-  </si>
-  <si>
-    <t>احمد فاتورة جوال</t>
-  </si>
-  <si>
-    <t>سماح الخزندار</t>
-  </si>
-  <si>
-    <t>احمد مفيد</t>
-  </si>
-  <si>
-    <t>بيت كوين</t>
-  </si>
-  <si>
-    <t>وفيق ابوسيدو1900</t>
-  </si>
-  <si>
-    <t>الحداد العماره</t>
-  </si>
-  <si>
-    <t>بسيوني</t>
-  </si>
-  <si>
-    <t>ابوياسين لبد</t>
-  </si>
-  <si>
-    <t>طابو الارض 1200 العشي و800 ابومفيد و275 نص الدور الارضي و400 عماد الاشقر و400 الحجه و 400 احمد و 600 الروف</t>
-  </si>
-  <si>
-    <t>عامل الحجر القدسي</t>
-  </si>
-  <si>
-    <t>سعدو خلف</t>
-  </si>
-  <si>
-    <t>المختار سمير ابوسيدو</t>
-  </si>
-  <si>
-    <t>بيت كوين 2</t>
-  </si>
-  <si>
-    <t>ام محمد ابوسيدو</t>
-  </si>
-  <si>
-    <t>الروف ابورمضان</t>
-  </si>
-  <si>
-    <t>ابوانس مشتهى  لغاية شهر 12</t>
-  </si>
-  <si>
-    <t>محمد تشطيب</t>
-  </si>
-  <si>
-    <t>ناهض الكردي</t>
-  </si>
-  <si>
-    <t>احمد تشطيب</t>
-  </si>
-  <si>
-    <t>ابوخالد مطر</t>
-  </si>
-  <si>
-    <t>محمد تكونه</t>
-  </si>
-  <si>
-    <t>اسامه مصبح</t>
-  </si>
-  <si>
-    <t>ابوعبدالله مشتهى</t>
-  </si>
-  <si>
-    <t>الفت جراده</t>
-  </si>
-  <si>
-    <t>امي عماره+</t>
-  </si>
-  <si>
-    <t>عبدالله الاشقر كندا</t>
-  </si>
-  <si>
-    <t>سعدي عطالله تيسير عاشور</t>
-  </si>
-  <si>
-    <t>ميار دلول</t>
-  </si>
-  <si>
-    <t>ابوالعبد صيام</t>
-  </si>
-  <si>
-    <t>راجي الشوا</t>
-  </si>
-  <si>
-    <t>الازبط</t>
-  </si>
-  <si>
-    <t>ابوصالح</t>
-  </si>
-  <si>
-    <t>كيليو بترا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بهاء غنام </t>
-  </si>
-  <si>
-    <t>ابوعلي نفتنار</t>
-  </si>
-  <si>
-    <t>مطيع مشتهى ابورامي</t>
-  </si>
-  <si>
-    <t>ابوفياض</t>
-  </si>
-  <si>
-    <t>باسم صافي</t>
-  </si>
-  <si>
-    <t>عبد البنا</t>
-  </si>
-  <si>
-    <t>الروف 2</t>
-  </si>
-  <si>
-    <t>سامي الحداد</t>
-  </si>
-  <si>
-    <t>منذر الحلو</t>
-  </si>
-  <si>
-    <t>هيثم سلاخي</t>
-  </si>
-  <si>
-    <t>جوال بي</t>
-  </si>
-  <si>
-    <t>محمد الصباغ ابوعلي</t>
-  </si>
-  <si>
-    <t>نعيم مشتهى ابواشرف</t>
-  </si>
-  <si>
-    <t>احمد شعت</t>
-  </si>
-  <si>
-    <t>زيادات موني جرام</t>
-  </si>
-  <si>
-    <t>خلدون تركيا</t>
-  </si>
-  <si>
-    <t>خلدون البرعصي</t>
-  </si>
-  <si>
-    <t>زين سفير الحب</t>
-  </si>
-  <si>
-    <t>شنيوره</t>
-  </si>
-  <si>
-    <t>احمد بارود جينيف</t>
-  </si>
-  <si>
-    <t>محمد الجيوسي</t>
-  </si>
-  <si>
-    <t>شومر اسامه</t>
-  </si>
-  <si>
-    <t>محمد مفيد عماد الاشقر</t>
-  </si>
-  <si>
-    <t>اسماعيل ناصر عياد</t>
-  </si>
-  <si>
-    <t>ناجي الخضري</t>
-  </si>
-  <si>
-    <t>محمود سكيك ميلاد</t>
-  </si>
-  <si>
-    <t>الاوائل تركيا</t>
-  </si>
-  <si>
-    <t>محمد مفيد تامين عماره</t>
-  </si>
-  <si>
-    <t>النعسان الاصيل</t>
-  </si>
-  <si>
-    <t>ابوالحسن دغمش</t>
-  </si>
-  <si>
-    <t>كرم مشتهى ابومنير</t>
-  </si>
-  <si>
-    <t>طيبه</t>
-  </si>
-  <si>
-    <t>فادي حنونه</t>
-  </si>
-  <si>
-    <t>طيبه تركيا</t>
-  </si>
-  <si>
-    <t>ابوحمده</t>
-  </si>
-  <si>
-    <t>ام فادي ابوسيدو</t>
-  </si>
-  <si>
-    <t>بسام عجور وساطه</t>
-  </si>
-  <si>
-    <t>مجاهد قويدر</t>
-  </si>
-  <si>
-    <t>عبدالله اشتيوي</t>
-  </si>
-  <si>
-    <t>صاحب ابومحمود ابوحليمه</t>
-  </si>
-  <si>
-    <t>الاء الخزندار</t>
-  </si>
-  <si>
-    <t>يوسف الغز</t>
-  </si>
-  <si>
-    <t>ابورفعت مشتهى</t>
-  </si>
-  <si>
-    <t>حبيب استثمار</t>
-  </si>
-  <si>
-    <t>تيودور شحاده</t>
-  </si>
-  <si>
-    <t>دبي الدن</t>
-  </si>
-  <si>
-    <t>الدانا</t>
-  </si>
-  <si>
-    <t>عماره تعويضات ابومفيد 800+3295 شيكل 13-3-2022</t>
-  </si>
-  <si>
-    <t>مامون الريس ابوعبدالله</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدى غلة غزه </t>
-  </si>
-  <si>
-    <t>مدى غلة تركيا</t>
-  </si>
-  <si>
-    <t>الحرامين الخليل</t>
-  </si>
-  <si>
-    <t>صلاح الملاحي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ولاء القمع </t>
-  </si>
-  <si>
-    <t>ابواحمد الغندور</t>
-  </si>
-  <si>
-    <t>حمدي الريفي ابومحمد</t>
-  </si>
-  <si>
-    <t>عامر ابوحجر ابورهف</t>
-  </si>
-  <si>
-    <t>مهند ابوخضير</t>
-  </si>
-  <si>
-    <t>محمد قنيطه</t>
-  </si>
-  <si>
-    <t>مصباح الشوا</t>
-  </si>
-  <si>
-    <t>ابوعلاء ابوسمهدانه</t>
-  </si>
-  <si>
-    <t>ريم ابوسيدو</t>
-  </si>
-  <si>
-    <t>الجرجاوي ابويامن</t>
-  </si>
-  <si>
-    <t>ناصر العمراني/بنك فلسطين</t>
-  </si>
-  <si>
-    <t>دبابش</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تامين سلطة النقد سمير حرزالله </t>
-  </si>
-  <si>
-    <t>ابوخالد الريس</t>
-  </si>
-  <si>
-    <t>هيثم فياض</t>
-  </si>
-  <si>
-    <t>نادر بدير شيفت</t>
-  </si>
-  <si>
-    <t>خالد جراده</t>
-  </si>
-  <si>
-    <t>فراس دير البلح</t>
-  </si>
-  <si>
-    <t>حميد</t>
-  </si>
-  <si>
-    <t>حاتم المشهراوي</t>
-  </si>
-  <si>
-    <t>وفيق2</t>
-  </si>
-  <si>
-    <t>صامد الشريف</t>
-  </si>
-  <si>
-    <t>الاء الريس</t>
-  </si>
-  <si>
-    <t>العالميه للصرافه</t>
-  </si>
-  <si>
-    <t>محمد اخو جلال عياد</t>
-  </si>
-  <si>
-    <t>المشهراوي شومر</t>
-  </si>
-  <si>
-    <t>مديونية كاظم</t>
+    <t>total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;ر.س.‏&quot;\ * #,##0.00_-;_-&quot;ر.س.‏&quot;\ * #,##0.00\-;_-&quot;ر.س.‏&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="178"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="178"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="20"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,142 +420,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="28"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="18"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="36"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="5"/>
-      <color indexed="10"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="57"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="25"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="17"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="60"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="56"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color indexed="20"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="20"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -596,94 +437,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Currency 2" xfId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -709,44 +471,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -779,9 +541,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -820,196 +582,172 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.8984375" customWidth="1"/>
+    <col min="1" max="1" width="46.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>-13670</v>
@@ -1023,7 +761,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1037,7 +775,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1051,7 +789,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>1520</v>
@@ -1065,7 +803,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1079,7 +817,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1093,7 +831,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>130</v>
@@ -1107,7 +845,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1121,7 +859,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1135,7 +873,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1149,7 +887,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1163,7 +901,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1177,7 +915,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1191,7 +929,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>-970</v>
@@ -1205,7 +943,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>-40</v>
@@ -1219,7 +957,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>-1400</v>
@@ -1233,7 +971,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1247,7 +985,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>-270</v>
@@ -1261,7 +999,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>-160</v>
@@ -1275,7 +1013,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1289,7 +1027,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1303,7 +1041,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1317,7 +1055,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>800</v>
@@ -1331,7 +1069,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>-470</v>
@@ -1345,7 +1083,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1359,7 +1097,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1373,7 +1111,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>-200</v>
@@ -1398,7 +1136,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>1540</v>
@@ -1412,7 +1150,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1426,7 +1164,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>-12600</v>
@@ -1440,7 +1178,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>4272</v>
@@ -1454,7 +1192,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>-15</v>
@@ -1468,7 +1206,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1482,7 +1220,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1507,7 +1245,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38">
         <v>-20</v>
@@ -1521,7 +1259,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C39">
-        <v>4365</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1532,10 +1270,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>4365</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1546,10 +1284,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41">
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>-2563</v>
@@ -1560,10 +1298,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42">
-        <v>3000</v>
+        <v>1950</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1574,10 +1312,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1588,7 +1326,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1602,7 +1340,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1616,7 +1354,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1630,10 +1368,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C47">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>-250</v>
@@ -1644,10 +1382,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48">
-        <v>-74</v>
+        <v>150</v>
       </c>
       <c r="D48">
         <v>-2719</v>
@@ -1658,10 +1396,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1672,7 +1410,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1686,10 +1424,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C51">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>-300</v>
@@ -1700,21 +1438,21 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D52">
         <v>14</v>
       </c>
       <c r="E52">
-        <v>31683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1723,15 +1461,15 @@
         <v>-46166</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>31683</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C54">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>-1103</v>
@@ -1742,10 +1480,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1767,10 +1505,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C57">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>-10</v>
@@ -1781,10 +1519,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D58">
         <v>-2522</v>
@@ -1795,7 +1533,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1809,10 +1547,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C60">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>-265</v>
@@ -1823,10 +1561,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C61">
-        <v>-649</v>
+        <v>687</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1837,10 +1575,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-649</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1851,7 +1589,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1865,10 +1603,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C64">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>-200</v>
@@ -1879,10 +1617,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C65">
-        <v>220</v>
+        <v>-150</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1893,10 +1631,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D66">
         <v>1002</v>
@@ -1907,7 +1645,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1921,7 +1659,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1935,7 +1673,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1949,7 +1687,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1963,10 +1701,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C71">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1977,10 +1715,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="D72">
         <v>600</v>
@@ -1991,7 +1729,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2005,7 +1743,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C74">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2016,10 +1754,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2030,7 +1768,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2044,7 +1782,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2058,10 +1796,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C78">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>-1948</v>
@@ -2072,10 +1810,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C79">
-        <v>1620</v>
+        <v>-150</v>
       </c>
       <c r="D79">
         <v>3831</v>
@@ -2086,10 +1824,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2100,7 +1838,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2109,12 +1847,12 @@
         <v>100</v>
       </c>
       <c r="E81">
-        <v>-900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2123,12 +1861,12 @@
         <v>-757</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-900</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2137,29 +1875,29 @@
         <v>-16</v>
       </c>
       <c r="E83">
-        <v>-53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C84">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>-252</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="D85">
         <v>-200</v>
@@ -2170,7 +1908,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2184,7 +1922,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2209,7 +1947,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2223,7 +1961,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2248,10 +1986,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C92">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2262,10 +2000,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C93">
-        <v>-7</v>
+        <v>5400</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2276,10 +2014,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2290,7 +2028,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2304,7 +2042,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2318,10 +2056,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C97">
-        <v>2029</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>-1000</v>
@@ -2332,21 +2070,21 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>2029</v>
       </c>
       <c r="D98">
         <v>10000</v>
       </c>
       <c r="E98">
-        <v>-3045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2355,15 +2093,15 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-3045</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C100">
-        <v>2962</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -2374,10 +2112,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C101">
-        <v>2335</v>
+        <v>2962</v>
       </c>
       <c r="D101">
         <v>-32</v>
@@ -2388,21 +2126,21 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>2335</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2411,12 +2149,12 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2430,10 +2168,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C105">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>-86107</v>
@@ -2444,10 +2182,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C106">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="D106">
         <v>-300</v>
@@ -2458,10 +2196,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107">
         <v>100</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -2472,7 +2210,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2486,7 +2224,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2500,10 +2238,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C110">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>-10</v>
@@ -2514,10 +2252,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C111">
-        <v>451</v>
+        <v>95</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2528,10 +2266,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C112">
-        <v>173</v>
+        <v>451</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2542,10 +2280,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -2556,10 +2294,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2570,7 +2308,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2584,10 +2322,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C116">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>-4498</v>
@@ -2598,10 +2336,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>23800</v>
       </c>
       <c r="D117">
         <v>-7682</v>
@@ -2612,7 +2350,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2626,7 +2364,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2640,7 +2378,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2649,12 +2387,12 @@
         <v>-15000</v>
       </c>
       <c r="E120">
-        <v>-70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2663,12 +2401,12 @@
         <v>-147</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2682,10 +2420,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C123">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2696,10 +2434,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C124">
-        <v>120</v>
+        <v>-250</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -2710,10 +2448,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D125">
         <v>245</v>
@@ -2735,7 +2473,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2749,7 +2487,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2763,7 +2501,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2777,7 +2515,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2791,7 +2529,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2805,7 +2543,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2819,7 +2557,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2833,428 +2571,31 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
       </c>
       <c r="D134">
         <v>-4163</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A135"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-    </row>
-    <row r="15" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-    </row>
-    <row r="27" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-    </row>
-    <row r="29" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-    </row>
-    <row r="37" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-    </row>
-    <row r="39" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-    </row>
-    <row r="41" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-    </row>
-    <row r="42" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-    </row>
-    <row r="43" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-    </row>
-    <row r="44" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-    </row>
-    <row r="45" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-    </row>
-    <row r="47" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-    </row>
-    <row r="49" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-    </row>
-    <row r="53" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-    </row>
-    <row r="58" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-    </row>
-    <row r="59" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-    </row>
-    <row r="60" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
-    </row>
-    <row r="69" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="18"/>
-    </row>
-    <row r="70" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-    </row>
-    <row r="82" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
-    </row>
-    <row r="103" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
-    </row>
-    <row r="111" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-    </row>
-    <row r="125" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-    </row>
-    <row r="129" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>128</v>
+      </c>
+      <c r="C135">
+        <v>24610</v>
+      </c>
+      <c r="D135">
+        <v>46327</v>
+      </c>
+      <c r="E135">
+        <v>1796</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\allfiles\palExchange\backend\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
+    <sheet name="ورقة3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
-  <si>
-    <t>صندوق واحد</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="131">
+  <si>
+    <t>شيكل</t>
+  </si>
+  <si>
+    <t>دولار</t>
+  </si>
+  <si>
+    <t>دينار</t>
   </si>
   <si>
     <t>ابومفيد</t>
@@ -396,23 +403,58 @@
     <t>المشهراوي شومر</t>
   </si>
   <si>
-    <t>شيكل</t>
-  </si>
-  <si>
-    <t>دينار</t>
-  </si>
-  <si>
-    <t>دولار</t>
-  </si>
-  <si>
-    <t>total</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>محمد الزيان</t>
+  </si>
+  <si>
+    <t>money_gram</t>
+  </si>
+  <si>
+    <t>مديونية كاظم</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-&quot;ر.س.‏&quot;\ * #,##0.00_-;_-&quot;ر.س.‏&quot;\ * #,##0.00\-;_-&quot;ر.س.‏&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="20"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,16 +462,142 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="28"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="18"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="36"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="5"/>
+      <color indexed="10"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="57"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="25"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="17"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="60"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="56"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color indexed="20"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="20"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -437,15 +605,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Currency 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,44 +718,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -541,9 +788,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -582,186 +829,210 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.19921875" customWidth="1"/>
+    <col min="1" max="1" width="78.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C2">
         <v>-13670</v>
       </c>
       <c r="D2">
-        <v>325822</v>
+        <v>246295</v>
       </c>
       <c r="E2">
         <v>-25505</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -773,9 +1044,9 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -787,9 +1058,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1520</v>
@@ -800,24 +1071,30 @@
       <c r="E5">
         <v>2759</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-1077</v>
+        <v>-1282</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -828,10 +1105,13 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>130</v>
@@ -843,9 +1123,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -857,9 +1137,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -871,9 +1151,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -885,9 +1165,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -899,9 +1179,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -913,9 +1193,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -927,9 +1207,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>-970</v>
@@ -941,9 +1221,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>-40</v>
@@ -957,7 +1237,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>-1400</v>
@@ -971,7 +1251,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -985,7 +1265,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>-270</v>
@@ -999,7 +1279,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>-160</v>
@@ -1013,7 +1293,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1027,7 +1307,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1041,7 +1321,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1055,7 +1335,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>800</v>
@@ -1069,7 +1349,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>-470</v>
@@ -1083,7 +1363,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1097,7 +1377,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1111,7 +1391,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>-200</v>
@@ -1124,11 +1404,14 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>128</v>
+      </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>-261</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1136,7 +1419,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>1540</v>
@@ -1150,7 +1433,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1164,7 +1447,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>-12600</v>
@@ -1178,13 +1461,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>4272</v>
       </c>
       <c r="D33">
-        <v>-2567</v>
+        <v>-2467</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1192,7 +1475,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>-15</v>
@@ -1206,7 +1489,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1220,7 +1503,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1245,7 +1528,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C38">
         <v>-20</v>
@@ -1270,7 +1553,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C40">
         <v>4365</v>
@@ -1284,7 +1567,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1298,7 +1581,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C42">
         <v>1950</v>
@@ -1312,7 +1595,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C43">
         <v>3000</v>
@@ -1326,7 +1609,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1340,7 +1623,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1354,7 +1637,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1368,7 +1651,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1382,7 +1665,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C48">
         <v>150</v>
@@ -1396,7 +1679,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C49">
         <v>-74</v>
@@ -1410,7 +1693,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1424,7 +1707,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1438,7 +1721,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C52">
         <v>-250</v>
@@ -1452,21 +1735,21 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>-46166</v>
+        <v>-48032</v>
       </c>
       <c r="E53">
-        <v>31683</v>
+        <v>31383</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1480,7 +1763,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C55">
         <v>-14</v>
@@ -1505,7 +1788,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1519,7 +1802,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C58">
         <v>-300</v>
@@ -1533,7 +1816,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1547,7 +1830,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1561,7 +1844,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C61">
         <v>687</v>
@@ -1575,7 +1858,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C62">
         <v>-649</v>
@@ -1589,7 +1872,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1603,7 +1886,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1617,7 +1900,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C65">
         <v>-150</v>
@@ -1631,7 +1914,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C66">
         <v>220</v>
@@ -1645,7 +1928,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1659,7 +1942,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1673,7 +1956,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1687,7 +1970,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1701,7 +1984,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1715,7 +1998,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C72">
         <v>-600</v>
@@ -1729,7 +2012,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1754,7 +2037,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C75">
         <v>-200</v>
@@ -1768,13 +2051,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>-4292</v>
+        <v>-4051</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1782,7 +2065,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1796,7 +2079,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1810,13 +2093,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C79">
         <v>-150</v>
       </c>
       <c r="D79">
-        <v>3831</v>
+        <v>-226</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1824,7 +2107,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C80">
         <v>1620</v>
@@ -1838,7 +2121,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1852,13 +2135,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>-757</v>
+        <v>-134</v>
       </c>
       <c r="E82">
         <v>-900</v>
@@ -1866,7 +2149,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1880,7 +2163,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1894,7 +2177,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C85">
         <v>-95</v>
@@ -1908,7 +2191,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -1922,7 +2205,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1947,7 +2230,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1961,7 +2244,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1986,7 +2269,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2000,7 +2283,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C93">
         <v>5400</v>
@@ -2014,7 +2297,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C94">
         <v>-7</v>
@@ -2028,7 +2311,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2042,7 +2325,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2056,7 +2339,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2070,7 +2353,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C98">
         <v>2029</v>
@@ -2084,7 +2367,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2098,7 +2381,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2112,7 +2395,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C101">
         <v>2962</v>
@@ -2126,7 +2409,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C102">
         <v>2335</v>
@@ -2140,7 +2423,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2154,7 +2437,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2168,13 +2451,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>-86107</v>
+        <v>-26971</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2182,7 +2465,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C106">
         <v>245</v>
@@ -2196,7 +2479,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C107">
         <v>100</v>
@@ -2210,7 +2493,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2224,7 +2507,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2238,7 +2521,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2252,7 +2535,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C111">
         <v>95</v>
@@ -2266,7 +2549,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C112">
         <v>451</v>
@@ -2280,7 +2563,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C113">
         <v>173</v>
@@ -2294,7 +2577,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C114">
         <v>-800</v>
@@ -2308,7 +2591,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2322,7 +2605,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2336,7 +2619,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C117">
         <v>23800</v>
@@ -2350,13 +2633,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>-7772</v>
+        <v>-2772</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -2364,7 +2647,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2378,7 +2661,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2392,7 +2675,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2406,7 +2689,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2420,7 +2703,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2434,7 +2717,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C124">
         <v>-250</v>
@@ -2448,7 +2731,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C125">
         <v>120</v>
@@ -2473,7 +2756,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2487,7 +2770,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2501,7 +2784,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2515,7 +2798,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2529,7 +2812,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2543,7 +2826,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2557,7 +2840,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2571,7 +2854,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2585,17 +2868,434 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C135">
-        <v>24610</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>46327</v>
+        <v>-16661</v>
       </c>
       <c r="E135">
-        <v>1796</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A135"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="22" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+    </row>
+    <row r="27" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+    </row>
+    <row r="29" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+    </row>
+    <row r="37" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+    </row>
+    <row r="39" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+    </row>
+    <row r="41" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+    </row>
+    <row r="42" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+    </row>
+    <row r="43" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+    </row>
+    <row r="44" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+    </row>
+    <row r="45" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+    </row>
+    <row r="47" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+    </row>
+    <row r="49" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+    </row>
+    <row r="53" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+    </row>
+    <row r="58" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+    </row>
+    <row r="59" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+    </row>
+    <row r="60" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+    </row>
+    <row r="69" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="18"/>
+    </row>
+    <row r="70" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A81" s="19"/>
+    </row>
+    <row r="82" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A102" s="20"/>
+    </row>
+    <row r="103" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A110" s="6"/>
+    </row>
+    <row r="111" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1" ht="23.4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -412,7 +412,7 @@
     <t>money_gram</t>
   </si>
   <si>
-    <t>مديونية كاظم</t>
+    <t>صندوق 1</t>
   </si>
 </sst>
 </file>
@@ -994,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1018,58 +1018,61 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>-13670</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>246295</v>
+        <v>-3000</v>
       </c>
       <c r="E2">
-        <v>-25505</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-3000</v>
+        <v>63</v>
       </c>
       <c r="E3">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1520</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>-2007</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2759</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>1520</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-2007</v>
+        <v>-1912</v>
       </c>
       <c r="E5">
-        <v>2759</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>127</v>
@@ -1077,13 +1080,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-1282</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1094,30 +1097,27 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="E7">
         <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>576</v>
+        <v>-33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1125,13 +1125,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>-33</v>
+        <v>-194</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1139,13 +1139,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-194</v>
+        <v>155</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>155</v>
+        <v>-7145</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1167,13 +1167,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>-7145</v>
+        <v>113</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1181,13 +1181,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>113</v>
+        <v>-300</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-970</v>
       </c>
       <c r="D14">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,13 +1209,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>-970</v>
+        <v>-40</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>-115</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1223,13 +1223,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>-40</v>
+        <v>-1400</v>
       </c>
       <c r="D16">
-        <v>-115</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1237,13 +1237,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>-10650</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1251,13 +1251,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-270</v>
       </c>
       <c r="D18">
-        <v>-10650</v>
+        <v>-4431</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>-270</v>
+        <v>-160</v>
       </c>
       <c r="D19">
-        <v>-4431</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1279,13 +1279,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20">
-        <v>-160</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>-156</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1293,13 +1293,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>-156</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1307,41 +1307,41 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>4075</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="D23">
-        <v>4075</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>-3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24">
-        <v>800</v>
+        <v>-470</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1349,13 +1349,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25">
-        <v>-470</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-35</v>
+        <v>-656</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1363,13 +1363,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>-656</v>
+        <v>-1596</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>-1596</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="C28">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1405,13 +1405,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="D29">
-        <v>-261</v>
+        <v>1868</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1419,13 +1419,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1868</v>
+        <v>-400</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>-12600</v>
       </c>
       <c r="D31">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1447,13 +1447,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32">
-        <v>-12600</v>
+        <v>4272</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>-2467</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1461,13 +1461,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33">
-        <v>4272</v>
+        <v>-15</v>
       </c>
       <c r="D33">
-        <v>-2467</v>
+        <v>-5600</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1475,13 +1475,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>-5600</v>
+        <v>-10</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1489,35 +1489,35 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>-10</v>
+        <v>491</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
       <c r="C37">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1527,11 +1527,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
       <c r="C38">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1541,8 +1538,11 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
       <c r="C39">
-        <v>0</v>
+        <v>4365</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40">
-        <v>4365</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>-2563</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1567,13 +1567,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="D41">
-        <v>-2563</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1581,10 +1581,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42">
-        <v>1950</v>
+        <v>3000</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1595,13 +1595,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1609,13 +1609,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>-60</v>
+        <v>-1260</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1623,13 +1623,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>-1260</v>
+        <v>-10</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>-10</v>
+        <v>-250</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1651,13 +1651,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D47">
-        <v>-250</v>
+        <v>-2719</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1665,13 +1665,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C48">
-        <v>150</v>
+        <v>-74</v>
       </c>
       <c r="D48">
-        <v>-2719</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1679,13 +1679,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C49">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1693,13 +1693,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>92</v>
+        <v>-300</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D51">
-        <v>-300</v>
+        <v>14</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1721,52 +1721,49 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>14</v>
+        <v>-48452</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>31383</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>-48032</v>
+        <v>-1103</v>
       </c>
       <c r="E53">
-        <v>31383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="D54">
-        <v>-1103</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>52</v>
-      </c>
       <c r="C55">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1776,11 +1773,14 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1788,13 +1788,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D57">
-        <v>-10</v>
+        <v>-2522</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1802,13 +1802,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>-2522</v>
+        <v>-6450</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1816,13 +1816,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>-6450</v>
+        <v>-265</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1830,13 +1830,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="D60">
-        <v>-265</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C61">
-        <v>687</v>
+        <v>-649</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C62">
-        <v>-649</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1886,13 +1886,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="D64">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1900,13 +1900,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C65">
-        <v>-150</v>
+        <v>220</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1914,13 +1914,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C66">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>1002</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1928,13 +1928,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1942,13 +1942,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>-16</v>
+        <v>-12452</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1956,13 +1956,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>-12452</v>
+        <v>-146</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1970,13 +1970,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>-146</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1984,13 +1984,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1998,35 +1998,35 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C72">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>600</v>
+        <v>-13083</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>69</v>
-      </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>-13083</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>70</v>
+      </c>
       <c r="C74">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2037,13 +2037,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C75">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>-3541</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2051,13 +2051,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>-4051</v>
+        <v>-433</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2065,13 +2065,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>-433</v>
+        <v>-1948</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="D78">
-        <v>-1948</v>
+        <v>-226</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2093,13 +2093,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C79">
-        <v>-150</v>
+        <v>1620</v>
       </c>
       <c r="D79">
-        <v>-226</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2107,13 +2107,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C80">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2121,69 +2121,69 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>100</v>
+        <v>-134</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>-900</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>-134</v>
+        <v>-16</v>
       </c>
       <c r="E82">
-        <v>-900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>-16</v>
+        <v>-252</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="D84">
-        <v>-252</v>
+        <v>-200</v>
       </c>
       <c r="E84">
-        <v>-53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C85">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>-200</v>
+        <v>8118</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2191,22 +2191,19 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>8118</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>82</v>
-      </c>
       <c r="C87">
         <v>0</v>
       </c>
@@ -2218,11 +2215,14 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>83</v>
+      </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2230,13 +2230,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>-45</v>
+        <v>-12662</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2244,19 +2244,22 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>-13670</v>
       </c>
       <c r="D90">
-        <v>-12662</v>
+        <v>235295</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>-22705</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>85</v>
+      </c>
       <c r="C91">
         <v>0</v>
       </c>
@@ -2269,10 +2272,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2283,10 +2286,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C93">
-        <v>5400</v>
+        <v>-7</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2297,13 +2300,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C94">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2311,13 +2314,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>-21</v>
+        <v>-5200</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2325,13 +2328,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>-5200</v>
+        <v>-1000</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2339,13 +2342,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>2029</v>
       </c>
       <c r="D97">
-        <v>-1000</v>
+        <v>10000</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2353,21 +2356,21 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C98">
-        <v>2029</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>-3045</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2376,18 +2379,18 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>-3045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>2962</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -2395,13 +2398,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C101">
-        <v>2962</v>
+        <v>2335</v>
       </c>
       <c r="D101">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -2409,41 +2412,41 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C102">
-        <v>2335</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>-2878</v>
       </c>
       <c r="E103">
-        <v>-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>-14178</v>
+        <v>-26971</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -2451,13 +2454,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="D105">
-        <v>-26971</v>
+        <v>-300</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2465,13 +2468,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C106">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="D106">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -2479,13 +2482,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C107">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -2493,13 +2496,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>-50</v>
+        <v>-150</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2507,13 +2510,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>-150</v>
+        <v>-10</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -2521,13 +2524,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D110">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -2535,10 +2538,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C111">
-        <v>95</v>
+        <v>451</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2549,10 +2552,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C112">
-        <v>451</v>
+        <v>173</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2563,10 +2566,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C113">
-        <v>173</v>
+        <v>-800</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -2577,13 +2580,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C114">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>-358</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -2591,13 +2594,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>-358</v>
+        <v>-4498</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -2605,13 +2608,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>23800</v>
       </c>
       <c r="D116">
-        <v>-4498</v>
+        <v>-7682</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -2619,13 +2622,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C117">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>-7682</v>
+        <v>-2772</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -2633,13 +2636,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>-2772</v>
+        <v>-118</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -2647,13 +2650,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>-118</v>
+        <v>-15000</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -2661,35 +2664,35 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>-15000</v>
+        <v>-147</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>-147</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>-70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2703,10 +2706,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2717,13 +2720,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C124">
-        <v>-250</v>
+        <v>120</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -2731,19 +2734,22 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C125">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>245</v>
+        <v>-23947</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>119</v>
+      </c>
       <c r="C126">
         <v>0</v>
       </c>
@@ -2756,13 +2762,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -2770,13 +2776,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>-500</v>
+        <v>-31600</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -2784,13 +2790,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129">
-        <v>-31600</v>
+        <v>27495</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -2798,13 +2804,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>27495</v>
+        <v>-2000</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -2812,13 +2818,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -2826,13 +2832,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>-100</v>
+        <v>-7000</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -2840,44 +2846,30 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>-7000</v>
+        <v>-4163</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>126</v>
-      </c>
       <c r="C134">
-        <v>0</v>
+        <f>SUM(C2:C133)</f>
+        <v>24810</v>
       </c>
       <c r="D134">
-        <v>-4163</v>
+        <f>SUM(D2:D133)</f>
+        <v>1685</v>
       </c>
       <c r="E134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>129</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
-        <v>-16661</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
+        <f>SUM(E2:E133)</f>
+        <v>4296</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="131">
-  <si>
-    <t>شيكل</t>
-  </si>
-  <si>
-    <t>دولار</t>
-  </si>
-  <si>
-    <t>دينار</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
   <si>
     <t>ابومفيد</t>
   </si>
@@ -310,9 +301,6 @@
     <t>عماره تعويضات ابومفيد 800+3295 شيكل 13-3-2022</t>
   </si>
   <si>
-    <t>مامون الريس ابوعبدالله</t>
-  </si>
-  <si>
     <t xml:space="preserve">مدى غلة غزه </t>
   </si>
   <si>
@@ -379,9 +367,6 @@
     <t>فراس دير البلح</t>
   </si>
   <si>
-    <t>حميد</t>
-  </si>
-  <si>
     <t>حاتم المشهراوي</t>
   </si>
   <si>
@@ -391,18 +376,9 @@
     <t>صامد الشريف</t>
   </si>
   <si>
-    <t>الاء الريس</t>
-  </si>
-  <si>
     <t>العالميه للصرافه</t>
   </si>
   <si>
-    <t>محمد اخو جلال عياد</t>
-  </si>
-  <si>
-    <t>المشهراوي شومر</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -412,7 +388,43 @@
     <t>money_gram</t>
   </si>
   <si>
-    <t>صندوق 1</t>
+    <t>صندوق واحد</t>
+  </si>
+  <si>
+    <t>عبد الكريم عابدين</t>
+  </si>
+  <si>
+    <t>ابراهيم الطويل</t>
+  </si>
+  <si>
+    <t>البورد العربي ايداعات</t>
+  </si>
+  <si>
+    <t>نور عبيد</t>
+  </si>
+  <si>
+    <t>عمار ابوضاهر</t>
+  </si>
+  <si>
+    <t>منير جواد ابوادم</t>
+  </si>
+  <si>
+    <t>الدن ابوزكريا الدن</t>
+  </si>
+  <si>
+    <t>محمد فوره</t>
+  </si>
+  <si>
+    <t>باسل الشوا ابوكريم</t>
+  </si>
+  <si>
+    <t>الشيكل</t>
+  </si>
+  <si>
+    <t>الدولار</t>
+  </si>
+  <si>
+    <t>الدينار</t>
   </si>
 </sst>
 </file>
@@ -994,116 +1006,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-13670</v>
       </c>
       <c r="D2">
-        <v>-3000</v>
+        <v>160796</v>
       </c>
       <c r="E2">
-        <v>-40</v>
+        <v>-3225</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>-3000</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1520</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-2007</v>
+        <v>63</v>
       </c>
       <c r="E4">
-        <v>2759</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2320</v>
       </c>
       <c r="D5">
-        <v>-1912</v>
+        <v>1473</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2759</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-324</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1111,13 +1123,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D8">
-        <v>-33</v>
+        <v>576</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1125,13 +1137,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>-194</v>
+        <v>-33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1139,13 +1151,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>155</v>
+        <v>-14319</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1153,13 +1165,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>-7145</v>
+        <v>155</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1167,13 +1179,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>113</v>
+        <v>-6920</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1181,13 +1193,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>-300</v>
+        <v>113</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,13 +1207,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>-970</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,13 +1221,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>-40</v>
+        <v>-970</v>
       </c>
       <c r="D15">
-        <v>-115</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1223,13 +1235,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>-1400</v>
+        <v>-40</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>-115</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1237,13 +1249,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="D17">
-        <v>-10650</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1251,13 +1263,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>-270</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-4431</v>
+        <v>-10650</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1265,13 +1277,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>-160</v>
+        <v>-560</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>884</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1279,13 +1291,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="D20">
-        <v>-156</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1293,13 +1305,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>-156</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1307,41 +1319,41 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4075</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>-3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4075</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C24">
-        <v>-470</v>
+        <v>800</v>
       </c>
       <c r="D24">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1349,13 +1361,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>-656</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1363,13 +1375,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>-1596</v>
+        <v>-656</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1377,13 +1389,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>-1596</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1391,7 +1403,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1405,13 +1417,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="C29">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1419,13 +1431,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="D30">
-        <v>-400</v>
+        <v>1868</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1433,13 +1445,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C31">
-        <v>-12600</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1447,13 +1459,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C32">
-        <v>4272</v>
+        <v>-12600</v>
       </c>
       <c r="D32">
-        <v>-2467</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1461,13 +1473,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C33">
-        <v>-15</v>
+        <v>5269</v>
       </c>
       <c r="D33">
-        <v>-5600</v>
+        <v>-3418</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1475,13 +1487,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="D34">
-        <v>-10</v>
+        <v>-5600</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1489,24 +1501,27 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>491</v>
+        <v>-10</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1514,21 +1529,24 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38">
         <v>-20</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C38">
-        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1539,13 +1557,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="C39">
-        <v>4365</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>-489</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1553,13 +1571,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>4365</v>
       </c>
       <c r="D40">
-        <v>-2563</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1567,13 +1585,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C41">
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>-2483</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1581,10 +1599,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C42">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1595,13 +1613,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="D43">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1609,13 +1627,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>-1260</v>
+        <v>-60</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1623,13 +1641,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>-10</v>
+        <v>-1260</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1637,13 +1655,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>-250</v>
+        <v>-10</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1651,13 +1669,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C47">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>-2719</v>
+        <v>-250</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1665,13 +1683,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C48">
-        <v>-74</v>
+        <v>150</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>-2719</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1679,13 +1697,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="D49">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1693,13 +1711,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>-300</v>
+        <v>-728</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1707,13 +1725,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C51">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>14</v>
+        <v>-300</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1721,49 +1739,52 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D52">
-        <v>-48452</v>
+        <v>14</v>
       </c>
       <c r="E52">
-        <v>31383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>-1103</v>
+        <v>-8512</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>7891</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1987</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55">
         <v>-14</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C55">
-        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1774,13 +1795,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1788,13 +1809,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C57">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>-2522</v>
+        <v>-10</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1802,13 +1823,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D58">
-        <v>-6450</v>
+        <v>-2522</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1816,13 +1837,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>-265</v>
+        <v>-15825</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1830,13 +1851,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C60">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>-265</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1844,10 +1865,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C61">
-        <v>-649</v>
+        <v>2169</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1858,13 +1879,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-579</v>
       </c>
       <c r="D62">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1872,13 +1893,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1886,13 +1907,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C64">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1900,13 +1921,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C65">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="D65">
-        <v>1002</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1914,13 +1935,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1928,13 +1949,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>-16</v>
+        <v>-90</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1942,13 +1963,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>-12452</v>
+        <v>-16</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1956,13 +1977,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>-146</v>
+        <v>-9452</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1970,13 +1991,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>-146</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1984,13 +2005,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C71">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>600</v>
+        <v>992</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1998,24 +2019,27 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
         <v>-13083</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2023,13 +2047,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="C74">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>-616</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2037,13 +2061,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D75">
-        <v>-3541</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2051,13 +2075,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>-433</v>
+        <v>-296</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2065,13 +2089,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>-1948</v>
+        <v>-433</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2079,13 +2103,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C78">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>-226</v>
+        <v>-1948</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2093,13 +2117,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C79">
-        <v>1620</v>
+        <v>-150</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>4914</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2107,13 +2131,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="D80">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2121,27 +2145,27 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>-134</v>
+        <v>100</v>
       </c>
       <c r="E81">
-        <v>-900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>-16</v>
+        <v>4681</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2149,41 +2173,41 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>-252</v>
+        <v>-16</v>
       </c>
       <c r="E83">
-        <v>-53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C84">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>-200</v>
+        <v>-252</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="D85">
-        <v>8118</v>
+        <v>-200</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2191,19 +2215,22 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>8118</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>79</v>
+      </c>
       <c r="C87">
         <v>0</v>
       </c>
@@ -2216,13 +2243,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="D88">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2230,13 +2257,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>-12662</v>
+        <v>-45</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2244,22 +2271,19 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="C90">
-        <v>-13670</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>235295</v>
+        <v>-12662</v>
       </c>
       <c r="E90">
-        <v>-22705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>85</v>
-      </c>
       <c r="C91">
         <v>0</v>
       </c>
@@ -2272,10 +2296,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C92">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2286,10 +2310,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C93">
-        <v>-7</v>
+        <v>3000</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2300,13 +2324,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D94">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2314,13 +2338,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>-5200</v>
+        <v>-21</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2328,13 +2352,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>-1000</v>
+        <v>-2700</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2342,13 +2366,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C97">
-        <v>2029</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>10000</v>
+        <v>-750</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2356,21 +2380,21 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>2029</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E98">
-        <v>-3045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2379,18 +2403,18 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-1279</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C100">
-        <v>2962</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -2398,13 +2422,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C101">
-        <v>2335</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -2412,27 +2436,27 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>2335</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="D103">
-        <v>-2878</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -2440,13 +2464,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>-26971</v>
+        <v>15452</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -2454,13 +2478,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C105">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>-300</v>
+        <v>-227269</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2468,13 +2492,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C106">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -2482,13 +2506,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D107">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -2496,13 +2520,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>-150</v>
+        <v>-50</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2510,13 +2534,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>-10</v>
+        <v>-150</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -2524,13 +2548,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C110">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -2538,10 +2562,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C111">
-        <v>451</v>
+        <v>95</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2552,10 +2576,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C112">
-        <v>173</v>
+        <v>451</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2566,10 +2590,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C113">
-        <v>-800</v>
+        <v>173</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -2580,13 +2604,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>-358</v>
+        <v>-31443</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -2594,13 +2618,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="D115">
-        <v>-4498</v>
+        <v>0</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -2608,13 +2632,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C116">
-        <v>23800</v>
+        <v>637</v>
       </c>
       <c r="D116">
-        <v>-7682</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -2622,13 +2646,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>-2772</v>
+        <v>-4498</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -2636,13 +2660,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>23800</v>
       </c>
       <c r="D118">
-        <v>-118</v>
+        <v>-7682</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -2650,13 +2674,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D119">
-        <v>-15000</v>
+        <v>7633</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -2664,27 +2688,27 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>-147</v>
+        <v>-168</v>
       </c>
       <c r="E120">
-        <v>-70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>-15000</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -2692,24 +2716,24 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>-147</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C123">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2720,13 +2744,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C124">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -2734,13 +2758,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>-450</v>
       </c>
       <c r="D125">
-        <v>-23947</v>
+        <v>0</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -2748,13 +2772,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -2762,13 +2786,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -2776,13 +2800,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>-31600</v>
+        <v>-910</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -2790,13 +2814,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129">
-        <v>27495</v>
+        <v>-500</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -2804,13 +2828,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>-2000</v>
+        <v>-31600</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -2818,13 +2842,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>23536</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -2832,13 +2856,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>-7000</v>
+        <v>200000</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -2846,34 +2870,21 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>-4163</v>
+        <v>-900</v>
       </c>
       <c r="E133">
         <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C134">
-        <f>SUM(C2:C133)</f>
-        <v>24810</v>
-      </c>
-      <c r="D134">
-        <f>SUM(D2:D133)</f>
-        <v>1685</v>
-      </c>
-      <c r="E134">
-        <f>SUM(E2:E133)</f>
-        <v>4296</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -447,7 +447,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="178"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>سامر شراب</t>
   </si>
@@ -197,9 +197,6 @@
     <t>باسم صافي</t>
   </si>
   <si>
-    <t>نور عبيد</t>
-  </si>
-  <si>
     <t>عبد البنا</t>
   </si>
   <si>
@@ -425,7 +422,16 @@
     <t>محمد الزين دليس</t>
   </si>
   <si>
-    <t>money_gram</t>
+    <t>مالك الرنتيسي</t>
+  </si>
+  <si>
+    <t>عبدالله ميلاد</t>
+  </si>
+  <si>
+    <t>ابونائل جرغون</t>
+  </si>
+  <si>
+    <t>موني جرام</t>
   </si>
 </sst>
 </file>
@@ -488,23 +494,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Currency 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="عادي 2" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -808,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -842,10 +850,10 @@
         <v>-13670</v>
       </c>
       <c r="C2">
-        <v>297066</v>
+        <v>261128</v>
       </c>
       <c r="D2">
-        <v>-3225</v>
+        <v>-7725</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -853,7 +861,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-1450</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>-3000</v>
@@ -884,10 +892,10 @@
         <v>3320</v>
       </c>
       <c r="C5">
-        <v>-2937</v>
+        <v>-2337</v>
       </c>
       <c r="D5">
-        <v>3064</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-70</v>
+        <v>-87</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -912,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-57104</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -926,7 +934,7 @@
         <v>130</v>
       </c>
       <c r="C8">
-        <v>576</v>
+        <v>527</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -954,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-4141</v>
+        <v>-2172</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -982,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-5520</v>
+        <v>-11250</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1077,7 +1085,7 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>-760</v>
+        <v>-1180</v>
       </c>
       <c r="C19">
         <v>594</v>
@@ -1164,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1220,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>-4838</v>
+        <v>-5931</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1259,7 +1267,7 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-12600</v>
+        <v>-5600</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1276,10 +1284,10 @@
         <v>5269</v>
       </c>
       <c r="C33">
-        <v>-3418</v>
+        <v>-3318</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1332,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>4920</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1388,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>-2483</v>
+        <v>-2322</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1399,7 +1407,7 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1437,6 +1445,9 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>133</v>
+      </c>
       <c r="B45">
         <v>0</v>
       </c>
@@ -1539,7 +1550,7 @@
         <v>-250</v>
       </c>
       <c r="C52">
-        <v>1174</v>
+        <v>14</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1553,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>-18337</v>
+        <v>-23602</v>
       </c>
       <c r="D53">
-        <v>18222</v>
+        <v>19272</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,13 +1600,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1603,7 +1614,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1617,7 +1628,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>-300</v>
@@ -1631,13 +1642,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>-11504</v>
+        <v>4097</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1645,7 +1656,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1659,10 +1670,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>2304</v>
+        <v>2409</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1673,7 +1684,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>-439</v>
@@ -1687,13 +1698,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>-50</v>
+        <v>-250</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1701,7 +1712,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1715,7 +1726,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>450</v>
@@ -1729,13 +1740,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>220</v>
       </c>
       <c r="C66">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1743,13 +1754,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>-90</v>
+        <v>531</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1757,7 +1768,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1771,13 +1782,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>-8452</v>
+        <v>-6452</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1785,7 +1796,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1799,7 +1810,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1813,7 +1824,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72">
         <v>600</v>
@@ -1827,7 +1838,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1841,13 +1852,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>-616</v>
+        <v>-924</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1855,7 +1866,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75">
         <v>-200</v>
@@ -1869,13 +1880,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>285</v>
+        <v>1780</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1883,7 +1894,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1897,7 +1908,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1911,13 +1922,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79">
         <v>-150</v>
       </c>
       <c r="C79">
-        <v>-2602</v>
+        <v>-2323</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1925,7 +1936,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80">
         <v>1620</v>
@@ -1939,7 +1950,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1953,13 +1964,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>832</v>
+        <v>-2372</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1967,7 +1978,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1981,7 +1992,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1995,7 +2006,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85">
         <v>-95</v>
@@ -2009,7 +2020,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2023,13 +2034,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>-2793</v>
+        <v>-22092</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2037,7 +2048,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88">
         <v>900</v>
@@ -2051,13 +2062,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2065,7 +2076,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2089,11 +2100,14 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>135</v>
+      </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>61010</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2101,7 +2115,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>3000</v>
@@ -2115,7 +2129,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>-7</v>
@@ -2129,7 +2143,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2143,7 +2157,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2157,7 +2171,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2171,7 +2185,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>2029</v>
@@ -2185,7 +2199,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2199,7 +2213,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2213,13 +2227,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2227,7 +2241,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>2335</v>
@@ -2241,7 +2255,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>-50</v>
@@ -2255,13 +2269,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>26588</v>
+        <v>26344</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2269,13 +2283,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>-107364</v>
+        <v>-39345</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2283,7 +2297,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>245</v>
@@ -2297,7 +2311,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>100</v>
@@ -2311,7 +2325,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2325,7 +2339,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2339,7 +2353,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2353,10 +2367,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2367,7 +2381,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>451</v>
@@ -2381,10 +2395,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2395,13 +2409,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="C114">
-        <v>-17277</v>
+        <v>-17057</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2409,7 +2423,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>-800</v>
@@ -2423,10 +2437,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116">
-        <v>637</v>
+        <v>587</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2437,13 +2451,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>-4498</v>
+        <v>-4698</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2451,7 +2465,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>23800</v>
@@ -2465,13 +2479,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>-20136</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2479,7 +2493,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -2493,7 +2507,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -2507,7 +2521,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -2521,7 +2535,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -2535,7 +2549,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -2549,21 +2563,21 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125">
-        <v>-470</v>
+        <v>-120</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>120</v>
@@ -2577,13 +2591,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>-7951</v>
+        <v>-8951</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -2591,7 +2605,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>-300</v>
@@ -2605,7 +2619,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2619,13 +2633,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>-30700</v>
+        <v>-28000</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -2633,13 +2647,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>22275</v>
+        <v>22175</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2658,13 +2672,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>-900</v>
+        <v>-2305</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2672,7 +2686,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -2686,7 +2700,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135">
         <v>0</v>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>سامر شراب</t>
   </si>
@@ -344,9 +344,6 @@
     <t>صلاح الملاحي</t>
   </si>
   <si>
-    <t xml:space="preserve">ولاء القمع </t>
-  </si>
-  <si>
     <t>ابواحمد الغندور</t>
   </si>
   <si>
@@ -432,6 +429,15 @@
   </si>
   <si>
     <t>موني جرام</t>
+  </si>
+  <si>
+    <t>محمد شعت الامارات</t>
+  </si>
+  <si>
+    <t>ابوبلال المصري</t>
+  </si>
+  <si>
+    <t>ابودرويش</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;ر.س.‏&quot;\ * #,##0.00_-;_-&quot;ر.س.‏&quot;\ * #,##0.00\-;_-&quot;ر.س.‏&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,14 +472,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="178"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -502,9 +500,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -814,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -850,7 +847,7 @@
         <v>-13670</v>
       </c>
       <c r="C2">
-        <v>261128</v>
+        <v>216143</v>
       </c>
       <c r="D2">
         <v>-7725</v>
@@ -889,13 +886,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>3320</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>-2337</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -906,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-87</v>
+        <v>-318</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -920,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-57104</v>
+        <v>-28176</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -962,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-2172</v>
+        <v>-931</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -990,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-11250</v>
+        <v>-1630</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1228,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>-5931</v>
+        <v>-4836</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1284,7 +1281,7 @@
         <v>5269</v>
       </c>
       <c r="C33">
-        <v>-3318</v>
+        <v>-4271</v>
       </c>
       <c r="D33">
         <v>100</v>
@@ -1340,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>4920</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1368,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>-279</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1396,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>-2322</v>
+        <v>-1727</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1407,7 +1404,7 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>1800</v>
+        <v>1710</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1446,7 +1443,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1564,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>-23602</v>
+        <v>-22607</v>
       </c>
       <c r="D53">
-        <v>19272</v>
+        <v>21835</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1600,7 +1597,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1648,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>4097</v>
+        <v>-8094</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1673,7 +1670,7 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>2409</v>
+        <v>2503</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1746,7 +1743,7 @@
         <v>220</v>
       </c>
       <c r="C66">
-        <v>1031</v>
+        <v>1042</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1760,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1788,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>-6452</v>
+        <v>-5452</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1886,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>1780</v>
+        <v>-6510</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1928,7 +1925,7 @@
         <v>-150</v>
       </c>
       <c r="C79">
-        <v>-2323</v>
+        <v>2128</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1970,10 +1967,10 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>-2372</v>
+        <v>150</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2040,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>-22092</v>
+        <v>-1589</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2101,13 +2098,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>61010</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2118,7 +2115,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>3000</v>
+        <v>2850</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2233,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2275,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>26344</v>
+        <v>28215</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2289,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>-39345</v>
+        <v>-20168</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2325,13 +2322,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>-50</v>
+        <v>-200</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2339,7 +2336,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2353,7 +2350,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2367,7 +2364,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>45</v>
@@ -2381,7 +2378,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>451</v>
@@ -2395,7 +2392,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>123</v>
@@ -2409,13 +2406,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B114">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>-17057</v>
+        <v>-18658</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2423,7 +2420,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115">
         <v>-800</v>
@@ -2437,7 +2434,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116">
         <v>587</v>
@@ -2451,13 +2448,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>-4698</v>
+        <v>-5198</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2465,7 +2462,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118">
         <v>23800</v>
@@ -2479,13 +2476,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C119">
-        <v>-20136</v>
+        <v>-10336</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2493,13 +2490,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>-168</v>
+        <v>-118</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2507,7 +2504,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -2521,7 +2518,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -2535,7 +2532,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -2549,7 +2546,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -2563,10 +2560,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125">
-        <v>-120</v>
+        <v>-320</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2577,13 +2574,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126">
-        <v>120</v>
+        <v>-30</v>
       </c>
       <c r="C126">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2591,7 +2588,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -2605,7 +2602,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128">
         <v>-300</v>
@@ -2619,7 +2616,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2633,7 +2630,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2647,7 +2644,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -2660,11 +2657,14 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>137</v>
+      </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2672,13 +2672,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>-2305</v>
+        <v>-2755</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2686,13 +2686,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="C134">
-        <v>-3070</v>
+        <v>-2470</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2712,8 +2712,19 @@
         <v>-105</v>
       </c>
     </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F153" s="1"/>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>-100</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>سامر شراب</t>
   </si>
@@ -41,9 +41,6 @@
     <t>الريال</t>
   </si>
   <si>
-    <t>صندوق واحد</t>
-  </si>
-  <si>
     <t>ابومفيد</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>عامل الحجر القدسي</t>
   </si>
   <si>
-    <t>زاجل محمد ابودقه</t>
-  </si>
-  <si>
     <t>المختار سمير ابوسيدو</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>ابوخالد مطر</t>
   </si>
   <si>
-    <t>محمد تكونه</t>
-  </si>
-  <si>
     <t>الصوص وطن</t>
   </si>
   <si>
@@ -248,9 +239,6 @@
     <t>شومر اسامه</t>
   </si>
   <si>
-    <t>عمار ابوضاهر</t>
-  </si>
-  <si>
     <t>محمد مفيد عماد الاشقر</t>
   </si>
   <si>
@@ -293,9 +281,6 @@
     <t>منير جواد ابوادم</t>
   </si>
   <si>
-    <t>ام فادي ابوسيدو</t>
-  </si>
-  <si>
     <t>بسام عجور وساطه</t>
   </si>
   <si>
@@ -344,9 +329,6 @@
     <t>صلاح الملاحي</t>
   </si>
   <si>
-    <t>ابواحمد الغندور</t>
-  </si>
-  <si>
     <t>حمدي الريفي ابومحمد</t>
   </si>
   <si>
@@ -383,12 +365,6 @@
     <t>ابوخالد الريس</t>
   </si>
   <si>
-    <t>هيثم فياض</t>
-  </si>
-  <si>
-    <t>حميد</t>
-  </si>
-  <si>
     <t>خالد جراده</t>
   </si>
   <si>
@@ -419,15 +395,6 @@
     <t>محمد الزين دليس</t>
   </si>
   <si>
-    <t>مالك الرنتيسي</t>
-  </si>
-  <si>
-    <t>عبدالله ميلاد</t>
-  </si>
-  <si>
-    <t>ابونائل جرغون</t>
-  </si>
-  <si>
     <t>موني جرام</t>
   </si>
   <si>
@@ -437,7 +404,16 @@
     <t>ابوبلال المصري</t>
   </si>
   <si>
-    <t>ابودرويش</t>
+    <t>صندوق كاظم (1) واحد كاظم</t>
+  </si>
+  <si>
+    <t>شيك موني جرام</t>
+  </si>
+  <si>
+    <t>ابوحسان صوان</t>
+  </si>
+  <si>
+    <t>عامر فوره</t>
   </si>
 </sst>
 </file>
@@ -811,15 +787,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.8984375" customWidth="1"/>
+    <col min="1" max="1" width="31.19921875" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -841,7 +822,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>-13670</v>
@@ -850,15 +831,15 @@
         <v>216143</v>
       </c>
       <c r="D2">
-        <v>-7725</v>
+        <v>-9725</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="C3">
         <v>-3000</v>
@@ -869,7 +850,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -883,27 +864,27 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-318</v>
+        <v>-697</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -911,13 +892,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-28176</v>
+        <v>-1000</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -925,7 +906,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>130</v>
@@ -939,7 +920,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -953,13 +934,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-931</v>
+        <v>246</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -967,7 +948,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -981,7 +962,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -995,7 +976,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1009,7 +990,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1023,7 +1004,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>-970</v>
@@ -1037,7 +1018,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>-40</v>
@@ -1051,7 +1032,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>-1400</v>
@@ -1065,7 +1046,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1079,13 +1060,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-1180</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>594</v>
+        <v>2795</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1093,7 +1074,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>-160</v>
@@ -1107,7 +1088,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1121,7 +1102,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1135,7 +1116,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1149,7 +1130,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>800</v>
@@ -1163,13 +1144,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1177,7 +1158,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1191,7 +1172,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1219,7 +1200,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1233,7 +1214,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>1540</v>
@@ -1247,7 +1228,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1261,7 +1242,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>-5600</v>
@@ -1275,13 +1256,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>5269</v>
+        <v>6138</v>
       </c>
       <c r="C33">
-        <v>-4271</v>
+        <v>-4382</v>
       </c>
       <c r="D33">
         <v>100</v>
@@ -1289,7 +1270,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>-15</v>
@@ -1303,7 +1284,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1317,13 +1298,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>-28630</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1331,13 +1312,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1345,7 +1326,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>-20</v>
@@ -1359,13 +1340,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>-279</v>
+        <v>-599</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1373,7 +1354,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>4365</v>
@@ -1387,13 +1368,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>-1727</v>
+        <v>-694</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1401,10 +1382,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>1710</v>
+        <v>2250</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1415,7 +1396,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>2100</v>
@@ -1429,7 +1410,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1442,9 +1423,6 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>132</v>
-      </c>
       <c r="B45">
         <v>0</v>
       </c>
@@ -1457,7 +1435,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1471,7 +1449,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1485,7 +1463,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>300</v>
@@ -1499,7 +1477,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>-74</v>
@@ -1513,13 +1491,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>-728</v>
+        <v>-528</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1527,7 +1505,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1541,7 +1519,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>-250</v>
@@ -1555,27 +1533,24 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>-22607</v>
+        <v>-30957</v>
       </c>
       <c r="D53">
-        <v>21835</v>
+        <v>18659</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1583,7 +1558,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>-14</v>
@@ -1596,9 +1571,6 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>133</v>
-      </c>
       <c r="B56">
         <v>0</v>
       </c>
@@ -1611,7 +1583,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1625,7 +1597,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>-300</v>
@@ -1639,13 +1611,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>-8094</v>
+        <v>7029</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1653,7 +1625,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1667,10 +1639,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>2503</v>
+        <v>2638</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1681,7 +1653,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>-439</v>
@@ -1695,7 +1667,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1709,7 +1681,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1723,7 +1695,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>450</v>
@@ -1737,7 +1709,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>220</v>
@@ -1751,7 +1723,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1765,7 +1737,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1779,13 +1751,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>-5452</v>
+        <v>-3122</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1793,7 +1765,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1807,13 +1779,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>994</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1821,7 +1793,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>600</v>
@@ -1835,7 +1807,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1848,14 +1820,11 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>-924</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1863,7 +1832,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B75">
         <v>-200</v>
@@ -1877,13 +1846,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>-6510</v>
+        <v>-4490</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1891,13 +1860,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>-433</v>
+        <v>-333</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -1905,7 +1874,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1919,13 +1888,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B79">
         <v>-150</v>
       </c>
       <c r="C79">
-        <v>2128</v>
+        <v>3070</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1933,7 +1902,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B80">
         <v>1620</v>
@@ -1947,7 +1916,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1961,21 +1930,21 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>150</v>
+        <v>-1213</v>
       </c>
       <c r="D82">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1989,7 +1958,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2003,7 +1972,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B85">
         <v>-95</v>
@@ -2017,7 +1986,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2031,13 +2000,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>-1589</v>
+        <v>-1493</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2045,7 +2014,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B88">
         <v>900</v>
@@ -2058,9 +2027,6 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>90</v>
-      </c>
       <c r="B89">
         <v>0</v>
       </c>
@@ -2073,7 +2039,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2097,9 +2063,6 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>134</v>
-      </c>
       <c r="B92">
         <v>0</v>
       </c>
@@ -2112,7 +2075,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B93">
         <v>2850</v>
@@ -2126,7 +2089,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B94">
         <v>-7</v>
@@ -2140,7 +2103,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2154,7 +2117,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2168,13 +2131,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>-750</v>
+        <v>-500</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2182,7 +2145,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B98">
         <v>2029</v>
@@ -2196,7 +2159,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2210,7 +2173,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2224,7 +2187,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2238,7 +2201,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B102">
         <v>2335</v>
@@ -2252,7 +2215,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B103">
         <v>-50</v>
@@ -2266,13 +2229,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>28215</v>
+        <v>-14505</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2280,13 +2243,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>-20168</v>
+        <v>-3333</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2294,7 +2257,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B106">
         <v>245</v>
@@ -2308,7 +2271,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B107">
         <v>100</v>
@@ -2322,7 +2285,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2335,14 +2298,11 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>107</v>
-      </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2350,7 +2310,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2364,7 +2324,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B111">
         <v>45</v>
@@ -2378,7 +2338,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B112">
         <v>451</v>
@@ -2392,7 +2352,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B113">
         <v>123</v>
@@ -2406,13 +2366,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>-18658</v>
+        <v>-15285</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2420,7 +2380,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B115">
         <v>-800</v>
@@ -2434,10 +2394,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B116">
-        <v>587</v>
+        <v>3287</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2448,13 +2408,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>-5198</v>
+        <v>-2648</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2462,7 +2422,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B118">
         <v>23800</v>
@@ -2476,13 +2436,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B119">
         <v>-100</v>
       </c>
       <c r="C119">
-        <v>-10336</v>
+        <v>-8346</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2490,7 +2450,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -2504,7 +2464,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -2518,22 +2478,19 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>-147</v>
+        <v>53</v>
       </c>
       <c r="D122">
         <v>-70</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>120</v>
-      </c>
       <c r="B123">
         <v>0</v>
       </c>
@@ -2545,9 +2502,6 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>121</v>
-      </c>
       <c r="B124">
         <v>0</v>
       </c>
@@ -2560,7 +2514,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B125">
         <v>-320</v>
@@ -2574,7 +2528,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B126">
         <v>-30</v>
@@ -2588,7 +2542,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -2602,7 +2556,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B128">
         <v>-300</v>
@@ -2616,7 +2570,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2630,7 +2584,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2644,13 +2598,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>22175</v>
+        <v>20499</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2658,13 +2612,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="C132">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2672,13 +2626,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>-2755</v>
+        <v>-2765</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2686,13 +2640,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="C134">
-        <v>-2470</v>
+        <v>-1670</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -2700,7 +2654,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2713,16 +2667,41 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>138</v>
-      </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>129</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>-200</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>130</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>-307</v>
+      </c>
+      <c r="D138">
         <v>0</v>
       </c>
     </row>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>سامر شراب</t>
   </si>
@@ -266,9 +266,6 @@
     <t>كرم مشتهى ابومنير</t>
   </si>
   <si>
-    <t>طيبه</t>
-  </si>
-  <si>
     <t>فادي حنونه</t>
   </si>
   <si>
@@ -392,9 +389,6 @@
     <t>ابومدلله سمارت فون</t>
   </si>
   <si>
-    <t>محمد الزين دليس</t>
-  </si>
-  <si>
     <t>موني جرام</t>
   </si>
   <si>
@@ -404,16 +398,31 @@
     <t>ابوبلال المصري</t>
   </si>
   <si>
-    <t>صندوق كاظم (1) واحد كاظم</t>
-  </si>
-  <si>
-    <t>شيك موني جرام</t>
-  </si>
-  <si>
-    <t>ابوحسان صوان</t>
-  </si>
-  <si>
     <t>عامر فوره</t>
+  </si>
+  <si>
+    <t>صندوق كاظم واحد (1) كاظــــــــــــــــــــــــم</t>
+  </si>
+  <si>
+    <t>مصطفى بشير</t>
+  </si>
+  <si>
+    <t>محمد حميد</t>
+  </si>
+  <si>
+    <t>هادي ابومعروف</t>
+  </si>
+  <si>
+    <t>شيرين حجازي</t>
+  </si>
+  <si>
+    <t>طيبه للسياحة</t>
+  </si>
+  <si>
+    <t>نوال ابوحجر</t>
+  </si>
+  <si>
+    <t>عمار ابوضاهر</t>
   </si>
 </sst>
 </file>
@@ -787,20 +796,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.19921875" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -822,13 +826,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2">
         <v>-13670</v>
       </c>
       <c r="C2">
-        <v>216143</v>
+        <v>213013</v>
       </c>
       <c r="D2">
         <v>-9725</v>
@@ -839,7 +843,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-40</v>
+        <v>-270</v>
       </c>
       <c r="C3">
         <v>-3000</v>
@@ -870,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -884,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-697</v>
+        <v>-555</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -940,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>246</v>
+        <v>3634</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1066,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2795</v>
+        <v>2275</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1150,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1262,7 +1266,7 @@
         <v>6138</v>
       </c>
       <c r="C33">
-        <v>-4382</v>
+        <v>-4812</v>
       </c>
       <c r="D33">
         <v>100</v>
@@ -1297,14 +1301,11 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>128</v>
-      </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>-28630</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1346,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>-599</v>
+        <v>-4159</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1374,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>-694</v>
+        <v>-1406</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1385,7 +1386,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>2250</v>
+        <v>1050</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1423,11 +1424,14 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1539,13 +1543,16 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>-30957</v>
+        <v>-30482</v>
       </c>
       <c r="D53">
-        <v>18659</v>
+        <v>18214</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>128</v>
+      </c>
       <c r="B54">
         <v>0</v>
       </c>
@@ -1571,11 +1578,14 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>129</v>
+      </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1617,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>7029</v>
+        <v>10613</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1642,7 +1652,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2638</v>
+        <v>2738</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1656,7 +1666,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-439</v>
+        <v>-389</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1715,7 +1725,7 @@
         <v>220</v>
       </c>
       <c r="C66">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1729,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1345</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1757,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>-3122</v>
+        <v>-2122</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1785,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1820,6 +1830,9 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>130</v>
+      </c>
       <c r="B74">
         <v>0</v>
       </c>
@@ -1852,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>-4490</v>
+        <v>-14631</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1894,7 +1907,7 @@
         <v>-150</v>
       </c>
       <c r="C79">
-        <v>3070</v>
+        <v>-1166</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1936,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>-1213</v>
+        <v>-94</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1958,7 +1971,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1972,7 +1985,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85">
         <v>-95</v>
@@ -1986,7 +1999,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2000,13 +2013,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>-1493</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2014,7 +2027,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88">
         <v>900</v>
@@ -2027,6 +2040,9 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>132</v>
+      </c>
       <c r="B89">
         <v>0</v>
       </c>
@@ -2039,7 +2055,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2075,7 +2091,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93">
         <v>2850</v>
@@ -2089,7 +2105,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B94">
         <v>-7</v>
@@ -2103,7 +2119,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2117,7 +2133,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2131,7 +2147,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2145,7 +2161,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98">
         <v>2029</v>
@@ -2159,7 +2175,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2173,7 +2189,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2187,13 +2203,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2201,10 +2217,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102">
-        <v>2335</v>
+        <v>0</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2215,7 +2231,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103">
         <v>-50</v>
@@ -2229,13 +2245,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>-14505</v>
+        <v>-14615</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2243,13 +2259,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>-3333</v>
+        <v>-5921</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2257,7 +2273,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B106">
         <v>245</v>
@@ -2271,7 +2287,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107">
         <v>100</v>
@@ -2285,7 +2301,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2298,11 +2314,14 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>133</v>
+      </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>-908</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2310,7 +2329,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2324,7 +2343,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B111">
         <v>45</v>
@@ -2338,7 +2357,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B112">
         <v>451</v>
@@ -2352,10 +2371,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B113">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2366,13 +2385,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="C114">
-        <v>-15285</v>
+        <v>-30789</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2380,7 +2399,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B115">
         <v>-800</v>
@@ -2394,7 +2413,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B116">
         <v>3287</v>
@@ -2408,7 +2427,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2422,7 +2441,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B118">
         <v>23800</v>
@@ -2436,13 +2455,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B119">
         <v>-100</v>
       </c>
       <c r="C119">
-        <v>-8346</v>
+        <v>-726</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2450,7 +2469,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -2464,7 +2483,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -2478,7 +2497,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -2491,22 +2510,28 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>113</v>
+      </c>
       <c r="B123">
-        <v>0</v>
+        <v>-320</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>114</v>
+      </c>
       <c r="B124">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>363</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -2514,13 +2539,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B125">
-        <v>-320</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>-8951</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -2528,13 +2553,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B126">
-        <v>-30</v>
+        <v>-300</v>
       </c>
       <c r="C126">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2542,13 +2567,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>-8951</v>
+        <v>-200</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -2556,13 +2581,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B128">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>-26000</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -2570,13 +2595,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="C129">
-        <v>-200</v>
+        <v>20000</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -2584,13 +2609,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>-28000</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -2604,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="C131">
-        <v>20499</v>
+        <v>-19265</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2612,13 +2637,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>-1670</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2626,82 +2651,15 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>-2765</v>
+        <v>-7</v>
       </c>
       <c r="D133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>122</v>
-      </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-      <c r="C134">
-        <v>-1670</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>123</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
-        <v>-105</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B136">
-        <v>0</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>129</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>-200</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>130</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138">
-        <v>-307</v>
-      </c>
-      <c r="D138">
         <v>0</v>
       </c>
     </row>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>سامر شراب</t>
   </si>
@@ -191,9 +191,6 @@
     <t>عبد البنا</t>
   </si>
   <si>
-    <t>الروف 2</t>
-  </si>
-  <si>
     <t>سامي الحداد</t>
   </si>
   <si>
@@ -317,9 +314,6 @@
     <t>مهند ابوخضير</t>
   </si>
   <si>
-    <t>محمد قنيطه</t>
-  </si>
-  <si>
     <t>مصباح الشوا</t>
   </si>
   <si>
@@ -356,9 +350,6 @@
     <t>ام سائد شركة فيجين</t>
   </si>
   <si>
-    <t>حاتم المشهراوي</t>
-  </si>
-  <si>
     <t>وفيق2</t>
   </si>
   <si>
@@ -380,28 +371,49 @@
     <t>محمد حميد</t>
   </si>
   <si>
-    <t>صندوق واحد كاظم كـــــــــــاظـــــــــــــــــــــــم</t>
-  </si>
-  <si>
     <t>مالك الرنتيسي</t>
   </si>
   <si>
-    <t>احمد جوال بي</t>
-  </si>
-  <si>
     <t>الصفدي صفد</t>
   </si>
   <si>
     <t>فادي شتيوي</t>
   </si>
   <si>
-    <t xml:space="preserve">طيبه للسياحة </t>
-  </si>
-  <si>
     <t>ابوعبدالله الريس</t>
   </si>
   <si>
     <t>ايمن الخضري</t>
+  </si>
+  <si>
+    <t>صندوق 1 كاظم صندوق واحد كـــــــــــــاظـــــــــــــــم</t>
+  </si>
+  <si>
+    <t>صدقات ابومفيد</t>
+  </si>
+  <si>
+    <t>الروف 2 حتى 28-2-2023</t>
+  </si>
+  <si>
+    <t>احمد بارود جينيف</t>
+  </si>
+  <si>
+    <t>عمار ابوضاهر</t>
+  </si>
+  <si>
+    <t>طيبه للسياحة</t>
+  </si>
+  <si>
+    <t>محمد رفعت مشتهى</t>
+  </si>
+  <si>
+    <t>خدمات العماره سفن ستار</t>
+  </si>
+  <si>
+    <t>هبه الشوا</t>
+  </si>
+  <si>
+    <t>رائد صيام وهنام المغني 10000 و200 دولار</t>
   </si>
 </sst>
 </file>
@@ -411,7 +423,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-&quot;ر.س.‏&quot;\ * #,##0.00_-;_-&quot;ر.س.‏&quot;\ * #,##0.00\-;_-&quot;ر.س.‏&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;₪&quot;\ * #,##0.00_-;_-&quot;₪&quot;\ * #,##0.00\-;_-&quot;₪&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;₪&quot;\ * #,##0.00_-;_-&quot;₪&quot;\ * #,##0.00\-;_-&quot;₪&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -425,7 +437,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="178"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -466,7 +478,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
@@ -785,15 +797,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G130" sqref="G130"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.296875" style="1" customWidth="1"/>
     <col min="2" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
@@ -816,16 +828,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1">
         <v>-13670</v>
       </c>
       <c r="C2" s="1">
-        <v>196450</v>
+        <v>296306</v>
       </c>
       <c r="D2" s="1">
-        <v>-5725</v>
+        <v>-39195</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -833,10 +845,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>-350</v>
+        <v>-2150</v>
       </c>
       <c r="C3" s="1">
-        <v>-3000</v>
+        <v>-500</v>
       </c>
       <c r="D3" s="1">
         <v>-40</v>
@@ -861,13 +873,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>2727</v>
+        <v>1230</v>
       </c>
       <c r="C5" s="1">
-        <v>8248</v>
+        <v>3405</v>
       </c>
       <c r="D5" s="1">
-        <v>540</v>
+        <v>-3310</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -878,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>288</v>
+        <v>-1445</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -934,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>1521</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -962,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>-1961</v>
+        <v>-1890</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1029,7 +1041,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="1">
-        <v>-1400</v>
+        <v>-1600</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1060,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>-16225</v>
+        <v>-10858</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1144,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>345</v>
+        <v>230</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -1200,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>-4836</v>
+        <v>-11836</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -1253,10 +1265,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="1">
-        <v>6138</v>
+        <v>7033</v>
       </c>
       <c r="C33" s="1">
-        <v>-4924</v>
+        <v>-5848</v>
       </c>
       <c r="D33" s="1">
         <v>100</v>
@@ -1292,7 +1304,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -1340,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="1">
-        <v>-1098</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -1379,7 +1391,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="1">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -1418,13 +1430,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
       </c>
       <c r="C45" s="1">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -1494,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="1">
-        <v>-921</v>
+        <v>0</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -1536,15 +1548,15 @@
         <v>0</v>
       </c>
       <c r="C53" s="1">
-        <v>-37472</v>
+        <v>-88257</v>
       </c>
       <c r="D53" s="1">
-        <v>12286</v>
+        <v>51585</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -1572,10 +1584,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B56" s="1">
-        <v>-64</v>
+        <v>-480</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -1600,10 +1612,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="B58" s="1">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="C58" s="1">
         <v>-2522</v>
@@ -1614,13 +1626,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
       </c>
       <c r="C59" s="1">
-        <v>-17063</v>
+        <v>-14148</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -1628,7 +1640,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -1642,10 +1654,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1">
-        <v>80</v>
+        <v>839</v>
       </c>
       <c r="C61" s="1">
         <v>10</v>
@@ -1656,7 +1668,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1">
         <v>-389</v>
@@ -1670,13 +1682,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
       </c>
       <c r="C63" s="1">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
@@ -1684,7 +1696,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -1698,7 +1710,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1">
         <v>450</v>
@@ -1712,13 +1724,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="C66" s="1">
-        <v>1053</v>
+        <v>1062</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -1726,7 +1738,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -1740,7 +1752,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -1754,7 +1766,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -1768,7 +1780,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -1781,6 +1793,9 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B71" s="1">
         <v>0</v>
       </c>
@@ -1793,10 +1808,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B72" s="1">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
@@ -1807,7 +1822,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
@@ -1821,7 +1836,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
@@ -1835,7 +1850,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="1">
         <v>-200</v>
@@ -1849,13 +1864,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
       </c>
       <c r="C76" s="1">
-        <v>-12439</v>
+        <v>-4248</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -1863,7 +1878,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -1877,13 +1892,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
       </c>
       <c r="C78" s="1">
-        <v>-1010</v>
+        <v>-2040</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -1891,13 +1906,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79" s="1">
         <v>-150</v>
       </c>
       <c r="C79" s="1">
-        <v>2000</v>
+        <v>-4513</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -1905,7 +1920,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" s="1">
         <v>1620</v>
@@ -1919,7 +1934,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -1933,19 +1948,22 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82" s="1">
-        <v>-110</v>
+        <v>0</v>
       </c>
       <c r="C82" s="1">
-        <v>2512</v>
+        <v>2804</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="B83" s="1">
         <v>0</v>
       </c>
@@ -1958,21 +1976,21 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
       </c>
       <c r="C84" s="1">
-        <v>-252</v>
+        <v>-322</v>
       </c>
       <c r="D84" s="1">
-        <v>-53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B85" s="1">
         <v>-95</v>
@@ -1986,7 +2004,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -2000,7 +2018,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -2014,7 +2032,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B88" s="1">
         <v>900</v>
@@ -2027,11 +2045,14 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="B89" s="1">
         <v>0</v>
       </c>
       <c r="C89" s="1">
-        <v>0</v>
+        <v>-323</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
@@ -2039,7 +2060,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -2063,8 +2084,11 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="B92" s="1">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="C92" s="1">
         <v>0</v>
@@ -2075,10 +2099,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B93" s="1">
-        <v>2850</v>
+        <v>2700</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -2089,7 +2113,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B94" s="1">
         <v>-7</v>
@@ -2103,7 +2127,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B95" s="1">
         <v>0</v>
@@ -2117,13 +2141,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B96" s="1">
         <v>0</v>
       </c>
       <c r="C96" s="1">
-        <v>-3411</v>
+        <v>-11404</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
@@ -2131,24 +2155,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
       </c>
       <c r="C97" s="1">
-        <v>-500</v>
+        <v>-650</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="B98" s="1">
         <v>0</v>
       </c>
       <c r="C98" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
@@ -2156,7 +2183,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
@@ -2170,7 +2197,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>
@@ -2184,24 +2211,27 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
       </c>
       <c r="C101" s="1">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="D101" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="B102" s="1">
         <v>0</v>
       </c>
       <c r="C102" s="1">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
@@ -2209,7 +2239,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B103" s="1">
         <v>-50</v>
@@ -2223,13 +2253,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B104" s="1">
         <v>0</v>
       </c>
       <c r="C104" s="1">
-        <v>55396</v>
+        <v>-34259</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
@@ -2237,13 +2267,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B105" s="1">
         <v>0</v>
       </c>
       <c r="C105" s="1">
-        <v>13253</v>
+        <v>32254</v>
       </c>
       <c r="D105" s="1">
         <v>0</v>
@@ -2251,7 +2281,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B106" s="1">
         <v>245</v>
@@ -2264,17 +2294,23 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B107" s="1">
         <v>0</v>
       </c>
       <c r="C107" s="1">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B108" s="1">
         <v>0</v>
       </c>
@@ -2286,8 +2322,11 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B109" s="1">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="C109" s="1">
         <v>0</v>
@@ -2298,13 +2337,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
       </c>
       <c r="C110" s="1">
-        <v>-10</v>
+        <v>-28918</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
@@ -2312,10 +2351,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B111" s="1">
-        <v>15</v>
+        <v>-1800</v>
       </c>
       <c r="C111" s="1">
         <v>0</v>
@@ -2326,10 +2365,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B112" s="1">
-        <v>451</v>
+        <v>5802</v>
       </c>
       <c r="C112" s="1">
         <v>0</v>
@@ -2340,13 +2379,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B113" s="1">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="C113" s="1">
-        <v>0</v>
+        <v>-339</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
@@ -2354,13 +2393,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B114" s="1">
-        <v>0</v>
+        <v>23800</v>
       </c>
       <c r="C114" s="1">
-        <v>-16293</v>
+        <v>-7682</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -2368,13 +2407,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B115" s="1">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="C115" s="1">
-        <v>0</v>
+        <v>-2750</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
@@ -2382,10 +2421,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B116" s="1">
-        <v>3102</v>
+        <v>0</v>
       </c>
       <c r="C116" s="1">
         <v>0</v>
@@ -2396,13 +2435,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B117" s="1">
         <v>0</v>
       </c>
       <c r="C117" s="1">
-        <v>330</v>
+        <v>-15000</v>
       </c>
       <c r="D117" s="1">
         <v>0</v>
@@ -2410,27 +2449,27 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B118" s="1">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="C118" s="1">
-        <v>-7682</v>
+        <v>53</v>
       </c>
       <c r="D118" s="1">
-        <v>0</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B119" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C119" s="1">
-        <v>-831</v>
+        <v>0</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
@@ -2438,13 +2477,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B120" s="1">
         <v>0</v>
       </c>
       <c r="C120" s="1">
-        <v>-186</v>
+        <v>0</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
@@ -2455,10 +2494,10 @@
         <v>105</v>
       </c>
       <c r="B121" s="1">
-        <v>0</v>
+        <v>-320</v>
       </c>
       <c r="C121" s="1">
-        <v>-15000</v>
+        <v>-60</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
@@ -2469,24 +2508,24 @@
         <v>106</v>
       </c>
       <c r="B122" s="1">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="C122" s="1">
-        <v>53</v>
+        <v>449</v>
       </c>
       <c r="D122" s="1">
-        <v>-70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B123" s="1">
         <v>0</v>
       </c>
       <c r="C123" s="1">
-        <v>0</v>
+        <v>-8951</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
@@ -2494,10 +2533,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B124" s="1">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C124" s="1">
         <v>0</v>
@@ -2507,14 +2546,11 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="B125" s="1">
-        <v>-320</v>
+        <v>0</v>
       </c>
       <c r="C125" s="1">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
@@ -2522,13 +2558,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B126" s="1">
-        <v>-30</v>
+        <v>-270</v>
       </c>
       <c r="C126" s="1">
-        <v>363</v>
+        <v>-25000</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
@@ -2536,24 +2572,21 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B127" s="1">
         <v>0</v>
       </c>
       <c r="C127" s="1">
-        <v>-8951</v>
+        <v>3845</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="B128" s="1">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C128" s="1">
         <v>0</v>
@@ -2570,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="1">
-        <v>-200</v>
+        <v>-9378</v>
       </c>
       <c r="D129" s="1">
         <v>0</v>
@@ -2581,65 +2614,12 @@
         <v>112</v>
       </c>
       <c r="B130" s="1">
-        <v>-270</v>
+        <v>55000</v>
       </c>
       <c r="C130" s="1">
-        <v>-25000</v>
+        <v>-16770</v>
       </c>
       <c r="D130" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B131" s="1">
-        <v>0</v>
-      </c>
-      <c r="C131" s="1">
-        <v>3868</v>
-      </c>
-      <c r="D131" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="1">
-        <v>0</v>
-      </c>
-      <c r="C132" s="1">
-        <v>0</v>
-      </c>
-      <c r="D132" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B133" s="1">
-        <v>0</v>
-      </c>
-      <c r="C133" s="1">
-        <v>-20715</v>
-      </c>
-      <c r="D133" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B134" s="1">
-        <v>0</v>
-      </c>
-      <c r="C134" s="1">
-        <v>-670</v>
-      </c>
-      <c r="D134" s="1">
         <v>0</v>
       </c>
     </row>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>سامر شراب</t>
   </si>
@@ -386,9 +386,6 @@
     <t>ايمن الخضري</t>
   </si>
   <si>
-    <t>صندوق 1 كاظم صندوق واحد كـــــــــــــاظـــــــــــــــم</t>
-  </si>
-  <si>
     <t>صدقات ابومفيد</t>
   </si>
   <si>
@@ -401,19 +398,25 @@
     <t>عمار ابوضاهر</t>
   </si>
   <si>
-    <t>طيبه للسياحة</t>
-  </si>
-  <si>
     <t>محمد رفعت مشتهى</t>
   </si>
   <si>
     <t>خدمات العماره سفن ستار</t>
   </si>
   <si>
-    <t>هبه الشوا</t>
-  </si>
-  <si>
     <t>رائد صيام وهنام المغني 10000 و200 دولار</t>
+  </si>
+  <si>
+    <t>صندوق 1 صندوق واحد كــــــاظـــــــم</t>
+  </si>
+  <si>
+    <t>طيبه</t>
+  </si>
+  <si>
+    <t>احمد خليل</t>
+  </si>
+  <si>
+    <t>ابويوسف اللوح</t>
   </si>
 </sst>
 </file>
@@ -797,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -828,13 +831,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1">
         <v>-13670</v>
       </c>
       <c r="C2" s="1">
-        <v>296306</v>
+        <v>287806</v>
       </c>
       <c r="D2" s="1">
         <v>-39195</v>
@@ -879,7 +882,7 @@
         <v>3405</v>
       </c>
       <c r="D5" s="1">
-        <v>-3310</v>
+        <v>-3170</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -946,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1156,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -1268,7 +1271,7 @@
         <v>7033</v>
       </c>
       <c r="C33" s="1">
-        <v>-5848</v>
+        <v>-6259</v>
       </c>
       <c r="D33" s="1">
         <v>100</v>
@@ -1548,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="C53" s="1">
-        <v>-88257</v>
+        <v>-87997</v>
       </c>
       <c r="D53" s="1">
-        <v>51585</v>
+        <v>50150</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1584,7 +1587,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" s="1">
         <v>-480</v>
@@ -1612,7 +1615,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B58" s="1">
         <v>-600</v>
@@ -1632,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="1">
-        <v>-14148</v>
+        <v>4622</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -1794,13 +1797,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
       </c>
       <c r="C71" s="1">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
@@ -1870,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="1">
-        <v>-4248</v>
+        <v>-3705</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -1912,7 +1915,7 @@
         <v>-150</v>
       </c>
       <c r="C79" s="1">
-        <v>-4513</v>
+        <v>3563</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -1954,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="1">
-        <v>2804</v>
+        <v>3076</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -1962,13 +1965,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
       </c>
       <c r="C83" s="1">
-        <v>0</v>
+        <v>-1008</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
@@ -1976,7 +1979,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -2046,7 +2049,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -2085,7 +2088,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B92" s="1">
         <v>275</v>
@@ -2147,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="1">
-        <v>-11404</v>
+        <v>-2369</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
@@ -2169,13 +2172,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
       </c>
       <c r="C98" s="1">
-        <v>600</v>
+        <v>-105</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
@@ -2225,13 +2228,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B102" s="1">
         <v>0</v>
       </c>
       <c r="C102" s="1">
-        <v>10200</v>
+        <v>200</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
@@ -2259,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="1">
-        <v>-34259</v>
+        <v>-35259</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
@@ -2273,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="1">
-        <v>32254</v>
+        <v>37554</v>
       </c>
       <c r="D105" s="1">
         <v>0</v>
@@ -2295,22 +2298,19 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
       </c>
       <c r="C107" s="1">
-        <v>-10</v>
+        <v>-105</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="B108" s="1">
         <v>0</v>
       </c>
@@ -2322,11 +2322,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="B109" s="1">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="C109" s="1">
         <v>0</v>
@@ -2337,13 +2334,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
       </c>
       <c r="C110" s="1">
-        <v>-28918</v>
+        <v>-10</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
@@ -2351,10 +2348,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B111" s="1">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="C111" s="1">
         <v>0</v>
@@ -2365,10 +2362,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B112" s="1">
-        <v>5802</v>
+        <v>451</v>
       </c>
       <c r="C112" s="1">
         <v>0</v>
@@ -2378,14 +2375,11 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="B113" s="1">
         <v>0</v>
       </c>
       <c r="C113" s="1">
-        <v>-339</v>
+        <v>0</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
@@ -2393,13 +2387,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="C114" s="1">
-        <v>-7682</v>
+        <v>-45125</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -2407,13 +2401,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B115" s="1">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="C115" s="1">
-        <v>-2750</v>
+        <v>0</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
@@ -2421,10 +2415,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B116" s="1">
-        <v>0</v>
+        <v>5802</v>
       </c>
       <c r="C116" s="1">
         <v>0</v>
@@ -2435,13 +2429,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B117" s="1">
         <v>0</v>
       </c>
       <c r="C117" s="1">
-        <v>-15000</v>
+        <v>-339</v>
       </c>
       <c r="D117" s="1">
         <v>0</v>
@@ -2449,27 +2443,27 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B118" s="1">
-        <v>0</v>
+        <v>23800</v>
       </c>
       <c r="C118" s="1">
-        <v>53</v>
+        <v>-7682</v>
       </c>
       <c r="D118" s="1">
-        <v>-70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
       </c>
       <c r="C119" s="1">
-        <v>0</v>
+        <v>-2956</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
@@ -2477,7 +2471,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B120" s="1">
         <v>0</v>
@@ -2491,13 +2485,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B121" s="1">
-        <v>-320</v>
+        <v>0</v>
       </c>
       <c r="C121" s="1">
-        <v>-60</v>
+        <v>-15000</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
@@ -2505,27 +2499,27 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B122" s="1">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="C122" s="1">
-        <v>449</v>
+        <v>643</v>
       </c>
       <c r="D122" s="1">
-        <v>0</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B123" s="1">
         <v>0</v>
       </c>
       <c r="C123" s="1">
-        <v>-8951</v>
+        <v>0</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
@@ -2533,10 +2527,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B124" s="1">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C124" s="1">
         <v>0</v>
@@ -2546,11 +2540,14 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B125" s="1">
-        <v>0</v>
+        <v>-320</v>
       </c>
       <c r="C125" s="1">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
@@ -2558,13 +2555,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B126" s="1">
-        <v>-270</v>
+        <v>-30</v>
       </c>
       <c r="C126" s="1">
-        <v>-25000</v>
+        <v>449</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
@@ -2572,21 +2569,24 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B127" s="1">
         <v>0</v>
       </c>
       <c r="C127" s="1">
-        <v>3845</v>
+        <v>-8951</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="B128" s="1">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C128" s="1">
         <v>0</v>
@@ -2596,14 +2596,11 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="B129" s="1">
         <v>0</v>
       </c>
       <c r="C129" s="1">
-        <v>-9378</v>
+        <v>0</v>
       </c>
       <c r="D129" s="1">
         <v>0</v>
@@ -2611,15 +2608,68 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B130" s="1">
+        <v>-270</v>
+      </c>
+      <c r="C130" s="1">
+        <v>-25000</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B131" s="1">
+        <v>-200</v>
+      </c>
+      <c r="C131" s="1">
+        <v>3100</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="1">
+        <v>0</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B133" s="1">
+        <v>0</v>
+      </c>
+      <c r="C133" s="1">
+        <v>-878</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B134" s="1">
         <v>55000</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C134" s="1">
         <v>-16770</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D134" s="1">
         <v>0</v>
       </c>
     </row>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
-  <si>
-    <t>سامر شراب</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>الشيكل</t>
   </si>
@@ -140,9 +137,6 @@
     <t>اسامه مصبح</t>
   </si>
   <si>
-    <t>ابراهيم الطويل</t>
-  </si>
-  <si>
     <t>ابوعبدالله مشتهى</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
     <t>ابوصالح</t>
   </si>
   <si>
-    <t>كيليو بترا</t>
-  </si>
-  <si>
     <t xml:space="preserve">بهاء غنام </t>
   </si>
   <si>
@@ -308,9 +299,6 @@
     <t>حمدي الريفي ابومحمد</t>
   </si>
   <si>
-    <t>عامر ابوحجر ابورهف</t>
-  </si>
-  <si>
     <t>مهند ابوخضير</t>
   </si>
   <si>
@@ -344,9 +332,6 @@
     <t>فراس دير البلح</t>
   </si>
   <si>
-    <t>عطا النيرب</t>
-  </si>
-  <si>
     <t>ام سائد شركة فيجين</t>
   </si>
   <si>
@@ -365,9 +350,6 @@
     <t>موني جرام</t>
   </si>
   <si>
-    <t>مصطفى بشير</t>
-  </si>
-  <si>
     <t>محمد حميد</t>
   </si>
   <si>
@@ -377,18 +359,6 @@
     <t>الصفدي صفد</t>
   </si>
   <si>
-    <t>فادي شتيوي</t>
-  </si>
-  <si>
-    <t>ابوعبدالله الريس</t>
-  </si>
-  <si>
-    <t>ايمن الخضري</t>
-  </si>
-  <si>
-    <t>صدقات ابومفيد</t>
-  </si>
-  <si>
     <t>الروف 2 حتى 28-2-2023</t>
   </si>
   <si>
@@ -404,19 +374,67 @@
     <t>خدمات العماره سفن ستار</t>
   </si>
   <si>
-    <t>رائد صيام وهنام المغني 10000 و200 دولار</t>
-  </si>
-  <si>
-    <t>صندوق 1 صندوق واحد كــــــاظـــــــم</t>
-  </si>
-  <si>
     <t>طيبه</t>
   </si>
   <si>
-    <t>احمد خليل</t>
-  </si>
-  <si>
-    <t>ابويوسف اللوح</t>
+    <t>صندوق واحد صندوق كــــاظــــم 1</t>
+  </si>
+  <si>
+    <t>محمد فوره</t>
+  </si>
+  <si>
+    <t>اسعد حموده</t>
+  </si>
+  <si>
+    <t>سعدو خلف</t>
+  </si>
+  <si>
+    <t>عبد الكريم القصاص</t>
+  </si>
+  <si>
+    <t>ام هيثم الشيخ علي</t>
+  </si>
+  <si>
+    <t>ام فادي ابوسيدو</t>
+  </si>
+  <si>
+    <t>ميار دلول سندس</t>
+  </si>
+  <si>
+    <t>الدن</t>
+  </si>
+  <si>
+    <t>محمد شعت</t>
+  </si>
+  <si>
+    <t>عبد الكريم عابدين</t>
+  </si>
+  <si>
+    <t>ابوغسان الخزندار</t>
+  </si>
+  <si>
+    <t>حكيم خلف</t>
+  </si>
+  <si>
+    <t>باي كاش</t>
+  </si>
+  <si>
+    <t>فراس ابوكميل</t>
+  </si>
+  <si>
+    <t>خلدون غلة تركيا</t>
+  </si>
+  <si>
+    <t>خالد محمود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حسن العبادله </t>
+  </si>
+  <si>
+    <t>العبادله 2</t>
+  </si>
+  <si>
+    <t>مدى يورو</t>
   </si>
 </sst>
 </file>
@@ -800,100 +818,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.296875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="31.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="1">
-        <v>-13670</v>
-      </c>
-      <c r="C2" s="1">
-        <v>287806</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-39195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-2150</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-500</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>63</v>
+        <v>85826</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>25712</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>1230</v>
+        <v>-7722</v>
       </c>
       <c r="C5" s="1">
-        <v>3405</v>
+        <v>-1550</v>
       </c>
       <c r="D5" s="1">
-        <v>-3170</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>-1445</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -901,13 +896,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>-1000</v>
+        <v>-90</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -915,13 +910,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>547</v>
+        <v>897</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -929,13 +924,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -943,13 +938,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>2000</v>
+        <v>459</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -957,13 +952,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>155</v>
+        <v>-33</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -971,13 +966,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>-1890</v>
+        <v>-283</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -985,13 +980,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -999,13 +994,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>-300</v>
+        <v>-890</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1013,13 +1008,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>-970</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1027,13 +1022,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>-115</v>
+        <v>-300</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1041,10 +1036,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>-1600</v>
+        <v>-970</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1055,13 +1050,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="C18" s="1">
-        <v>-10650</v>
+        <v>-115</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1069,13 +1064,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="C19" s="1">
-        <v>-10858</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1083,13 +1078,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>-160</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>-10650</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -1097,13 +1092,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>-1110</v>
       </c>
       <c r="C21" s="1">
-        <v>-156</v>
+        <v>3792</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1111,13 +1106,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="C22" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -1125,27 +1120,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>4075</v>
+        <v>-156</v>
       </c>
       <c r="D23" s="1">
-        <v>-3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1153,27 +1148,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>4075</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="C26" s="1">
-        <v>-656</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -1181,13 +1176,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>-1596</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1195,13 +1190,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
       <c r="C28" s="1">
-        <v>-3800</v>
+        <v>-656</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -1209,13 +1204,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>-11836</v>
+        <v>-1596</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -1223,13 +1218,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="B30" s="1">
-        <v>-610</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>1868</v>
+        <v>-105</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -1237,13 +1232,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -1251,13 +1246,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>-5600</v>
+        <v>-610</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -1265,27 +1260,27 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>7033</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>-6259</v>
+        <v>-760</v>
       </c>
       <c r="D33" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>-15</v>
+        <v>-5600</v>
       </c>
       <c r="C34" s="1">
-        <v>-5600</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -1293,27 +1288,27 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>12468</v>
       </c>
       <c r="C35" s="1">
-        <v>-10</v>
+        <v>-6005</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>860</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -1321,13 +1316,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -1335,13 +1330,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="B38" s="1">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -1349,7 +1344,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -1363,10 +1358,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1">
-        <v>5475</v>
+        <v>-20</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -1377,13 +1372,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
       </c>
       <c r="C41" s="1">
-        <v>-239</v>
+        <v>0</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -1391,10 +1386,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1">
-        <v>-500</v>
+        <v>5475</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -1405,13 +1400,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>-8916</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -1419,13 +1414,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
       </c>
       <c r="C44" s="1">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -1433,10 +1428,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -1447,13 +1442,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
       </c>
       <c r="C46" s="1">
-        <v>-10</v>
+        <v>-60</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -1461,13 +1456,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
       </c>
       <c r="C47" s="1">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -1475,13 +1470,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C48" s="1">
-        <v>-2719</v>
+        <v>-10</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -1489,13 +1484,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -1503,13 +1498,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B50" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>-2419</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -1517,13 +1512,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B51" s="1">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="C51" s="1">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -1531,13 +1526,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="B52" s="1">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="C52" s="1">
-        <v>119</v>
+        <v>-1308</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -1545,27 +1540,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
       </c>
       <c r="C53" s="1">
-        <v>-87997</v>
+        <v>-300</v>
       </c>
       <c r="D53" s="1">
-        <v>50150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="B54" s="1">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -1573,24 +1568,24 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B55" s="1">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>-9858</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>-19639</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B56" s="1">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -1601,13 +1596,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B57" s="1">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="C57" s="1">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -1615,13 +1610,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B58" s="1">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="C58" s="1">
-        <v>-2522</v>
+        <v>-200</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -1629,13 +1624,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
       </c>
       <c r="C59" s="1">
-        <v>4622</v>
+        <v>-10</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -1643,13 +1638,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="B60" s="1">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="C60" s="1">
-        <v>-265</v>
+        <v>-2522</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -1657,13 +1652,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B61" s="1">
-        <v>839</v>
+        <v>0</v>
       </c>
       <c r="C61" s="1">
-        <v>10</v>
+        <v>-13913</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -1671,13 +1666,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B62" s="1">
-        <v>-389</v>
+        <v>0</v>
       </c>
       <c r="C62" s="1">
-        <v>0</v>
+        <v>-165</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -1685,13 +1680,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B63" s="1">
-        <v>0</v>
+        <v>6746</v>
       </c>
       <c r="C63" s="1">
-        <v>0</v>
+        <v>-967</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
@@ -1699,13 +1694,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B64" s="1">
-        <v>0</v>
+        <v>-389</v>
       </c>
       <c r="C64" s="1">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -1713,13 +1708,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B65" s="1">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="C65" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
@@ -1727,13 +1722,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B66" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C66" s="1">
-        <v>1062</v>
+        <v>-200</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -1741,7 +1736,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -1755,13 +1750,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B68" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C68" s="1">
-        <v>-16</v>
+        <v>1124</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
@@ -1769,13 +1764,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
       </c>
       <c r="C69" s="1">
-        <v>0</v>
+        <v>-3710</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -1783,13 +1778,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
       </c>
       <c r="C70" s="1">
-        <v>-146</v>
+        <v>-16</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -1797,13 +1792,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
       </c>
       <c r="C71" s="1">
-        <v>682</v>
+        <v>0</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
@@ -1811,13 +1806,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B72" s="1">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="C72" s="1">
-        <v>0</v>
+        <v>-146</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
@@ -1825,13 +1820,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
       </c>
       <c r="C73" s="1">
-        <v>-13083</v>
+        <v>179</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1839,7 +1834,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
@@ -1853,13 +1848,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B75" s="1">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C75" s="1">
-        <v>0</v>
+        <v>-13083</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -1867,13 +1862,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
       </c>
       <c r="C76" s="1">
-        <v>-3705</v>
+        <v>0</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -1881,13 +1876,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B77" s="1">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C77" s="1">
-        <v>-333</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -1895,13 +1890,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
       </c>
       <c r="C78" s="1">
-        <v>-2040</v>
+        <v>-7883</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -1909,13 +1904,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B79" s="1">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1">
-        <v>3563</v>
+        <v>-233</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -1923,13 +1918,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B80" s="1">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="C80" s="1">
-        <v>0</v>
+        <v>-1040</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
@@ -1937,13 +1932,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B81" s="1">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="C81" s="1">
-        <v>100</v>
+        <v>-4516</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
@@ -1951,13 +1946,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B82" s="1">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="C82" s="1">
-        <v>3076</v>
+        <v>0</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -1965,13 +1960,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
       </c>
       <c r="C83" s="1">
-        <v>-1008</v>
+        <v>100</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
@@ -1979,27 +1974,24 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
       </c>
       <c r="C84" s="1">
-        <v>-322</v>
+        <v>1057</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="B85" s="1">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
@@ -2007,13 +1999,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
       </c>
       <c r="C86" s="1">
-        <v>8118</v>
+        <v>-312</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
@@ -2021,13 +2013,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B87" s="1">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="C87" s="1">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
@@ -2035,13 +2027,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B88" s="1">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="C88" s="1">
-        <v>0</v>
+        <v>8118</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
@@ -2049,13 +2041,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
       </c>
       <c r="C89" s="1">
-        <v>-323</v>
+        <v>0</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
@@ -2063,24 +2055,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
       </c>
       <c r="C90" s="1">
-        <v>-12662</v>
+        <v>0</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="B91" s="1">
         <v>0</v>
       </c>
       <c r="C91" s="1">
-        <v>0</v>
+        <v>-208</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -2088,24 +2083,21 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="B92" s="1">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1">
-        <v>0</v>
+        <v>-12662</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="B93" s="1">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -2116,10 +2108,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B94" s="1">
-        <v>-7</v>
+        <v>250</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -2130,13 +2122,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B95" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C95" s="1">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
@@ -2144,13 +2136,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B96" s="1">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="C96" s="1">
-        <v>-2369</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
@@ -2158,13 +2150,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
       </c>
       <c r="C97" s="1">
-        <v>-650</v>
+        <v>-21</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
@@ -2172,13 +2164,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
       </c>
       <c r="C98" s="1">
-        <v>-105</v>
+        <v>-11563</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
@@ -2186,21 +2178,21 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
       </c>
       <c r="C99" s="1">
-        <v>0</v>
+        <v>-450</v>
       </c>
       <c r="D99" s="1">
-        <v>-814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>
@@ -2214,27 +2206,27 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
       </c>
       <c r="C101" s="1">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="D101" s="1">
-        <v>0</v>
+        <v>-814</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="B102" s="1">
         <v>0</v>
       </c>
       <c r="C102" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
@@ -2242,10 +2234,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B103" s="1">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="C103" s="1">
         <v>0</v>
@@ -2256,13 +2248,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B104" s="1">
         <v>0</v>
       </c>
       <c r="C104" s="1">
-        <v>-35259</v>
+        <v>-3102</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
@@ -2270,13 +2262,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B105" s="1">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C105" s="1">
-        <v>37554</v>
+        <v>0</v>
       </c>
       <c r="D105" s="1">
         <v>0</v>
@@ -2284,13 +2276,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B106" s="1">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C106" s="1">
-        <v>-300</v>
+        <v>-11715</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
@@ -2298,30 +2290,36 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
       </c>
       <c r="C107" s="1">
-        <v>-105</v>
+        <v>-121445</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="B108" s="1">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="C108" s="1">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="B109" s="1">
         <v>0</v>
       </c>
@@ -2334,13 +2332,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
       </c>
       <c r="C110" s="1">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
@@ -2348,7 +2346,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B111" s="1">
         <v>0</v>
@@ -2362,19 +2360,22 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B112" s="1">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="C112" s="1">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="B113" s="1">
         <v>0</v>
       </c>
@@ -2387,13 +2388,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B114" s="1">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="C114" s="1">
-        <v>-45125</v>
+        <v>0</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -2401,13 +2402,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="B115" s="1">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="C115" s="1">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
@@ -2415,13 +2416,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B116" s="1">
-        <v>5802</v>
+        <v>0</v>
       </c>
       <c r="C116" s="1">
-        <v>0</v>
+        <v>-24910</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
@@ -2429,13 +2430,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B117" s="1">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="C117" s="1">
-        <v>-339</v>
+        <v>0</v>
       </c>
       <c r="D117" s="1">
         <v>0</v>
@@ -2443,13 +2444,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B118" s="1">
-        <v>23800</v>
+        <v>2832</v>
       </c>
       <c r="C118" s="1">
-        <v>-7682</v>
+        <v>-277</v>
       </c>
       <c r="D118" s="1">
         <v>0</v>
@@ -2457,13 +2458,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
       </c>
       <c r="C119" s="1">
-        <v>-2956</v>
+        <v>103</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
@@ -2471,13 +2472,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B120" s="1">
-        <v>0</v>
+        <v>23800</v>
       </c>
       <c r="C120" s="1">
-        <v>0</v>
+        <v>-7682</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
@@ -2485,13 +2486,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B121" s="1">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="C121" s="1">
-        <v>-15000</v>
+        <v>-1337</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
@@ -2499,27 +2500,27 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B122" s="1">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C122" s="1">
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="D122" s="1">
-        <v>-70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B123" s="1">
         <v>0</v>
       </c>
       <c r="C123" s="1">
-        <v>0</v>
+        <v>-15000</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
@@ -2527,27 +2528,27 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B124" s="1">
         <v>0</v>
       </c>
       <c r="C124" s="1">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="D124" s="1">
-        <v>0</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B125" s="1">
-        <v>-320</v>
+        <v>0</v>
       </c>
       <c r="C125" s="1">
-        <v>-60</v>
+        <v>-2930</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
@@ -2555,13 +2556,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="B126" s="1">
-        <v>-30</v>
+        <v>-400</v>
       </c>
       <c r="C126" s="1">
-        <v>449</v>
+        <v>0</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
@@ -2569,13 +2570,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B127" s="1">
-        <v>0</v>
+        <v>-820</v>
       </c>
       <c r="C127" s="1">
-        <v>-8951</v>
+        <v>0</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
@@ -2583,24 +2584,27 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B128" s="1">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C128" s="1">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="D128" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="B129" s="1">
         <v>0</v>
       </c>
       <c r="C129" s="1">
-        <v>0</v>
+        <v>-237444</v>
       </c>
       <c r="D129" s="1">
         <v>0</v>
@@ -2608,13 +2612,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B130" s="1">
-        <v>-270</v>
+        <v>-300</v>
       </c>
       <c r="C130" s="1">
-        <v>-25000</v>
+        <v>0</v>
       </c>
       <c r="D130" s="1">
         <v>0</v>
@@ -2622,24 +2626,27 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B131" s="1">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C131" s="1">
-        <v>3100</v>
+        <v>-277</v>
       </c>
       <c r="D131" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B132" s="1">
         <v>0</v>
       </c>
       <c r="C132" s="1">
-        <v>0</v>
+        <v>-25000</v>
       </c>
       <c r="D132" s="1">
         <v>0</v>
@@ -2647,13 +2654,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B133" s="1">
         <v>0</v>
       </c>
       <c r="C133" s="1">
-        <v>-878</v>
+        <v>0</v>
       </c>
       <c r="D133" s="1">
         <v>0</v>
@@ -2661,15 +2668,71 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="B134" s="1">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="C134" s="1">
-        <v>-16770</v>
+        <v>52200</v>
       </c>
       <c r="D134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0</v>
+      </c>
+      <c r="C135" s="1">
+        <v>-1578</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0</v>
+      </c>
+      <c r="C136" s="1">
+        <v>-1220</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1">
+        <v>404900</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
+        <v>0</v>
+      </c>
+      <c r="C138" s="1">
+        <v>345</v>
+      </c>
+      <c r="D138" s="1">
         <v>0</v>
       </c>
     </row>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>الشيكل</t>
   </si>
@@ -38,6 +38,12 @@
     <t>الريال</t>
   </si>
   <si>
+    <t>مالك الرنتيسي</t>
+  </si>
+  <si>
+    <t>صندوق واحد صندوق كــــاظــــم 1</t>
+  </si>
+  <si>
     <t>ابومفيد</t>
   </si>
   <si>
@@ -104,12 +110,18 @@
     <t>عامل الحجر القدسي</t>
   </si>
   <si>
+    <t>البورد العربي ايداعات</t>
+  </si>
+  <si>
     <t>المختار سمير ابوسيدو</t>
   </si>
   <si>
     <t>بيت كوين 2</t>
   </si>
   <si>
+    <t>محمد فوره</t>
+  </si>
+  <si>
     <t>كامل ماضي</t>
   </si>
   <si>
@@ -131,12 +143,18 @@
     <t>ابوخالد مطر</t>
   </si>
   <si>
+    <t>اسعد حموده</t>
+  </si>
+  <si>
     <t>الصوص وطن</t>
   </si>
   <si>
     <t>اسامه مصبح</t>
   </si>
   <si>
+    <t>محمد انيس</t>
+  </si>
+  <si>
     <t>ابوعبدالله مشتهى</t>
   </si>
   <si>
@@ -173,7 +191,7 @@
     <t>مطيع مشتهى ابورامي</t>
   </si>
   <si>
-    <t>البورد العربي ايداعات</t>
+    <t>محمد حميد</t>
   </si>
   <si>
     <t>باسم صافي</t>
@@ -182,6 +200,9 @@
     <t>عبد البنا</t>
   </si>
   <si>
+    <t>الروف 2 حتى 28-2-2023</t>
+  </si>
+  <si>
     <t>سامي الحداد</t>
   </si>
   <si>
@@ -212,9 +233,15 @@
     <t>خلدون البرعصي</t>
   </si>
   <si>
+    <t>الصفدي صفد</t>
+  </si>
+  <si>
     <t>شنيوره</t>
   </si>
   <si>
+    <t>احمد بارود جينيف</t>
+  </si>
+  <si>
     <t>محمد الجيوسي</t>
   </si>
   <si>
@@ -245,6 +272,12 @@
     <t>ابوالحسن دغمش</t>
   </si>
   <si>
+    <t>عبد الهادي القصاص</t>
+  </si>
+  <si>
+    <t>طيبه</t>
+  </si>
+  <si>
     <t>فادي حنونه</t>
   </si>
   <si>
@@ -257,9 +290,15 @@
     <t>منير جواد ابوادم</t>
   </si>
   <si>
+    <t>محمد رفعت مشتهى</t>
+  </si>
+  <si>
     <t>بسام عجور وساطه</t>
   </si>
   <si>
+    <t>خدمات العماره سفن ستار</t>
+  </si>
+  <si>
     <t>عبدالله اشتيوي</t>
   </si>
   <si>
@@ -284,6 +323,9 @@
     <t>الدانا</t>
   </si>
   <si>
+    <t>ميار دلول سندس</t>
+  </si>
+  <si>
     <t>العالميه للصرافه</t>
   </si>
   <si>
@@ -302,6 +344,12 @@
     <t>مهند ابوخضير</t>
   </si>
   <si>
+    <t>حكيم خلف</t>
+  </si>
+  <si>
+    <t>موني جرام</t>
+  </si>
+  <si>
     <t>مصباح الشوا</t>
   </si>
   <si>
@@ -323,7 +371,10 @@
     <t xml:space="preserve">تامين سلطة النقد سمير حرزالله </t>
   </si>
   <si>
-    <t>ابوخالد الريس</t>
+    <t>باي كاش</t>
+  </si>
+  <si>
+    <t>فراس ابوكميل</t>
   </si>
   <si>
     <t>خالد جراده</t>
@@ -332,103 +383,22 @@
     <t>فراس دير البلح</t>
   </si>
   <si>
+    <t>خلدون غلة تركيا</t>
+  </si>
+  <si>
     <t>ام سائد شركة فيجين</t>
   </si>
   <si>
     <t>وفيق2</t>
   </si>
   <si>
-    <t>صامد الشريف</t>
+    <t xml:space="preserve">حسن العبادله </t>
   </si>
   <si>
     <t>ابوفياض</t>
   </si>
   <si>
     <t>ابومدلله سمارت فون</t>
-  </si>
-  <si>
-    <t>موني جرام</t>
-  </si>
-  <si>
-    <t>محمد حميد</t>
-  </si>
-  <si>
-    <t>مالك الرنتيسي</t>
-  </si>
-  <si>
-    <t>الصفدي صفد</t>
-  </si>
-  <si>
-    <t>الروف 2 حتى 28-2-2023</t>
-  </si>
-  <si>
-    <t>احمد بارود جينيف</t>
-  </si>
-  <si>
-    <t>عمار ابوضاهر</t>
-  </si>
-  <si>
-    <t>محمد رفعت مشتهى</t>
-  </si>
-  <si>
-    <t>خدمات العماره سفن ستار</t>
-  </si>
-  <si>
-    <t>طيبه</t>
-  </si>
-  <si>
-    <t>صندوق واحد صندوق كــــاظــــم 1</t>
-  </si>
-  <si>
-    <t>محمد فوره</t>
-  </si>
-  <si>
-    <t>اسعد حموده</t>
-  </si>
-  <si>
-    <t>سعدو خلف</t>
-  </si>
-  <si>
-    <t>عبد الكريم القصاص</t>
-  </si>
-  <si>
-    <t>ام هيثم الشيخ علي</t>
-  </si>
-  <si>
-    <t>ام فادي ابوسيدو</t>
-  </si>
-  <si>
-    <t>ميار دلول سندس</t>
-  </si>
-  <si>
-    <t>الدن</t>
-  </si>
-  <si>
-    <t>محمد شعت</t>
-  </si>
-  <si>
-    <t>عبد الكريم عابدين</t>
-  </si>
-  <si>
-    <t>ابوغسان الخزندار</t>
-  </si>
-  <si>
-    <t>حكيم خلف</t>
-  </si>
-  <si>
-    <t>باي كاش</t>
-  </si>
-  <si>
-    <t>فراس ابوكميل</t>
-  </si>
-  <si>
-    <t>خلدون غلة تركيا</t>
-  </si>
-  <si>
-    <t>خالد محمود</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حسن العبادله </t>
   </si>
   <si>
     <t>العبادله 2</t>
@@ -490,7 +460,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -501,12 +471,13 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Comma 3" xfId="7"/>
     <cellStyle name="Currency 2" xfId="3"/>
@@ -517,6 +488,7 @@
     <cellStyle name="Normal 3 2" xfId="6"/>
     <cellStyle name="عادي 2" xfId="5"/>
     <cellStyle name="عادي 3" xfId="9"/>
+    <cellStyle name="عادي 4" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -818,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -852,43 +824,71 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>29462</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-1550</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-40</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>85826</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1">
-        <v>25712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>-7722</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>-1550</v>
+        <v>-45</v>
       </c>
       <c r="D5" s="1">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>63</v>
+        <v>-3275</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -896,13 +896,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -910,13 +910,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>897</v>
+        <v>459</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -924,13 +924,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -938,13 +938,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>459</v>
+        <v>804</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -952,13 +952,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>-33</v>
+        <v>155</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -966,13 +966,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>-283</v>
+        <v>-890</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -980,13 +980,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -994,13 +994,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>-890</v>
+        <v>-300</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1008,13 +1008,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>-970</v>
       </c>
       <c r="C15" s="1">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1022,13 +1022,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="C16" s="1">
-        <v>-300</v>
+        <v>-115</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1036,10 +1036,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>-970</v>
+        <v>-1320</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1050,13 +1050,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>-115</v>
+        <v>-10650</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1064,13 +1064,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>-1400</v>
+        <v>-1310</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>3792</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1078,13 +1078,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="C20" s="1">
-        <v>-10650</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -1092,13 +1092,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
-        <v>-1110</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>3792</v>
+        <v>-156</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1106,13 +1106,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
-        <v>-160</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -1120,27 +1120,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>-156</v>
+        <v>4075</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="C24" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1148,27 +1148,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>4075</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>-3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>-656</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -1176,13 +1176,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>-1596</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1190,13 +1190,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
       <c r="C28" s="1">
-        <v>-656</v>
+        <v>-105</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -1204,13 +1204,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>-1596</v>
+        <v>-6000</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -1218,13 +1218,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>-610</v>
       </c>
       <c r="C30" s="1">
-        <v>-105</v>
+        <v>1868</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>-760</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1">
-        <v>-610</v>
+        <v>-5600</v>
       </c>
       <c r="C32" s="1">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -1260,13 +1260,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1">
-        <v>-760</v>
+        <v>-5</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -1274,13 +1274,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1">
+        <v>-15</v>
+      </c>
+      <c r="C34" s="1">
         <v>-5600</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -1288,27 +1288,27 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1">
-        <v>12468</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1">
-        <v>-6005</v>
+        <v>-10</v>
       </c>
       <c r="D35" s="1">
-        <v>860</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>-5600</v>
+        <v>-400</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -1316,13 +1316,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
       </c>
       <c r="C37" s="1">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -1330,13 +1330,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="C38" s="1">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -1344,13 +1344,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1">
-        <v>-20</v>
+        <v>5475</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -1372,13 +1372,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>-9416</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -1386,10 +1386,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1">
-        <v>5475</v>
+        <v>-125</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -1400,13 +1400,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="C43" s="1">
-        <v>-8916</v>
+        <v>0</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -1414,24 +1414,21 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="B45" s="1">
-        <v>1200</v>
+        <v>-95</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -1442,13 +1439,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
       </c>
       <c r="C46" s="1">
-        <v>-60</v>
+        <v>-10</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -1456,13 +1453,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -1470,13 +1467,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C48" s="1">
-        <v>-10</v>
+        <v>-2419</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -1484,27 +1481,24 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="C49" s="1">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="B50" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1">
-        <v>-2419</v>
+        <v>0</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -1512,13 +1506,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B51" s="1">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -1526,13 +1520,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B52" s="1">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="C52" s="1">
-        <v>-1308</v>
+        <v>-100</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -1540,27 +1534,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
       </c>
       <c r="C53" s="1">
-        <v>-300</v>
+        <v>-20925</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>-20354</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B54" s="1">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="C54" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -1568,27 +1562,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B55" s="1">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="C55" s="1">
-        <v>-9858</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1">
-        <v>-19639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -1596,13 +1590,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B57" s="1">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -1610,13 +1604,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="C58" s="1">
-        <v>-200</v>
+        <v>-2522</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -1624,13 +1618,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
       </c>
       <c r="C59" s="1">
-        <v>-10</v>
+        <v>-4395</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -1638,13 +1632,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="B60" s="1">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="C60" s="1">
-        <v>-2522</v>
+        <v>-165</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -1652,13 +1646,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B61" s="1">
-        <v>0</v>
+        <v>6776</v>
       </c>
       <c r="C61" s="1">
-        <v>-13913</v>
+        <v>-967</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -1666,13 +1660,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B62" s="1">
-        <v>0</v>
+        <v>-389</v>
       </c>
       <c r="C62" s="1">
-        <v>-165</v>
+        <v>0</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -1680,27 +1674,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B63" s="1">
-        <v>6746</v>
+        <v>2905</v>
       </c>
       <c r="C63" s="1">
-        <v>-967</v>
+        <v>329</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B64" s="1">
-        <v>-389</v>
+        <v>0</v>
       </c>
       <c r="C64" s="1">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -1708,13 +1702,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
       </c>
       <c r="C65" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
@@ -1722,13 +1716,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B66" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C66" s="1">
-        <v>-200</v>
+        <v>1124</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -1736,7 +1730,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -1750,13 +1744,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B68" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C68" s="1">
-        <v>1124</v>
+        <v>-16</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
@@ -1764,13 +1758,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
       </c>
       <c r="C69" s="1">
-        <v>-3710</v>
+        <v>0</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -1778,13 +1772,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
       </c>
       <c r="C70" s="1">
-        <v>-16</v>
+        <v>-146</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -1792,13 +1786,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
       </c>
       <c r="C71" s="1">
-        <v>0</v>
+        <v>-5522</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
@@ -1806,13 +1800,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
       </c>
       <c r="C72" s="1">
-        <v>-146</v>
+        <v>585</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
@@ -1820,22 +1814,19 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
       </c>
       <c r="C73" s="1">
-        <v>179</v>
+        <v>-13083</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="B74" s="1">
         <v>0</v>
       </c>
@@ -1848,13 +1839,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C75" s="1">
-        <v>-13083</v>
+        <v>0</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -1862,13 +1853,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
       </c>
       <c r="C76" s="1">
-        <v>0</v>
+        <v>-6116</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -1876,13 +1867,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C77" s="1">
-        <v>0</v>
+        <v>-233</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -1890,13 +1881,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
       </c>
       <c r="C78" s="1">
-        <v>-7883</v>
+        <v>-40</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -1904,13 +1895,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="C79" s="1">
-        <v>-233</v>
+        <v>-1074</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -1918,13 +1909,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="C80" s="1">
-        <v>-1040</v>
+        <v>0</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
@@ -1932,13 +1923,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="C81" s="1">
-        <v>-4516</v>
+        <v>100</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
@@ -1946,13 +1937,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="C82" s="1">
-        <v>0</v>
+        <v>1070</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -1960,13 +1951,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
       </c>
       <c r="C83" s="1">
-        <v>100</v>
+        <v>-1000</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
@@ -1974,24 +1965,27 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
       </c>
       <c r="C84" s="1">
-        <v>1057</v>
+        <v>-312</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B85" s="1">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="C85" s="1">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
@@ -1999,13 +1993,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
       </c>
       <c r="C86" s="1">
-        <v>-312</v>
+        <v>8118</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
@@ -2013,13 +2007,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="C87" s="1">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
@@ -2027,13 +2021,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
       </c>
       <c r="C88" s="1">
-        <v>8118</v>
+        <v>0</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
@@ -2041,41 +2035,38 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
       </c>
       <c r="C89" s="1">
-        <v>0</v>
+        <v>-208</v>
       </c>
       <c r="D89" s="1">
-        <v>0</v>
+        <v>-358</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
       </c>
       <c r="C90" s="1">
-        <v>0</v>
+        <v>-12662</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="B91" s="1">
         <v>0</v>
       </c>
       <c r="C91" s="1">
-        <v>-208</v>
+        <v>0</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -2083,21 +2074,24 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="C92" s="1">
-        <v>-12662</v>
+        <v>0</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="B93" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -2108,10 +2102,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>250</v>
+        <v>-7</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -2122,13 +2116,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C95" s="1">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
@@ -2136,13 +2130,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="C96" s="1">
-        <v>0</v>
+        <v>-11563</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
@@ -2150,27 +2144,24 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
       </c>
       <c r="C97" s="1">
-        <v>-21</v>
+        <v>-350</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="B98" s="1">
         <v>0</v>
       </c>
       <c r="C98" s="1">
-        <v>-11563</v>
+        <v>0</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
@@ -2178,21 +2169,21 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
       </c>
       <c r="C99" s="1">
-        <v>-450</v>
+        <v>-400</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>-814</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>
@@ -2206,27 +2197,27 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
       </c>
       <c r="C101" s="1">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="D101" s="1">
-        <v>-814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B102" s="1">
         <v>0</v>
       </c>
       <c r="C102" s="1">
-        <v>0</v>
+        <v>-3102</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
@@ -2234,10 +2225,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B103" s="1">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C103" s="1">
         <v>0</v>
@@ -2248,13 +2239,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B104" s="1">
         <v>0</v>
       </c>
       <c r="C104" s="1">
-        <v>-3102</v>
+        <v>-12515</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
@@ -2262,13 +2253,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B105" s="1">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="C105" s="1">
-        <v>0</v>
+        <v>-91595</v>
       </c>
       <c r="D105" s="1">
         <v>0</v>
@@ -2276,50 +2267,41 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B106" s="1">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="C106" s="1">
-        <v>-11715</v>
+        <v>-300</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="B107" s="1">
         <v>0</v>
       </c>
       <c r="C107" s="1">
-        <v>-121445</v>
+        <v>0</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="B108" s="1">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C108" s="1">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="B109" s="1">
         <v>0</v>
       </c>
@@ -2332,22 +2314,19 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
       </c>
       <c r="C110" s="1">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="B111" s="1">
         <v>0</v>
       </c>
@@ -2360,13 +2339,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B112" s="1">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="C112" s="1">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
@@ -2374,13 +2353,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B113" s="1">
         <v>0</v>
       </c>
       <c r="C113" s="1">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
@@ -2388,13 +2367,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B114" s="1">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="C114" s="1">
-        <v>0</v>
+        <v>-24520</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -2402,13 +2381,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B115" s="1">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="C115" s="1">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
@@ -2416,13 +2395,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B116" s="1">
-        <v>0</v>
+        <v>2832</v>
       </c>
       <c r="C116" s="1">
-        <v>-24910</v>
+        <v>-277</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
@@ -2430,13 +2409,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B117" s="1">
-        <v>-1800</v>
+        <v>-200</v>
       </c>
       <c r="C117" s="1">
-        <v>0</v>
+        <v>-197</v>
       </c>
       <c r="D117" s="1">
         <v>0</v>
@@ -2444,13 +2423,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B118" s="1">
-        <v>2832</v>
+        <v>23800</v>
       </c>
       <c r="C118" s="1">
-        <v>-277</v>
+        <v>-7682</v>
       </c>
       <c r="D118" s="1">
         <v>0</v>
@@ -2458,13 +2437,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
       </c>
       <c r="C119" s="1">
-        <v>103</v>
+        <v>-57</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
@@ -2472,13 +2451,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B120" s="1">
-        <v>23800</v>
+        <v>-300</v>
       </c>
       <c r="C120" s="1">
-        <v>-7682</v>
+        <v>0</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
@@ -2486,24 +2465,21 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B121" s="1">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="C121" s="1">
-        <v>-1337</v>
+        <v>-15000</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="B122" s="1">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C122" s="1">
         <v>0</v>
@@ -2514,13 +2490,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B123" s="1">
         <v>0</v>
       </c>
       <c r="C123" s="1">
-        <v>-15000</v>
+        <v>-2930</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
@@ -2528,27 +2504,27 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B124" s="1">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="C124" s="1">
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="D124" s="1">
-        <v>-70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B125" s="1">
-        <v>0</v>
+        <v>-820</v>
       </c>
       <c r="C125" s="1">
-        <v>-2930</v>
+        <v>0</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
@@ -2556,13 +2532,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B126" s="1">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="C126" s="1">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
@@ -2570,13 +2546,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B127" s="1">
-        <v>-820</v>
+        <v>0</v>
       </c>
       <c r="C127" s="1">
-        <v>0</v>
+        <v>-168513</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
@@ -2584,27 +2560,24 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B128" s="1">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C128" s="1">
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="D128" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="B129" s="1">
         <v>0</v>
       </c>
       <c r="C129" s="1">
-        <v>-237444</v>
+        <v>0</v>
       </c>
       <c r="D129" s="1">
         <v>0</v>
@@ -2612,27 +2585,24 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B130" s="1">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C130" s="1">
-        <v>0</v>
+        <v>-23000</v>
       </c>
       <c r="D130" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="B131" s="1">
         <v>0</v>
       </c>
       <c r="C131" s="1">
-        <v>-277</v>
+        <v>0</v>
       </c>
       <c r="D131" s="1">
         <v>0</v>
@@ -2640,13 +2610,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B132" s="1">
         <v>0</v>
       </c>
       <c r="C132" s="1">
-        <v>-25000</v>
+        <v>51200</v>
       </c>
       <c r="D132" s="1">
         <v>0</v>
@@ -2654,13 +2624,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B133" s="1">
         <v>0</v>
       </c>
       <c r="C133" s="1">
-        <v>0</v>
+        <v>-1478</v>
       </c>
       <c r="D133" s="1">
         <v>0</v>
@@ -2668,13 +2638,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B134" s="1">
         <v>0</v>
       </c>
       <c r="C134" s="1">
-        <v>52200</v>
+        <v>-1220</v>
       </c>
       <c r="D134" s="1">
         <v>0</v>
@@ -2682,13 +2652,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B135" s="1">
         <v>0</v>
       </c>
       <c r="C135" s="1">
-        <v>-1578</v>
+        <v>404900</v>
       </c>
       <c r="D135" s="1">
         <v>0</v>
@@ -2696,43 +2666,15 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B136" s="1">
         <v>0</v>
       </c>
       <c r="C136" s="1">
-        <v>-1220</v>
+        <v>345</v>
       </c>
       <c r="D136" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137" s="1">
-        <v>0</v>
-      </c>
-      <c r="C137" s="1">
-        <v>404900</v>
-      </c>
-      <c r="D137" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138" s="1">
-        <v>0</v>
-      </c>
-      <c r="C138" s="1">
-        <v>345</v>
-      </c>
-      <c r="D138" s="1">
         <v>0</v>
       </c>
     </row>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>الشيكل</t>
   </si>
@@ -405,6 +405,21 @@
   </si>
   <si>
     <t>مدى يورو</t>
+  </si>
+  <si>
+    <t>علاء المشهراوي</t>
+  </si>
+  <si>
+    <t>ابوانس سكيك</t>
+  </si>
+  <si>
+    <t>عبد الكريم عابدين</t>
+  </si>
+  <si>
+    <t>محمد الزين دليس</t>
+  </si>
+  <si>
+    <t>عمار ابوضاهر</t>
   </si>
 </sst>
 </file>
@@ -460,7 +475,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -472,21 +487,31 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="16">
     <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2 2" xfId="11"/>
     <cellStyle name="Comma 3" xfId="7"/>
+    <cellStyle name="Comma 3 2" xfId="14"/>
     <cellStyle name="Currency 2" xfId="3"/>
+    <cellStyle name="Currency 2 2" xfId="12"/>
     <cellStyle name="Currency 3" xfId="8"/>
+    <cellStyle name="Currency 3 2" xfId="15"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Normal 3 2" xfId="6"/>
     <cellStyle name="عادي 2" xfId="5"/>
+    <cellStyle name="عادي 2 2" xfId="13"/>
     <cellStyle name="عادي 3" xfId="9"/>
     <cellStyle name="عادي 4" xfId="10"/>
   </cellStyles>
@@ -790,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -824,71 +849,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>29462</v>
-      </c>
-      <c r="D2" s="1">
-        <v>25712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-1550</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-40</v>
-      </c>
-    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>63</v>
+        <v>29462</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>27712</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>-45</v>
+        <v>-500</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>-3275</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -896,27 +893,27 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>-3345</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>459</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -924,13 +921,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>-33</v>
+        <v>-70000</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -938,13 +935,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>804</v>
+        <v>459</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -952,13 +949,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>155</v>
+        <v>-33</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -966,13 +963,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>-890</v>
+        <v>1304</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -980,13 +977,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -994,13 +991,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>-300</v>
+        <v>-890</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1008,13 +1005,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>-970</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1022,13 +1019,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>-115</v>
+        <v>-300</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1036,10 +1033,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>-1320</v>
+        <v>-970</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1050,13 +1047,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="C18" s="1">
-        <v>-10650</v>
+        <v>-115</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1064,13 +1061,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1">
-        <v>-1310</v>
+        <v>-1320</v>
       </c>
       <c r="C19" s="1">
-        <v>3792</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1078,13 +1075,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
-        <v>-160</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>-10650</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -1092,13 +1089,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>-1310</v>
       </c>
       <c r="C21" s="1">
-        <v>-156</v>
+        <v>3792</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1106,13 +1103,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="C22" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -1120,27 +1117,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>4075</v>
+        <v>-156</v>
       </c>
       <c r="D23" s="1">
-        <v>-3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1148,27 +1145,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>4075</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="C26" s="1">
-        <v>-656</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -1176,13 +1173,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>-1596</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1190,13 +1187,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
       <c r="C28" s="1">
-        <v>-105</v>
+        <v>-656</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -1204,13 +1201,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>-6000</v>
+        <v>-1596</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -1218,13 +1215,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1">
-        <v>-610</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>1868</v>
+        <v>-105</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -1232,13 +1229,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>-760</v>
+        <v>-6000</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -1246,13 +1243,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>-5600</v>
+        <v>-610</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -1260,13 +1257,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>-5</v>
+        <v>-760</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -1274,13 +1271,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1">
-        <v>-15</v>
+        <v>-5600</v>
       </c>
       <c r="C34" s="1">
-        <v>-5600</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -1288,13 +1285,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C35" s="1">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -1302,13 +1299,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="C36" s="1">
-        <v>-400</v>
+        <v>-5600</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -1316,13 +1313,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -1330,13 +1327,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -1344,13 +1341,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
       </c>
       <c r="C39" s="1">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -1358,10 +1355,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1">
-        <v>5475</v>
+        <v>-20</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -1372,13 +1369,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
       </c>
       <c r="C41" s="1">
-        <v>-9416</v>
+        <v>-1500</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -1386,10 +1383,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1">
-        <v>-125</v>
+        <v>5475</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -1400,13 +1397,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>-9416</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -1414,21 +1411,24 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>-225</v>
       </c>
       <c r="C44" s="1">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B45" s="1">
-        <v>-95</v>
+        <v>1200</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -1439,13 +1439,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
       </c>
       <c r="C46" s="1">
-        <v>-10</v>
+        <v>-60</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -1453,13 +1453,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="B47" s="1">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="C47" s="1">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -1467,13 +1467,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C48" s="1">
-        <v>-2419</v>
+        <v>-10</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -1481,24 +1481,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B50" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>-2419</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -1506,13 +1509,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="C51" s="1">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -1520,13 +1523,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="B52" s="1">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="C52" s="1">
-        <v>-100</v>
+        <v>-2000</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -1534,27 +1537,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
       </c>
       <c r="C53" s="1">
-        <v>-20925</v>
+        <v>-300</v>
       </c>
       <c r="D53" s="1">
-        <v>-20354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -1562,27 +1565,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>-21495</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>-21652</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
       </c>
       <c r="C56" s="1">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -1590,13 +1593,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="C57" s="1">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -1604,13 +1607,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="B58" s="1">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="C58" s="1">
-        <v>-2522</v>
+        <v>-200</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -1618,13 +1621,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
       </c>
       <c r="C59" s="1">
-        <v>-4395</v>
+        <v>-10</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -1632,13 +1635,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="C60" s="1">
-        <v>-165</v>
+        <v>-2522</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -1646,13 +1649,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>6776</v>
+        <v>0</v>
       </c>
       <c r="C61" s="1">
-        <v>-967</v>
+        <v>-8965</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -1660,13 +1663,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>-389</v>
+        <v>0</v>
       </c>
       <c r="C62" s="1">
-        <v>0</v>
+        <v>-165</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -1674,27 +1677,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>2905</v>
+        <v>6776</v>
       </c>
       <c r="C63" s="1">
-        <v>329</v>
+        <v>-967</v>
       </c>
       <c r="D63" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>0</v>
+        <v>-389</v>
       </c>
       <c r="C64" s="1">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -1702,27 +1705,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>0</v>
+        <v>2905</v>
       </c>
       <c r="C65" s="1">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C66" s="1">
-        <v>1124</v>
+        <v>-200</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -1730,7 +1733,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -1744,13 +1747,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C68" s="1">
-        <v>-16</v>
+        <v>1135</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
@@ -1758,7 +1761,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -1772,13 +1775,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
       </c>
       <c r="C70" s="1">
-        <v>-146</v>
+        <v>-16</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -1786,13 +1789,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
       </c>
       <c r="C71" s="1">
-        <v>-5522</v>
+        <v>0</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
@@ -1800,13 +1803,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
       </c>
       <c r="C72" s="1">
-        <v>585</v>
+        <v>-146</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
@@ -1814,24 +1817,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
       </c>
       <c r="C73" s="1">
-        <v>-13083</v>
+        <v>-1722</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B74" s="1">
         <v>0</v>
       </c>
       <c r="C74" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -1839,13 +1845,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C75" s="1">
-        <v>0</v>
+        <v>-13083</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -1853,13 +1859,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
       </c>
       <c r="C76" s="1">
-        <v>-6116</v>
+        <v>-330</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -1867,13 +1873,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C77" s="1">
-        <v>-233</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -1881,13 +1887,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
       </c>
       <c r="C78" s="1">
-        <v>-40</v>
+        <v>-4750</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -1895,13 +1901,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1">
-        <v>-1074</v>
+        <v>-133</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -1909,13 +1915,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="C80" s="1">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
@@ -1923,13 +1929,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="C81" s="1">
-        <v>100</v>
+        <v>-812</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
@@ -1937,13 +1943,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="C82" s="1">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -1951,13 +1957,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
       </c>
       <c r="C83" s="1">
-        <v>-1000</v>
+        <v>100</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
@@ -1965,13 +1971,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
       </c>
       <c r="C84" s="1">
-        <v>-312</v>
+        <v>395</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
@@ -1979,13 +1985,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
@@ -1993,13 +1999,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
       </c>
       <c r="C86" s="1">
-        <v>8118</v>
+        <v>-312</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
@@ -2007,13 +2013,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="C87" s="1">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
@@ -2021,13 +2027,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
       </c>
       <c r="C88" s="1">
-        <v>0</v>
+        <v>8118</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
@@ -2035,63 +2041,63 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
       </c>
       <c r="C89" s="1">
-        <v>-208</v>
+        <v>0</v>
       </c>
       <c r="D89" s="1">
-        <v>-358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
       </c>
       <c r="C90" s="1">
-        <v>-12662</v>
+        <v>0</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="B91" s="1">
         <v>0</v>
       </c>
       <c r="C91" s="1">
-        <v>0</v>
+        <v>-208</v>
       </c>
       <c r="D91" s="1">
-        <v>0</v>
+        <v>-358</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1">
-        <v>0</v>
+        <v>-12662</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="B93" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -2102,10 +2108,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B94" s="1">
-        <v>-7</v>
+        <v>225</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -2116,13 +2122,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B95" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C95" s="1">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
@@ -2130,13 +2136,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B96" s="1">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="C96" s="1">
-        <v>-11563</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
@@ -2144,24 +2150,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
       </c>
       <c r="C97" s="1">
-        <v>-350</v>
+        <v>-21</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B98" s="1">
         <v>0</v>
       </c>
       <c r="C98" s="1">
-        <v>0</v>
+        <v>-11563</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
@@ -2169,21 +2178,21 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
       </c>
       <c r="C99" s="1">
-        <v>-400</v>
+        <v>-350</v>
       </c>
       <c r="D99" s="1">
-        <v>-814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>
@@ -2192,32 +2201,32 @@
         <v>0</v>
       </c>
       <c r="D100" s="1">
-        <v>0</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
       </c>
       <c r="C101" s="1">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="D101" s="1">
-        <v>0</v>
+        <v>-814</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B102" s="1">
         <v>0</v>
       </c>
       <c r="C102" s="1">
-        <v>-3102</v>
+        <v>0</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
@@ -2225,10 +2234,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B103" s="1">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="C103" s="1">
         <v>0</v>
@@ -2239,13 +2248,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B104" s="1">
         <v>0</v>
       </c>
       <c r="C104" s="1">
-        <v>-12515</v>
+        <v>-3102</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
@@ -2253,13 +2262,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B105" s="1">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C105" s="1">
-        <v>-91595</v>
+        <v>0</v>
       </c>
       <c r="D105" s="1">
         <v>0</v>
@@ -2267,60 +2276,66 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1">
+        <v>300</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-32105</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B108" s="1">
         <v>245</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C108" s="1">
         <v>-300</v>
       </c>
-      <c r="D106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="1">
-        <v>0</v>
-      </c>
-      <c r="C107" s="1">
-        <v>0</v>
-      </c>
-      <c r="D107" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="1">
-        <v>0</v>
-      </c>
-      <c r="C108" s="1">
-        <v>0</v>
-      </c>
       <c r="D108" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="B109" s="1">
         <v>0</v>
       </c>
       <c r="C109" s="1">
-        <v>0</v>
+        <v>-508</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="B110" s="1">
         <v>0</v>
       </c>
       <c r="C110" s="1">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
@@ -2339,27 +2354,24 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B112" s="1">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="C112" s="1">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="B113" s="1">
         <v>0</v>
       </c>
       <c r="C113" s="1">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
@@ -2367,13 +2379,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B114" s="1">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="C114" s="1">
-        <v>-24520</v>
+        <v>0</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -2381,10 +2393,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B115" s="1">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="C115" s="1">
         <v>0</v>
@@ -2395,13 +2407,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B116" s="1">
-        <v>2832</v>
+        <v>0</v>
       </c>
       <c r="C116" s="1">
-        <v>-277</v>
+        <v>-45349</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
@@ -2409,13 +2421,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B117" s="1">
-        <v>-200</v>
+        <v>-1800</v>
       </c>
       <c r="C117" s="1">
-        <v>-197</v>
+        <v>0</v>
       </c>
       <c r="D117" s="1">
         <v>0</v>
@@ -2423,13 +2435,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B118" s="1">
-        <v>23800</v>
+        <v>2832</v>
       </c>
       <c r="C118" s="1">
-        <v>-7682</v>
+        <v>-277</v>
       </c>
       <c r="D118" s="1">
         <v>0</v>
@@ -2437,13 +2449,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B119" s="1">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C119" s="1">
-        <v>-57</v>
+        <v>-197</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
@@ -2451,13 +2463,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B120" s="1">
-        <v>-300</v>
+        <v>23800</v>
       </c>
       <c r="C120" s="1">
-        <v>0</v>
+        <v>-7682</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
@@ -2465,21 +2477,24 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B121" s="1">
         <v>0</v>
       </c>
       <c r="C121" s="1">
-        <v>-15000</v>
+        <v>-1357</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="B122" s="1">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C122" s="1">
         <v>0</v>
@@ -2490,24 +2505,21 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B123" s="1">
         <v>0</v>
       </c>
       <c r="C123" s="1">
-        <v>-2930</v>
+        <v>-15000</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="B124" s="1">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="C124" s="1">
         <v>0</v>
@@ -2518,13 +2530,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B125" s="1">
-        <v>-820</v>
+        <v>0</v>
       </c>
       <c r="C125" s="1">
-        <v>0</v>
+        <v>-2880</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
@@ -2532,13 +2544,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B126" s="1">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="C126" s="1">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
@@ -2546,13 +2558,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B127" s="1">
-        <v>0</v>
+        <v>-1120</v>
       </c>
       <c r="C127" s="1">
-        <v>-168513</v>
+        <v>0</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
@@ -2560,24 +2572,27 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B128" s="1">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C128" s="1">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="D128" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="B129" s="1">
         <v>0</v>
       </c>
       <c r="C129" s="1">
-        <v>0</v>
+        <v>-149276</v>
       </c>
       <c r="D129" s="1">
         <v>0</v>
@@ -2585,13 +2600,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B130" s="1">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C130" s="1">
-        <v>-23000</v>
+        <v>0</v>
       </c>
       <c r="D130" s="1">
         <v>0</v>
@@ -2610,27 +2625,24 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B132" s="1">
         <v>0</v>
       </c>
       <c r="C132" s="1">
-        <v>51200</v>
+        <v>-23000</v>
       </c>
       <c r="D132" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="B133" s="1">
         <v>0</v>
       </c>
       <c r="C133" s="1">
-        <v>-1478</v>
+        <v>0</v>
       </c>
       <c r="D133" s="1">
         <v>0</v>
@@ -2638,13 +2650,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B134" s="1">
         <v>0</v>
       </c>
       <c r="C134" s="1">
-        <v>-1220</v>
+        <v>51200</v>
       </c>
       <c r="D134" s="1">
         <v>0</v>
@@ -2652,13 +2664,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B135" s="1">
         <v>0</v>
       </c>
       <c r="C135" s="1">
-        <v>404900</v>
+        <v>-1478</v>
       </c>
       <c r="D135" s="1">
         <v>0</v>
@@ -2666,15 +2678,43 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0</v>
+      </c>
+      <c r="C136" s="1">
+        <v>-1220</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1">
+        <v>404900</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B136" s="1">
-        <v>0</v>
-      </c>
-      <c r="C136" s="1">
+      <c r="B138" s="1">
+        <v>0</v>
+      </c>
+      <c r="C138" s="1">
         <v>345</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D138" s="1">
         <v>0</v>
       </c>
     </row>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>الشيكل</t>
   </si>
@@ -41,9 +41,6 @@
     <t>مالك الرنتيسي</t>
   </si>
   <si>
-    <t>صندوق واحد صندوق كــــاظــــم 1</t>
-  </si>
-  <si>
     <t>ابومفيد</t>
   </si>
   <si>
@@ -143,18 +140,9 @@
     <t>ابوخالد مطر</t>
   </si>
   <si>
-    <t>اسعد حموده</t>
-  </si>
-  <si>
-    <t>الصوص وطن</t>
-  </si>
-  <si>
     <t>اسامه مصبح</t>
   </si>
   <si>
-    <t>محمد انيس</t>
-  </si>
-  <si>
     <t>ابوعبدالله مشتهى</t>
   </si>
   <si>
@@ -221,9 +209,6 @@
     <t>نعيم مشتهى ابواشرف</t>
   </si>
   <si>
-    <t>احمد شعت</t>
-  </si>
-  <si>
     <t>زيادات موني جرام</t>
   </si>
   <si>
@@ -260,9 +245,6 @@
     <t>محمود سكيك ميلاد</t>
   </si>
   <si>
-    <t>الاوائل تركيا</t>
-  </si>
-  <si>
     <t>محمد مفيد تامين عماره</t>
   </si>
   <si>
@@ -323,9 +305,6 @@
     <t>الدانا</t>
   </si>
   <si>
-    <t>ميار دلول سندس</t>
-  </si>
-  <si>
     <t>العالميه للصرافه</t>
   </si>
   <si>
@@ -380,21 +359,12 @@
     <t>خالد جراده</t>
   </si>
   <si>
-    <t>فراس دير البلح</t>
-  </si>
-  <si>
-    <t>خلدون غلة تركيا</t>
-  </si>
-  <si>
     <t>ام سائد شركة فيجين</t>
   </si>
   <si>
     <t>وفيق2</t>
   </si>
   <si>
-    <t xml:space="preserve">حسن العبادله </t>
-  </si>
-  <si>
     <t>ابوفياض</t>
   </si>
   <si>
@@ -404,22 +374,70 @@
     <t>العبادله 2</t>
   </si>
   <si>
-    <t>مدى يورو</t>
-  </si>
-  <si>
     <t>علاء المشهراوي</t>
   </si>
   <si>
     <t>ابوانس سكيك</t>
   </si>
   <si>
-    <t>عبد الكريم عابدين</t>
-  </si>
-  <si>
     <t>محمد الزين دليس</t>
   </si>
   <si>
     <t>عمار ابوضاهر</t>
+  </si>
+  <si>
+    <t>صندوق واحد صندوق كــــاظــــم 1 كـاظم</t>
+  </si>
+  <si>
+    <t>نور مشتهى</t>
+  </si>
+  <si>
+    <t>حازم مصبح</t>
+  </si>
+  <si>
+    <t>صامد الشريف</t>
+  </si>
+  <si>
+    <t>هادي ابومعروف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حازم مشتهى </t>
+  </si>
+  <si>
+    <t>سمير فتحي ساق الله</t>
+  </si>
+  <si>
+    <t>ابواسعد حموده</t>
+  </si>
+  <si>
+    <t>ابوالمجد ابوعقلين</t>
+  </si>
+  <si>
+    <t>احمد جوال بي</t>
+  </si>
+  <si>
+    <t>ابودرويش</t>
+  </si>
+  <si>
+    <t>اكرم وادي</t>
+  </si>
+  <si>
+    <t>إبراهيم الطويل</t>
+  </si>
+  <si>
+    <t>احمد خليل</t>
+  </si>
+  <si>
+    <t>خالد محمود</t>
+  </si>
+  <si>
+    <t>ام محمود مهنا</t>
+  </si>
+  <si>
+    <t>مصطفى بشير</t>
+  </si>
+  <si>
+    <t>محمد شيك</t>
   </si>
 </sst>
 </file>
@@ -815,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -849,43 +867,71 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>152370</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-2498</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-500</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-40</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>29462</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1">
-        <v>27712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="C5" s="1">
-        <v>-500</v>
+        <v>1383</v>
       </c>
       <c r="D5" s="1">
-        <v>-40</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>63</v>
+        <v>480</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -893,27 +939,27 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>-3345</v>
+        <v>138</v>
       </c>
       <c r="D7" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>11</v>
+        <v>472</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -921,13 +967,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>-70000</v>
+        <v>-33</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -935,13 +981,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -949,13 +995,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>-33</v>
+        <v>155</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -963,13 +1009,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>1304</v>
+        <v>-3899</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -977,13 +1023,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -991,13 +1037,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>-890</v>
+        <v>-2800</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1005,13 +1051,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>-970</v>
       </c>
       <c r="C15" s="1">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1019,13 +1065,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="C16" s="1">
-        <v>-300</v>
+        <v>-115</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1033,10 +1079,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
-        <v>-970</v>
+        <v>-1660</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1047,13 +1093,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>-115</v>
+        <v>-10650</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1061,13 +1107,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
-        <v>-1320</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>5662</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1075,13 +1121,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="C20" s="1">
-        <v>-10650</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -1089,13 +1135,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
-        <v>-1310</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>3792</v>
+        <v>-156</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1103,13 +1149,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
-        <v>-160</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -1117,27 +1163,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>-156</v>
+        <v>4075</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="C24" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1145,27 +1191,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>4075</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>-3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>-656</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -1173,13 +1219,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>-1596</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1187,13 +1233,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
       <c r="C28" s="1">
-        <v>-656</v>
+        <v>-100</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -1201,13 +1247,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>-1596</v>
+        <v>-6000</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -1215,13 +1261,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>-610</v>
       </c>
       <c r="C30" s="1">
-        <v>-105</v>
+        <v>1868</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -1229,13 +1275,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>-6000</v>
+        <v>-660</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -1243,13 +1289,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1">
-        <v>-610</v>
+        <v>-5600</v>
       </c>
       <c r="C32" s="1">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -1257,13 +1303,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>973</v>
       </c>
       <c r="C33" s="1">
-        <v>-760</v>
+        <v>-630</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -1271,13 +1317,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1">
+        <v>-15</v>
+      </c>
+      <c r="C34" s="1">
         <v>-5600</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -1285,13 +1331,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -1299,13 +1345,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="B36" s="1">
-        <v>-15</v>
+        <v>-200</v>
       </c>
       <c r="C36" s="1">
-        <v>-5600</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -1313,13 +1359,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
       </c>
       <c r="C37" s="1">
-        <v>-10</v>
+        <v>10424</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -1327,13 +1373,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="C38" s="1">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -1341,13 +1387,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -1355,10 +1401,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1">
-        <v>-20</v>
+        <v>5475</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -1369,24 +1415,24 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
       </c>
       <c r="C41" s="1">
-        <v>-1500</v>
+        <v>-14255</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1">
-        <v>5475</v>
+        <v>-225</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -1397,13 +1443,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="C43" s="1">
-        <v>-9416</v>
+        <v>0</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -1411,13 +1457,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1">
-        <v>-225</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -1425,10 +1471,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="B45" s="1">
-        <v>1200</v>
+        <v>-95</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -1439,13 +1485,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
       </c>
       <c r="C46" s="1">
-        <v>-60</v>
+        <v>-10</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -1453,13 +1499,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -1467,13 +1513,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C48" s="1">
-        <v>-10</v>
+        <v>-2419</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -1481,13 +1527,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="C49" s="1">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -1495,13 +1541,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="B50" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1">
-        <v>-2419</v>
+        <v>0</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -1509,13 +1555,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -1523,13 +1569,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="C52" s="1">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -1537,27 +1583,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
       </c>
       <c r="C53" s="1">
-        <v>-300</v>
+        <v>-11540</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>-3205</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="C54" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -1565,21 +1611,21 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="C55" s="1">
-        <v>-21495</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1">
-        <v>-21652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -1593,13 +1639,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -1607,13 +1653,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1">
-        <v>0</v>
+        <v>-625</v>
       </c>
       <c r="C58" s="1">
-        <v>-200</v>
+        <v>-2522</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -1621,13 +1667,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
       </c>
       <c r="C59" s="1">
-        <v>-10</v>
+        <v>-7495</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -1635,13 +1681,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="C60" s="1">
-        <v>-2522</v>
+        <v>-165</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -1649,13 +1695,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
       </c>
       <c r="C61" s="1">
-        <v>-8965</v>
+        <v>0</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -1663,13 +1709,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1">
-        <v>0</v>
+        <v>-389</v>
       </c>
       <c r="C62" s="1">
-        <v>-165</v>
+        <v>0</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -1677,27 +1723,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1">
-        <v>6776</v>
+        <v>2600</v>
       </c>
       <c r="C63" s="1">
-        <v>-967</v>
+        <v>500</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1">
-        <v>-389</v>
+        <v>0</v>
       </c>
       <c r="C64" s="1">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -1705,27 +1751,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B65" s="1">
-        <v>2905</v>
+        <v>0</v>
       </c>
       <c r="C65" s="1">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B66" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C66" s="1">
-        <v>-200</v>
+        <v>1180</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -1733,7 +1779,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -1747,13 +1793,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B68" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C68" s="1">
-        <v>1135</v>
+        <v>-16</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
@@ -1761,7 +1807,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -1775,13 +1821,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
       </c>
       <c r="C70" s="1">
-        <v>-16</v>
+        <v>-146</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -1789,13 +1835,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
       </c>
       <c r="C71" s="1">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
@@ -1803,13 +1849,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B72" s="1">
-        <v>0</v>
+        <v>2120</v>
       </c>
       <c r="C72" s="1">
-        <v>-146</v>
+        <v>0</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
@@ -1817,13 +1863,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
       </c>
       <c r="C73" s="1">
-        <v>-1722</v>
+        <v>-12813</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1831,13 +1877,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
       </c>
       <c r="C74" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -1845,13 +1891,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B75" s="1">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C75" s="1">
-        <v>-13083</v>
+        <v>0</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -1859,13 +1905,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
       </c>
       <c r="C76" s="1">
-        <v>-330</v>
+        <v>-13030</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -1873,13 +1919,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B77" s="1">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C77" s="1">
-        <v>0</v>
+        <v>-133</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -1887,13 +1933,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
       </c>
       <c r="C78" s="1">
-        <v>-4750</v>
+        <v>-4840</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -1901,13 +1947,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="B79" s="1">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="C79" s="1">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -1915,13 +1961,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B80" s="1">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="C80" s="1">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
@@ -1929,13 +1975,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B81" s="1">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="C81" s="1">
-        <v>-812</v>
+        <v>100</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
@@ -1943,27 +1989,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B82" s="1">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="C82" s="1">
-        <v>0</v>
+        <v>1673</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>-590</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
       </c>
       <c r="C83" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
@@ -1971,13 +2017,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
       </c>
       <c r="C84" s="1">
-        <v>395</v>
+        <v>-312</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
@@ -1985,13 +2031,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B85" s="1">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="C85" s="1">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
@@ -1999,13 +2045,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
       </c>
       <c r="C86" s="1">
-        <v>-312</v>
+        <v>8118</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
@@ -2013,13 +2059,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B87" s="1">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="C87" s="1">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
@@ -2027,13 +2073,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
       </c>
       <c r="C88" s="1">
-        <v>8118</v>
+        <v>0</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
@@ -2041,61 +2087,61 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
       </c>
       <c r="C89" s="1">
-        <v>0</v>
+        <v>-208</v>
       </c>
       <c r="D89" s="1">
-        <v>0</v>
+        <v>-358</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
       </c>
       <c r="C90" s="1">
-        <v>0</v>
+        <v>-12662</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="B91" s="1">
         <v>0</v>
       </c>
       <c r="C91" s="1">
-        <v>-208</v>
+        <v>0</v>
       </c>
       <c r="D91" s="1">
-        <v>-358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B92" s="1">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="C92" s="1">
-        <v>-12662</v>
+        <v>0</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="B93" s="1">
         <v>0</v>
       </c>
@@ -2108,10 +2154,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B94" s="1">
-        <v>225</v>
+        <v>-7</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -2122,13 +2168,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B95" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C95" s="1">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
@@ -2136,10 +2182,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B96" s="1">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="C96" s="1">
         <v>0</v>
@@ -2150,13 +2196,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
       </c>
       <c r="C97" s="1">
-        <v>-21</v>
+        <v>-350</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
@@ -2164,27 +2210,27 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
       </c>
       <c r="C98" s="1">
-        <v>-11563</v>
+        <v>0</v>
       </c>
       <c r="D98" s="1">
-        <v>0</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
       </c>
       <c r="C99" s="1">
-        <v>-350</v>
+        <v>-100</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
@@ -2192,7 +2238,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>
@@ -2201,29 +2247,29 @@
         <v>0</v>
       </c>
       <c r="D100" s="1">
-        <v>-105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
       </c>
       <c r="C101" s="1">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="D101" s="1">
-        <v>-814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B102" s="1">
-        <v>0</v>
+        <v>-115</v>
       </c>
       <c r="C102" s="1">
         <v>0</v>
@@ -2234,10 +2280,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B103" s="1">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C103" s="1">
         <v>0</v>
@@ -2248,13 +2294,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B104" s="1">
         <v>0</v>
       </c>
       <c r="C104" s="1">
-        <v>-3102</v>
+        <v>-3599</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
@@ -2262,13 +2308,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B105" s="1">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="C105" s="1">
-        <v>0</v>
+        <v>-12985</v>
       </c>
       <c r="D105" s="1">
         <v>0</v>
@@ -2276,13 +2322,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B106" s="1">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="C106" s="1">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
@@ -2290,13 +2336,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
       </c>
       <c r="C107" s="1">
-        <v>-32105</v>
+        <v>-6000</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
@@ -2304,10 +2350,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B108" s="1">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C108" s="1">
         <v>-300</v>
@@ -2324,29 +2370,35 @@
         <v>0</v>
       </c>
       <c r="C109" s="1">
-        <v>-508</v>
+        <v>-250</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="B110" s="1">
         <v>0</v>
       </c>
       <c r="C110" s="1">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="B111" s="1">
         <v>0</v>
       </c>
       <c r="C111" s="1">
-        <v>0</v>
+        <v>-327</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
@@ -2354,24 +2406,27 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B112" s="1">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="C112" s="1">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="B113" s="1">
         <v>0</v>
       </c>
       <c r="C113" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
@@ -2379,13 +2434,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B114" s="1">
-        <v>451</v>
+        <v>370</v>
       </c>
       <c r="C114" s="1">
-        <v>0</v>
+        <v>-27312</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -2393,10 +2448,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B115" s="1">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="C115" s="1">
         <v>0</v>
@@ -2407,13 +2462,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B116" s="1">
-        <v>0</v>
+        <v>2340</v>
       </c>
       <c r="C116" s="1">
-        <v>-45349</v>
+        <v>-7</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
@@ -2421,13 +2476,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B117" s="1">
-        <v>-1800</v>
+        <v>-200</v>
       </c>
       <c r="C117" s="1">
-        <v>0</v>
+        <v>-3597</v>
       </c>
       <c r="D117" s="1">
         <v>0</v>
@@ -2435,13 +2490,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B118" s="1">
-        <v>2832</v>
+        <v>23800</v>
       </c>
       <c r="C118" s="1">
-        <v>-277</v>
+        <v>-7682</v>
       </c>
       <c r="D118" s="1">
         <v>0</v>
@@ -2449,13 +2504,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B119" s="1">
-        <v>-200</v>
+        <v>-245</v>
       </c>
       <c r="C119" s="1">
-        <v>-197</v>
+        <v>-1113</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
@@ -2463,13 +2518,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B120" s="1">
-        <v>23800</v>
+        <v>-300</v>
       </c>
       <c r="C120" s="1">
-        <v>-7682</v>
+        <v>-26</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
@@ -2477,13 +2532,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B121" s="1">
         <v>0</v>
       </c>
       <c r="C121" s="1">
-        <v>-1357</v>
+        <v>-15000</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
@@ -2491,13 +2546,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B122" s="1">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C122" s="1">
-        <v>0</v>
+        <v>-508</v>
       </c>
       <c r="D122" s="1">
         <v>0</v>
@@ -2505,21 +2560,24 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B123" s="1">
-        <v>0</v>
+        <v>-1430</v>
       </c>
       <c r="C123" s="1">
-        <v>-15000</v>
+        <v>-2880</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="B124" s="1">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="C124" s="1">
         <v>0</v>
@@ -2530,13 +2588,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B125" s="1">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C125" s="1">
-        <v>-2880</v>
+        <v>0</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
@@ -2544,13 +2602,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B126" s="1">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="C126" s="1">
-        <v>0</v>
+        <v>-108</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
@@ -2558,13 +2616,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B127" s="1">
-        <v>-1120</v>
+        <v>0</v>
       </c>
       <c r="C127" s="1">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
@@ -2572,13 +2630,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B128" s="1">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C128" s="1">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="D128" s="1">
         <v>0</v>
@@ -2586,13 +2644,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
       </c>
       <c r="C129" s="1">
-        <v>-149276</v>
+        <v>-128</v>
       </c>
       <c r="D129" s="1">
         <v>0</v>
@@ -2600,24 +2658,27 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B130" s="1">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C130" s="1">
-        <v>0</v>
+        <v>-23000</v>
       </c>
       <c r="D130" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B131" s="1">
         <v>0</v>
       </c>
       <c r="C131" s="1">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="D131" s="1">
         <v>0</v>
@@ -2625,24 +2686,27 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B132" s="1">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="C132" s="1">
-        <v>-23000</v>
+        <v>0</v>
       </c>
       <c r="D132" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="B133" s="1">
         <v>0</v>
       </c>
       <c r="C133" s="1">
-        <v>0</v>
+        <v>-1478</v>
       </c>
       <c r="D133" s="1">
         <v>0</v>
@@ -2650,13 +2714,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B134" s="1">
         <v>0</v>
       </c>
       <c r="C134" s="1">
-        <v>51200</v>
+        <v>-670</v>
       </c>
       <c r="D134" s="1">
         <v>0</v>
@@ -2664,13 +2728,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B135" s="1">
         <v>0</v>
       </c>
       <c r="C135" s="1">
-        <v>-1478</v>
+        <v>60620</v>
       </c>
       <c r="D135" s="1">
         <v>0</v>
@@ -2678,43 +2742,15 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B136" s="1">
-        <v>0</v>
+        <v>-1050</v>
       </c>
       <c r="C136" s="1">
-        <v>-1220</v>
+        <v>0</v>
       </c>
       <c r="D136" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B137" s="1">
-        <v>0</v>
-      </c>
-      <c r="C137" s="1">
-        <v>404900</v>
-      </c>
-      <c r="D137" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B138" s="1">
-        <v>0</v>
-      </c>
-      <c r="C138" s="1">
-        <v>345</v>
-      </c>
-      <c r="D138" s="1">
         <v>0</v>
       </c>
     </row>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -833,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -846,7 +846,7 @@
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.3984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.3984375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
@@ -867,71 +867,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>152370</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10848</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-2498</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-500</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-40</v>
-      </c>
-    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>63</v>
+        <v>259891</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>10621</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>475</v>
+        <v>-3086</v>
       </c>
       <c r="C5" s="1">
-        <v>1383</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1110</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>480</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -939,13 +911,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>138</v>
+        <v>500</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -953,13 +925,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>472</v>
+        <v>3353</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -967,13 +939,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>-1050</v>
       </c>
       <c r="C9" s="1">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -981,13 +953,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -995,13 +967,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>155</v>
+        <v>-33</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1009,13 +981,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>-3899</v>
+        <v>-18</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1023,13 +995,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1037,13 +1009,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>-2800</v>
+        <v>-1013</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1051,13 +1023,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>-970</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1065,13 +1037,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>-115</v>
+        <v>-1400</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1079,10 +1051,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
-        <v>-1660</v>
+        <v>-970</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1093,13 +1065,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="C18" s="1">
-        <v>-10650</v>
+        <v>-115</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1107,13 +1079,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>-1680</v>
       </c>
       <c r="C19" s="1">
-        <v>5662</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1121,13 +1093,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>-160</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>-10650</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -1135,13 +1107,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>-470</v>
       </c>
       <c r="C21" s="1">
-        <v>-156</v>
+        <v>2894</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1149,13 +1121,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="C22" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -1163,27 +1135,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>4075</v>
+        <v>-156</v>
       </c>
       <c r="D23" s="1">
-        <v>-3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1191,27 +1163,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>4075</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="C26" s="1">
-        <v>-656</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -1219,13 +1191,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>-1596</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1233,13 +1205,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
       <c r="C28" s="1">
-        <v>-100</v>
+        <v>-656</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -1247,13 +1219,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>-6000</v>
+        <v>-1596</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -1261,13 +1233,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="B30" s="1">
-        <v>-610</v>
+        <v>-300</v>
       </c>
       <c r="C30" s="1">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -1275,13 +1247,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>-660</v>
+        <v>-6000</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -1289,13 +1261,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1">
-        <v>-5600</v>
+        <v>-610</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -1303,13 +1275,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
-        <v>973</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>-630</v>
+        <v>-600</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -1317,13 +1289,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1">
-        <v>-15</v>
+        <v>-5600</v>
       </c>
       <c r="C34" s="1">
-        <v>-5600</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -1331,13 +1303,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>2114</v>
       </c>
       <c r="C35" s="1">
-        <v>-10</v>
+        <v>-3641</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -1345,13 +1317,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1">
-        <v>-200</v>
+        <v>-15</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -1359,13 +1331,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
       </c>
       <c r="C37" s="1">
-        <v>10424</v>
+        <v>-10</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -1373,10 +1345,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="B38" s="1">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -1387,13 +1359,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
       </c>
       <c r="C39" s="1">
-        <v>-100</v>
+        <v>2793</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -1401,10 +1373,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>5475</v>
+        <v>-20</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -1415,24 +1387,24 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
       </c>
       <c r="C41" s="1">
-        <v>-14255</v>
+        <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>-150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>-225</v>
+        <v>5475</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -1443,13 +1415,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>-4527</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -1457,13 +1429,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
       </c>
       <c r="C44" s="1">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -1471,10 +1443,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>-95</v>
+        <v>300</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -1485,13 +1457,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
       </c>
       <c r="C46" s="1">
-        <v>-10</v>
+        <v>-60</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -1499,13 +1471,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="B47" s="1">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="C47" s="1">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -1513,13 +1485,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C48" s="1">
-        <v>-2419</v>
+        <v>-10</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -1527,13 +1499,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -1541,13 +1513,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>-2419</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -1555,13 +1527,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="C51" s="1">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -1569,13 +1541,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="B52" s="1">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="C52" s="1">
-        <v>0</v>
+        <v>-128</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -1583,24 +1555,24 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
       </c>
       <c r="C53" s="1">
-        <v>-11540</v>
+        <v>-300</v>
       </c>
       <c r="D53" s="1">
-        <v>-3205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54" s="1">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -1611,21 +1583,21 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55" s="1">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>-26431</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>-6714</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -1639,13 +1611,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="1">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="C57" s="1">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -1653,13 +1625,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="B58" s="1">
-        <v>-625</v>
+        <v>0</v>
       </c>
       <c r="C58" s="1">
-        <v>-2522</v>
+        <v>-548</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -1667,13 +1639,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
       </c>
       <c r="C59" s="1">
-        <v>-7495</v>
+        <v>-10</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -1681,13 +1653,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B60" s="1">
-        <v>0</v>
+        <v>-625</v>
       </c>
       <c r="C60" s="1">
-        <v>-165</v>
+        <v>-2522</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -1695,13 +1667,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
       </c>
       <c r="C61" s="1">
-        <v>0</v>
+        <v>-1569</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -1709,13 +1681,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B62" s="1">
-        <v>-389</v>
+        <v>0</v>
       </c>
       <c r="C62" s="1">
-        <v>0</v>
+        <v>-165</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -1723,27 +1695,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B63" s="1">
-        <v>2600</v>
+        <v>4420</v>
       </c>
       <c r="C63" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D63" s="1">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B64" s="1">
-        <v>0</v>
+        <v>-389</v>
       </c>
       <c r="C64" s="1">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -1751,27 +1723,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
       </c>
       <c r="C65" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C66" s="1">
-        <v>1180</v>
+        <v>-200</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -1779,7 +1751,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -1788,18 +1760,18 @@
         <v>0</v>
       </c>
       <c r="D67" s="1">
-        <v>0</v>
+        <v>-2525</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B68" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C68" s="1">
-        <v>-16</v>
+        <v>1239</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
@@ -1807,13 +1779,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
       </c>
       <c r="C69" s="1">
-        <v>0</v>
+        <v>-64665</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -1821,13 +1793,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
       </c>
       <c r="C70" s="1">
-        <v>-146</v>
+        <v>-16</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -1835,13 +1807,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
       </c>
       <c r="C71" s="1">
-        <v>392</v>
+        <v>940</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
@@ -1849,13 +1821,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B72" s="1">
-        <v>2120</v>
+        <v>0</v>
       </c>
       <c r="C72" s="1">
-        <v>0</v>
+        <v>-146</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
@@ -1863,13 +1835,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
       </c>
       <c r="C73" s="1">
-        <v>-12813</v>
+        <v>48</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1877,10 +1849,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B74" s="1">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
@@ -1891,13 +1863,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="1">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C75" s="1">
-        <v>0</v>
+        <v>-12813</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -1905,13 +1877,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
       </c>
       <c r="C76" s="1">
-        <v>-13030</v>
+        <v>-22000</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -1919,13 +1891,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B77" s="1">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C77" s="1">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -1933,13 +1905,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
       </c>
       <c r="C78" s="1">
-        <v>-4840</v>
+        <v>-3680</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -1947,13 +1919,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="B79" s="1">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1">
-        <v>0</v>
+        <v>-133</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -1961,13 +1933,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B80" s="1">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="C80" s="1">
-        <v>0</v>
+        <v>-2853</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
@@ -1975,13 +1947,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="B81" s="1">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="C81" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
@@ -1989,27 +1961,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B82" s="1">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="C82" s="1">
-        <v>1673</v>
+        <v>0</v>
       </c>
       <c r="D82" s="1">
-        <v>-590</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
       </c>
       <c r="C83" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
@@ -2017,13 +1989,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
       </c>
       <c r="C84" s="1">
-        <v>-312</v>
+        <v>3036</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
@@ -2031,13 +2003,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B85" s="1">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1">
-        <v>-200</v>
+        <v>-1502</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
@@ -2045,13 +2017,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
       </c>
       <c r="C86" s="1">
-        <v>8118</v>
+        <v>-312</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
@@ -2059,13 +2031,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B87" s="1">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="C87" s="1">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
@@ -2073,13 +2045,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
       </c>
       <c r="C88" s="1">
-        <v>0</v>
+        <v>8118</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
@@ -2087,61 +2059,61 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
       </c>
       <c r="C89" s="1">
-        <v>-208</v>
+        <v>-6533</v>
       </c>
       <c r="D89" s="1">
-        <v>-358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B90" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="C90" s="1">
-        <v>-12662</v>
+        <v>0</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B91" s="1">
         <v>0</v>
       </c>
       <c r="C91" s="1">
-        <v>0</v>
+        <v>-208</v>
       </c>
       <c r="D91" s="1">
-        <v>0</v>
+        <v>-358</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B92" s="1">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1">
-        <v>0</v>
+        <v>-12662</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="B93" s="1">
         <v>0</v>
       </c>
@@ -2154,10 +2126,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B94" s="1">
-        <v>-7</v>
+        <v>200</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -2168,13 +2140,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B95" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C95" s="1">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
@@ -2182,10 +2154,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B96" s="1">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="C96" s="1">
         <v>0</v>
@@ -2196,13 +2168,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
       </c>
       <c r="C97" s="1">
-        <v>-350</v>
+        <v>-21</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
@@ -2210,27 +2182,27 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
       </c>
       <c r="C98" s="1">
-        <v>0</v>
+        <v>-9944</v>
       </c>
       <c r="D98" s="1">
-        <v>-105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
       </c>
       <c r="C99" s="1">
-        <v>-100</v>
+        <v>-250</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
@@ -2238,13 +2210,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>
       </c>
       <c r="C100" s="1">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -2252,13 +2224,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
       </c>
       <c r="C101" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D101" s="1">
         <v>0</v>
@@ -2266,10 +2238,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="B102" s="1">
-        <v>-115</v>
+        <v>0</v>
       </c>
       <c r="C102" s="1">
         <v>0</v>
@@ -2280,13 +2252,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="B103" s="1">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="C103" s="1">
-        <v>0</v>
+        <v>-883</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -2294,13 +2266,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B104" s="1">
-        <v>0</v>
+        <v>-222</v>
       </c>
       <c r="C104" s="1">
-        <v>-3599</v>
+        <v>0</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
@@ -2308,13 +2280,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B105" s="1">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C105" s="1">
-        <v>-12985</v>
+        <v>0</v>
       </c>
       <c r="D105" s="1">
         <v>0</v>
@@ -2322,13 +2294,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B106" s="1">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C106" s="1">
-        <v>-300</v>
+        <v>-11394</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
@@ -2336,13 +2308,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
       </c>
       <c r="C107" s="1">
-        <v>-6000</v>
+        <v>11478</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
@@ -2350,10 +2322,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B108" s="1">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="C108" s="1">
         <v>-300</v>
@@ -2364,27 +2336,27 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
       </c>
       <c r="C109" s="1">
-        <v>-250</v>
+        <v>-670</v>
       </c>
       <c r="D109" s="1">
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
       </c>
       <c r="C110" s="1">
-        <v>-10</v>
+        <v>-300</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
@@ -2392,13 +2364,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B111" s="1">
         <v>0</v>
       </c>
       <c r="C111" s="1">
-        <v>-327</v>
+        <v>7303</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
@@ -2406,13 +2378,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B112" s="1">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="C112" s="1">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
@@ -2420,13 +2392,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="B113" s="1">
         <v>0</v>
       </c>
       <c r="C113" s="1">
-        <v>-100</v>
+        <v>-1100</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
@@ -2434,13 +2406,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B114" s="1">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C114" s="1">
-        <v>-27312</v>
+        <v>0</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
@@ -2448,13 +2420,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B115" s="1">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="C115" s="1">
-        <v>0</v>
+        <v>-41904</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
@@ -2462,13 +2434,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B116" s="1">
-        <v>2340</v>
+        <v>0</v>
       </c>
       <c r="C116" s="1">
-        <v>-7</v>
+        <v>-21823</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
@@ -2476,13 +2448,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B117" s="1">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="C117" s="1">
-        <v>-3597</v>
+        <v>0</v>
       </c>
       <c r="D117" s="1">
         <v>0</v>
@@ -2490,13 +2462,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B118" s="1">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="C118" s="1">
-        <v>-7682</v>
+        <v>-7</v>
       </c>
       <c r="D118" s="1">
         <v>0</v>
@@ -2504,13 +2476,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B119" s="1">
-        <v>-245</v>
+        <v>0</v>
       </c>
       <c r="C119" s="1">
-        <v>-1113</v>
+        <v>200</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
@@ -2518,13 +2490,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B120" s="1">
-        <v>-300</v>
+        <v>23800</v>
       </c>
       <c r="C120" s="1">
-        <v>-26</v>
+        <v>-7682</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
@@ -2532,13 +2504,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B121" s="1">
-        <v>0</v>
+        <v>-1845</v>
       </c>
       <c r="C121" s="1">
-        <v>-15000</v>
+        <v>-6288</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
@@ -2546,13 +2518,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B122" s="1">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C122" s="1">
-        <v>-508</v>
+        <v>-106</v>
       </c>
       <c r="D122" s="1">
         <v>0</v>
@@ -2560,13 +2532,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B123" s="1">
-        <v>-1430</v>
+        <v>0</v>
       </c>
       <c r="C123" s="1">
-        <v>-2880</v>
+        <v>-15000</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
@@ -2574,13 +2546,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B124" s="1">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="C124" s="1">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="D124" s="1">
         <v>0</v>
@@ -2588,10 +2560,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B125" s="1">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C125" s="1">
         <v>0</v>
@@ -2602,13 +2574,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B126" s="1">
         <v>0</v>
       </c>
       <c r="C126" s="1">
-        <v>-108</v>
+        <v>548</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
@@ -2616,13 +2588,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B127" s="1">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="C127" s="1">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
@@ -2630,13 +2602,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B128" s="1">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C128" s="1">
-        <v>0</v>
+        <v>-108</v>
       </c>
       <c r="D128" s="1">
         <v>0</v>
@@ -2644,13 +2616,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
       </c>
       <c r="C129" s="1">
-        <v>-128</v>
+        <v>9515</v>
       </c>
       <c r="D129" s="1">
         <v>0</v>
@@ -2658,13 +2630,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B130" s="1">
         <v>0</v>
       </c>
       <c r="C130" s="1">
-        <v>-23000</v>
+        <v>-200</v>
       </c>
       <c r="D130" s="1">
         <v>0</v>
@@ -2672,13 +2644,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131" s="1">
         <v>0</v>
       </c>
       <c r="C131" s="1">
-        <v>-3000</v>
+        <v>-700</v>
       </c>
       <c r="D131" s="1">
         <v>0</v>
@@ -2686,13 +2658,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B132" s="1">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="C132" s="1">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="D132" s="1">
         <v>0</v>
@@ -2700,13 +2672,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="B133" s="1">
         <v>0</v>
       </c>
       <c r="C133" s="1">
-        <v>-1478</v>
+        <v>26</v>
       </c>
       <c r="D133" s="1">
         <v>0</v>
@@ -2714,13 +2686,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B134" s="1">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C134" s="1">
-        <v>-670</v>
+        <v>0</v>
       </c>
       <c r="D134" s="1">
         <v>0</v>
@@ -2728,30 +2697,22 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B135" s="1">
-        <v>0</v>
-      </c>
-      <c r="C135" s="1">
-        <v>60620</v>
-      </c>
-      <c r="D135" s="1">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B136" s="1">
-        <v>-1050</v>
-      </c>
-      <c r="C136" s="1">
-        <v>0</v>
-      </c>
-      <c r="D136" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>الشيكل</t>
   </si>
@@ -179,9 +179,6 @@
     <t>مطيع مشتهى ابورامي</t>
   </si>
   <si>
-    <t>محمد حميد</t>
-  </si>
-  <si>
     <t>باسم صافي</t>
   </si>
   <si>
@@ -254,9 +251,6 @@
     <t>ابوالحسن دغمش</t>
   </si>
   <si>
-    <t>عبد الهادي القصاص</t>
-  </si>
-  <si>
     <t>طيبه</t>
   </si>
   <si>
@@ -299,9 +293,6 @@
     <t>تيودور شحاده</t>
   </si>
   <si>
-    <t>دبي الدن</t>
-  </si>
-  <si>
     <t>الدانا</t>
   </si>
   <si>
@@ -323,9 +314,6 @@
     <t>مهند ابوخضير</t>
   </si>
   <si>
-    <t>حكيم خلف</t>
-  </si>
-  <si>
     <t>موني جرام</t>
   </si>
   <si>
@@ -335,9 +323,6 @@
     <t>ابوعلاء ابوسمهدانه</t>
   </si>
   <si>
-    <t>ريم ابوسيدو</t>
-  </si>
-  <si>
     <t>الجرجاوي ابويامن</t>
   </si>
   <si>
@@ -350,12 +335,6 @@
     <t xml:space="preserve">تامين سلطة النقد سمير حرزالله </t>
   </si>
   <si>
-    <t>باي كاش</t>
-  </si>
-  <si>
-    <t>فراس ابوكميل</t>
-  </si>
-  <si>
     <t>خالد جراده</t>
   </si>
   <si>
@@ -371,60 +350,30 @@
     <t>ابومدلله سمارت فون</t>
   </si>
   <si>
-    <t>العبادله 2</t>
-  </si>
-  <si>
     <t>علاء المشهراوي</t>
   </si>
   <si>
-    <t>ابوانس سكيك</t>
-  </si>
-  <si>
-    <t>محمد الزين دليس</t>
-  </si>
-  <si>
     <t>عمار ابوضاهر</t>
   </si>
   <si>
     <t>صندوق واحد صندوق كــــاظــــم 1 كـاظم</t>
   </si>
   <si>
-    <t>نور مشتهى</t>
-  </si>
-  <si>
-    <t>حازم مصبح</t>
-  </si>
-  <si>
     <t>صامد الشريف</t>
   </si>
   <si>
-    <t>هادي ابومعروف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حازم مشتهى </t>
-  </si>
-  <si>
     <t>سمير فتحي ساق الله</t>
   </si>
   <si>
     <t>ابواسعد حموده</t>
   </si>
   <si>
-    <t>ابوالمجد ابوعقلين</t>
-  </si>
-  <si>
     <t>احمد جوال بي</t>
   </si>
   <si>
     <t>ابودرويش</t>
   </si>
   <si>
-    <t>اكرم وادي</t>
-  </si>
-  <si>
-    <t>إبراهيم الطويل</t>
-  </si>
-  <si>
     <t>احمد خليل</t>
   </si>
   <si>
@@ -437,7 +386,40 @@
     <t>مصطفى بشير</t>
   </si>
   <si>
-    <t>محمد شيك</t>
+    <t>ام العبد الترتوري 2</t>
+  </si>
+  <si>
+    <t>عبد اللطيف عبيد</t>
+  </si>
+  <si>
+    <t>سعدو خلف</t>
+  </si>
+  <si>
+    <t>محمد شعت</t>
+  </si>
+  <si>
+    <t>ابوضياء الخالدي</t>
+  </si>
+  <si>
+    <t>فراس دير البلح</t>
+  </si>
+  <si>
+    <t>اميره الواديه</t>
+  </si>
+  <si>
+    <t>شادي ابوحصيره</t>
+  </si>
+  <si>
+    <t>حسن العبادله</t>
+  </si>
+  <si>
+    <t>الدكتور القيشاوي</t>
+  </si>
+  <si>
+    <t>محمد الخزندار</t>
+  </si>
+  <si>
+    <t>حميد</t>
   </si>
 </sst>
 </file>
@@ -833,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A117" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -869,7 +851,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -939,7 +921,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1">
         <v>-1050</v>
@@ -1233,7 +1215,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B30" s="1">
         <v>-300</v>
@@ -1345,7 +1327,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -1359,7 +1341,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -1471,7 +1453,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B47" s="1">
         <v>-95</v>
@@ -1541,7 +1523,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -1597,7 +1579,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -1611,7 +1593,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="1">
         <v>-14</v>
@@ -1625,7 +1607,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -1639,7 +1621,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -1653,7 +1635,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" s="1">
         <v>-625</v>
@@ -1667,7 +1649,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -1681,7 +1663,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -1695,7 +1677,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" s="1">
         <v>4420</v>
@@ -1709,7 +1691,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" s="1">
         <v>-389</v>
@@ -1723,7 +1705,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -1737,7 +1719,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -1751,7 +1733,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -1765,7 +1747,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B68" s="1">
         <v>20</v>
@@ -1779,7 +1761,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -1793,7 +1775,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -1807,7 +1789,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
@@ -1821,7 +1803,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -1835,7 +1817,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
@@ -1849,7 +1831,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B74" s="1">
         <v>1170</v>
@@ -1863,7 +1845,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
@@ -1877,7 +1859,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
@@ -1891,7 +1873,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" s="1">
         <v>-200</v>
@@ -1905,7 +1887,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -1919,7 +1901,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B79" s="1">
         <v>0</v>
@@ -1933,7 +1915,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -1947,7 +1929,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B81" s="1">
         <v>-150</v>
@@ -1961,7 +1943,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B82" s="1">
         <v>1620</v>
@@ -1975,7 +1957,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -1989,7 +1971,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -2003,7 +1985,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -2017,7 +1999,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -2031,7 +2013,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B87" s="1">
         <v>-95</v>
@@ -2045,7 +2027,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -2059,7 +2041,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -2073,7 +2055,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B90" s="1">
         <v>1800</v>
@@ -2087,7 +2069,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -2101,7 +2083,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -2126,7 +2108,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B94" s="1">
         <v>200</v>
@@ -2140,7 +2122,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B95" s="1">
         <v>3000</v>
@@ -2154,7 +2136,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B96" s="1">
         <v>-7</v>
@@ -2168,7 +2150,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
@@ -2182,7 +2164,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
@@ -2196,7 +2178,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
@@ -2210,7 +2192,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>
@@ -2224,7 +2206,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
@@ -2237,9 +2219,6 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="B102" s="1">
         <v>0</v>
       </c>
@@ -2252,7 +2231,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B103" s="1">
         <v>0</v>
@@ -2266,7 +2245,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B104" s="1">
         <v>-222</v>
@@ -2280,7 +2259,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B105" s="1">
         <v>-50</v>
@@ -2294,7 +2273,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B106" s="1">
         <v>0</v>
@@ -2308,7 +2287,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
@@ -2322,7 +2301,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B108" s="1">
         <v>245</v>
@@ -2336,7 +2315,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
@@ -2350,7 +2329,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
@@ -2364,7 +2343,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B111" s="1">
         <v>0</v>
@@ -2378,7 +2357,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B112" s="1">
         <v>0</v>
@@ -2392,7 +2371,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B113" s="1">
         <v>0</v>
@@ -2406,7 +2385,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B114" s="1">
         <v>401</v>
@@ -2420,7 +2399,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B115" s="1">
         <v>0</v>
@@ -2434,7 +2413,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B116" s="1">
         <v>0</v>
@@ -2448,7 +2427,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B117" s="1">
         <v>-800</v>
@@ -2462,7 +2441,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B118" s="1">
         <v>0</v>
@@ -2476,7 +2455,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
@@ -2490,7 +2469,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B120" s="1">
         <v>23800</v>
@@ -2504,7 +2483,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B121" s="1">
         <v>-1845</v>
@@ -2518,7 +2497,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B122" s="1">
         <v>-300</v>
@@ -2532,7 +2511,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B123" s="1">
         <v>0</v>
@@ -2546,7 +2525,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B124" s="1">
         <v>0</v>
@@ -2560,7 +2539,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B125" s="1">
         <v>0</v>
@@ -2574,7 +2553,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B126" s="1">
         <v>0</v>
@@ -2588,7 +2567,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B127" s="1">
         <v>-800</v>
@@ -2602,7 +2581,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B128" s="1">
         <v>0</v>
@@ -2616,7 +2595,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
@@ -2630,7 +2609,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B130" s="1">
         <v>0</v>
@@ -2644,7 +2623,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B131" s="1">
         <v>0</v>
@@ -2658,7 +2637,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B132" s="1">
         <v>0</v>
@@ -2672,7 +2651,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B133" s="1">
         <v>0</v>
@@ -2682,37 +2661,6 @@
       </c>
       <c r="D133" s="1">
         <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C134" s="1">
-        <v>0</v>
-      </c>
-      <c r="D134" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>الشيكل</t>
   </si>
@@ -38,9 +38,6 @@
     <t>الريال</t>
   </si>
   <si>
-    <t>مالك الرنتيسي</t>
-  </si>
-  <si>
     <t>ابومفيد</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
     <t>عمار ابوضاهر</t>
   </si>
   <si>
-    <t>صندوق واحد صندوق كــــاظــــم 1 كـاظم</t>
-  </si>
-  <si>
     <t>صامد الشريف</t>
   </si>
   <si>
@@ -407,9 +401,6 @@
     <t>اميره الواديه</t>
   </si>
   <si>
-    <t>شادي ابوحصيره</t>
-  </si>
-  <si>
     <t>حسن العبادله</t>
   </si>
   <si>
@@ -419,7 +410,22 @@
     <t>محمد الخزندار</t>
   </si>
   <si>
-    <t>حميد</t>
+    <t>صندوق 1 صندوق واحد صندوق كاظم كـــــــــــــاظــــــــم</t>
+  </si>
+  <si>
+    <t>مالك ابومعروف</t>
+  </si>
+  <si>
+    <t>ام عماد الترك</t>
+  </si>
+  <si>
+    <t>ميار دلول</t>
+  </si>
+  <si>
+    <t>ريم ابوسيدو</t>
+  </si>
+  <si>
+    <t>محمد ابوفول</t>
   </si>
 </sst>
 </file>
@@ -815,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A117" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A121" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -851,13 +857,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>259891</v>
+        <v>279860</v>
       </c>
       <c r="D4" s="1">
         <v>10621</v>
@@ -865,10 +871,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>-3086</v>
+        <v>-4500</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -879,7 +885,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -893,13 +899,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -907,13 +913,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>3353</v>
+        <v>2811</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -921,7 +927,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1">
         <v>-1050</v>
@@ -935,7 +941,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -949,7 +955,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -963,13 +969,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>-18</v>
+        <v>579</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -977,7 +983,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -991,7 +997,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -1005,7 +1011,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -1019,7 +1025,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -1033,7 +1039,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>-970</v>
@@ -1047,7 +1053,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>-40</v>
@@ -1061,13 +1067,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>-1680</v>
+        <v>-1310</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>-1004</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1075,7 +1081,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -1089,13 +1095,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>-470</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>2894</v>
+        <v>7823</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1103,7 +1109,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>-160</v>
@@ -1117,7 +1123,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -1131,7 +1137,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -1145,7 +1151,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -1159,7 +1165,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>800</v>
@@ -1173,7 +1179,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -1187,7 +1193,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -1201,7 +1207,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -1215,7 +1221,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="1">
         <v>-300</v>
@@ -1229,7 +1235,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -1243,7 +1249,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>-610</v>
@@ -1257,7 +1263,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -1271,7 +1277,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1">
         <v>-5600</v>
@@ -1285,13 +1291,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1">
         <v>2114</v>
       </c>
       <c r="C35" s="1">
-        <v>-3641</v>
+        <v>-6364</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -1299,7 +1305,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1">
         <v>-15</v>
@@ -1313,7 +1319,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -1327,7 +1333,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -1341,13 +1347,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
       </c>
       <c r="C39" s="1">
-        <v>2793</v>
+        <v>2376</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -1355,7 +1361,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>-20</v>
@@ -1369,13 +1375,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>-270</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -1383,7 +1389,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1">
         <v>5475</v>
@@ -1397,13 +1403,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
       </c>
       <c r="C43" s="1">
-        <v>-4527</v>
+        <v>-3934</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -1411,7 +1417,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -1425,7 +1431,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1">
         <v>300</v>
@@ -1439,7 +1445,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -1453,7 +1459,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47" s="1">
         <v>-95</v>
@@ -1467,7 +1473,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -1481,7 +1487,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -1495,7 +1501,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1">
         <v>300</v>
@@ -1509,7 +1515,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="1">
         <v>-74</v>
@@ -1523,7 +1529,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -1537,7 +1543,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -1551,7 +1557,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="1">
         <v>-250</v>
@@ -1565,21 +1571,21 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
       </c>
       <c r="C55" s="1">
-        <v>-26431</v>
+        <v>-18991</v>
       </c>
       <c r="D55" s="1">
-        <v>-6714</v>
+        <v>-7549</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -1593,7 +1599,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="1">
         <v>-14</v>
@@ -1607,7 +1613,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -1621,7 +1627,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -1635,7 +1641,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="1">
         <v>-625</v>
@@ -1649,13 +1655,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
       </c>
       <c r="C61" s="1">
-        <v>-1569</v>
+        <v>-18143</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -1663,7 +1669,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -1677,10 +1683,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B63" s="1">
-        <v>4420</v>
+        <v>4707</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
@@ -1691,7 +1697,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" s="1">
         <v>-389</v>
@@ -1705,7 +1711,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -1719,7 +1725,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -1733,7 +1739,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -1747,13 +1753,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B68" s="1">
         <v>20</v>
       </c>
       <c r="C68" s="1">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
@@ -1761,13 +1767,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
       </c>
       <c r="C69" s="1">
-        <v>-64665</v>
+        <v>-38529</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -1775,7 +1781,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -1789,13 +1795,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
       </c>
       <c r="C71" s="1">
-        <v>940</v>
+        <v>1285</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
@@ -1803,7 +1809,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -1817,13 +1823,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
       </c>
       <c r="C73" s="1">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1831,7 +1837,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B74" s="1">
         <v>1170</v>
@@ -1845,7 +1851,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
@@ -1859,7 +1865,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
@@ -1873,7 +1879,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B77" s="1">
         <v>-200</v>
@@ -1887,13 +1893,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
       </c>
       <c r="C78" s="1">
-        <v>-3680</v>
+        <v>-3302</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -1901,7 +1907,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79" s="1">
         <v>0</v>
@@ -1915,7 +1921,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -1929,7 +1935,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B81" s="1">
         <v>-150</v>
@@ -1943,7 +1949,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B82" s="1">
         <v>1620</v>
@@ -1957,7 +1963,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -1971,13 +1977,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
       </c>
       <c r="C84" s="1">
-        <v>3036</v>
+        <v>-2211</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
@@ -1985,7 +1991,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -1999,7 +2005,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -2013,7 +2019,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B87" s="1">
         <v>-95</v>
@@ -2027,7 +2033,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -2041,13 +2047,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
       </c>
       <c r="C89" s="1">
-        <v>-6533</v>
+        <v>-4937</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
@@ -2055,7 +2061,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B90" s="1">
         <v>1800</v>
@@ -2069,7 +2075,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -2083,7 +2089,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -2108,7 +2114,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B94" s="1">
         <v>200</v>
@@ -2122,10 +2128,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B95" s="1">
-        <v>3000</v>
+        <v>2850</v>
       </c>
       <c r="C95" s="1">
         <v>0</v>
@@ -2136,7 +2142,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B96" s="1">
         <v>-7</v>
@@ -2150,7 +2156,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
@@ -2164,13 +2170,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
       </c>
       <c r="C98" s="1">
-        <v>-9944</v>
+        <v>-7249</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
@@ -2178,7 +2184,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
@@ -2192,7 +2198,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>
@@ -2206,7 +2212,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
@@ -2219,8 +2225,11 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="B102" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C102" s="1">
         <v>0</v>
@@ -2231,7 +2240,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B103" s="1">
         <v>0</v>
@@ -2245,10 +2254,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B104" s="1">
-        <v>-222</v>
+        <v>-87</v>
       </c>
       <c r="C104" s="1">
         <v>0</v>
@@ -2259,7 +2268,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B105" s="1">
         <v>-50</v>
@@ -2273,13 +2282,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B106" s="1">
         <v>0</v>
       </c>
       <c r="C106" s="1">
-        <v>-11394</v>
+        <v>-5407</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
@@ -2287,13 +2296,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
       </c>
       <c r="C107" s="1">
-        <v>11478</v>
+        <v>-35989</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
@@ -2301,7 +2310,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B108" s="1">
         <v>245</v>
@@ -2315,7 +2324,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
@@ -2329,7 +2338,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
@@ -2343,13 +2352,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B111" s="1">
         <v>0</v>
       </c>
       <c r="C111" s="1">
-        <v>7303</v>
+        <v>15248</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
@@ -2357,7 +2366,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B112" s="1">
         <v>0</v>
@@ -2371,7 +2380,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113" s="1">
         <v>0</v>
@@ -2385,7 +2394,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B114" s="1">
         <v>401</v>
@@ -2399,13 +2408,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B115" s="1">
         <v>0</v>
       </c>
       <c r="C115" s="1">
-        <v>-41904</v>
+        <v>-6904</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
@@ -2413,13 +2422,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B116" s="1">
         <v>0</v>
       </c>
       <c r="C116" s="1">
-        <v>-21823</v>
+        <v>-15650</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
@@ -2427,7 +2436,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B117" s="1">
         <v>-800</v>
@@ -2441,10 +2450,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B118" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C118" s="1">
         <v>-7</v>
@@ -2455,7 +2464,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
@@ -2469,7 +2478,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B120" s="1">
         <v>23800</v>
@@ -2483,13 +2492,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B121" s="1">
         <v>-1845</v>
       </c>
       <c r="C121" s="1">
-        <v>-6288</v>
+        <v>-6888</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
@@ -2497,7 +2506,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B122" s="1">
         <v>-300</v>
@@ -2511,7 +2520,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B123" s="1">
         <v>0</v>
@@ -2525,7 +2534,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B124" s="1">
         <v>0</v>
@@ -2539,13 +2548,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B125" s="1">
         <v>0</v>
       </c>
       <c r="C125" s="1">
-        <v>0</v>
+        <v>-1495</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
@@ -2553,13 +2562,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B126" s="1">
         <v>0</v>
       </c>
       <c r="C126" s="1">
-        <v>548</v>
+        <v>0</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
@@ -2567,7 +2576,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B127" s="1">
         <v>-800</v>
@@ -2581,7 +2590,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B128" s="1">
         <v>0</v>
@@ -2595,13 +2604,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
       </c>
       <c r="C129" s="1">
-        <v>9515</v>
+        <v>8214</v>
       </c>
       <c r="D129" s="1">
         <v>0</v>
@@ -2609,7 +2618,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B130" s="1">
         <v>0</v>
@@ -2623,7 +2632,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B131" s="1">
         <v>0</v>
@@ -2637,7 +2646,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B132" s="1">
         <v>0</v>
@@ -2651,15 +2660,29 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" s="1">
         <v>0</v>
       </c>
       <c r="C133" s="1">
-        <v>26</v>
+        <v>-1000</v>
       </c>
       <c r="D133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" s="1">
+        <v>-150</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1">
         <v>0</v>
       </c>
     </row>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>الشيكل</t>
   </si>
@@ -236,9 +236,6 @@
     <t>ناجي الخضري</t>
   </si>
   <si>
-    <t>محمود سكيك ميلاد</t>
-  </si>
-  <si>
     <t>محمد مفيد تامين عماره</t>
   </si>
   <si>
@@ -350,9 +347,6 @@
     <t>علاء المشهراوي</t>
   </si>
   <si>
-    <t>عمار ابوضاهر</t>
-  </si>
-  <si>
     <t>صامد الشريف</t>
   </si>
   <si>
@@ -371,9 +365,6 @@
     <t>احمد خليل</t>
   </si>
   <si>
-    <t>خالد محمود</t>
-  </si>
-  <si>
     <t>ام محمود مهنا</t>
   </si>
   <si>
@@ -383,12 +374,6 @@
     <t>ام العبد الترتوري 2</t>
   </si>
   <si>
-    <t>عبد اللطيف عبيد</t>
-  </si>
-  <si>
-    <t>سعدو خلف</t>
-  </si>
-  <si>
     <t>محمد شعت</t>
   </si>
   <si>
@@ -404,9 +389,6 @@
     <t>حسن العبادله</t>
   </si>
   <si>
-    <t>الدكتور القيشاوي</t>
-  </si>
-  <si>
     <t>محمد الخزندار</t>
   </si>
   <si>
@@ -419,13 +401,25 @@
     <t>ام عماد الترك</t>
   </si>
   <si>
-    <t>ميار دلول</t>
-  </si>
-  <si>
     <t>ريم ابوسيدو</t>
   </si>
   <si>
     <t>محمد ابوفول</t>
+  </si>
+  <si>
+    <t>شادي ابوحصيره</t>
+  </si>
+  <si>
+    <t>محمد حميد</t>
+  </si>
+  <si>
+    <t>شيفت نادر بدير</t>
+  </si>
+  <si>
+    <t>تشطيب الدور الأرضي</t>
+  </si>
+  <si>
+    <t>موئل احمد</t>
   </si>
 </sst>
 </file>
@@ -437,7 +431,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;₪&quot;\ * #,##0.00_-;_-&quot;₪&quot;\ * #,##0.00\-;_-&quot;₪&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +451,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -501,7 +503,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -823,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A121" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -857,16 +859,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>279860</v>
+        <v>155073</v>
       </c>
       <c r="D4" s="1">
-        <v>10621</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -874,10 +876,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>-4500</v>
+        <v>-7040</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D5" s="1">
         <v>-40</v>
@@ -902,13 +904,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>-4363</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -919,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>2811</v>
+        <v>-214</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -927,10 +929,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1">
-        <v>-1050</v>
+        <v>-250</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1003,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>-1013</v>
+        <v>19841</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1070,10 +1072,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>-1310</v>
+        <v>-1410</v>
       </c>
       <c r="C19" s="1">
-        <v>-1004</v>
+        <v>-920</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1098,10 +1100,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>-835</v>
       </c>
       <c r="C21" s="1">
-        <v>7823</v>
+        <v>6073</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1221,7 +1223,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="1">
         <v>-300</v>
@@ -1294,10 +1296,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>2114</v>
+        <v>3017</v>
       </c>
       <c r="C35" s="1">
-        <v>-6364</v>
+        <v>-6464</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -1332,9 +1334,6 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="B38" s="1">
         <v>0</v>
       </c>
@@ -1347,13 +1346,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
       </c>
       <c r="C39" s="1">
-        <v>2376</v>
+        <v>2189</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -1375,13 +1374,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
       </c>
       <c r="C41" s="1">
-        <v>-270</v>
+        <v>-770</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -1406,10 +1405,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C43" s="1">
-        <v>-3934</v>
+        <v>-3790</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -1420,7 +1419,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -1459,7 +1458,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B47" s="1">
         <v>-95</v>
@@ -1529,7 +1528,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -1577,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="C55" s="1">
-        <v>-18991</v>
+        <v>-7071</v>
       </c>
       <c r="D55" s="1">
-        <v>-7549</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1591,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -1613,13 +1612,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
       </c>
       <c r="C58" s="1">
-        <v>-548</v>
+        <v>0</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -1658,10 +1657,10 @@
         <v>54</v>
       </c>
       <c r="B61" s="1">
-        <v>0</v>
+        <v>5570</v>
       </c>
       <c r="C61" s="1">
-        <v>-18143</v>
+        <v>-17329</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -1686,7 +1685,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="1">
-        <v>4707</v>
+        <v>10287</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
@@ -1714,13 +1713,13 @@
         <v>58</v>
       </c>
       <c r="B65" s="1">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="C65" s="1">
         <v>500</v>
       </c>
       <c r="D65" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1739,7 +1738,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -1759,7 +1758,7 @@
         <v>20</v>
       </c>
       <c r="C68" s="1">
-        <v>1242</v>
+        <v>1260</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
@@ -1773,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="1">
-        <v>-38529</v>
+        <v>-3580</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -1801,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="1">
-        <v>1285</v>
+        <v>5467</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
@@ -1829,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1840,7 +1839,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="1">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
@@ -1865,7 +1864,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
@@ -1899,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="1">
-        <v>-3302</v>
+        <v>-7535</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -1921,13 +1920,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
       </c>
       <c r="C80" s="1">
-        <v>-2853</v>
+        <v>-400</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
@@ -1935,7 +1934,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B81" s="1">
         <v>-150</v>
@@ -1949,7 +1948,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B82" s="1">
         <v>1620</v>
@@ -1963,7 +1962,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -1977,13 +1976,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
       </c>
       <c r="C84" s="1">
-        <v>-2211</v>
+        <v>-2137</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
@@ -1991,7 +1990,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -2005,13 +2004,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
       </c>
       <c r="C86" s="1">
-        <v>-312</v>
+        <v>-80</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
@@ -2019,7 +2018,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B87" s="1">
         <v>-95</v>
@@ -2033,7 +2032,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -2053,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="1">
-        <v>-4937</v>
+        <v>2472</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
@@ -2061,10 +2060,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B90" s="1">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="C90" s="1">
         <v>0</v>
@@ -2075,21 +2074,21 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
       </c>
       <c r="C91" s="1">
-        <v>-208</v>
+        <v>-714</v>
       </c>
       <c r="D91" s="1">
-        <v>-358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -2114,10 +2113,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B94" s="1">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -2128,7 +2127,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B95" s="1">
         <v>2850</v>
@@ -2142,7 +2141,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B96" s="1">
         <v>-7</v>
@@ -2156,7 +2155,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
@@ -2170,13 +2169,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
       </c>
       <c r="C98" s="1">
-        <v>-7249</v>
+        <v>-3307</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
@@ -2184,7 +2183,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
@@ -2198,7 +2197,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>
@@ -2212,7 +2211,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
@@ -2225,11 +2224,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="B102" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C102" s="1">
         <v>0</v>
@@ -2240,13 +2236,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103" s="1">
         <v>0</v>
       </c>
       <c r="C103" s="1">
-        <v>-883</v>
+        <v>-916</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -2254,10 +2250,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B104" s="1">
-        <v>-87</v>
+        <v>-77</v>
       </c>
       <c r="C104" s="1">
         <v>0</v>
@@ -2268,7 +2264,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B105" s="1">
         <v>-50</v>
@@ -2282,13 +2278,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B106" s="1">
         <v>0</v>
       </c>
       <c r="C106" s="1">
-        <v>-5407</v>
+        <v>5656</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
@@ -2296,13 +2292,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
       </c>
       <c r="C107" s="1">
-        <v>-35989</v>
+        <v>-19746</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
@@ -2310,7 +2306,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B108" s="1">
         <v>245</v>
@@ -2324,13 +2320,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
       </c>
       <c r="C109" s="1">
-        <v>-670</v>
+        <v>-1760</v>
       </c>
       <c r="D109" s="1">
         <v>-15</v>
@@ -2338,7 +2334,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
@@ -2352,13 +2348,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B111" s="1">
         <v>0</v>
       </c>
       <c r="C111" s="1">
-        <v>15248</v>
+        <v>15338</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
@@ -2366,7 +2362,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B112" s="1">
         <v>0</v>
@@ -2380,13 +2376,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B113" s="1">
         <v>0</v>
       </c>
       <c r="C113" s="1">
-        <v>-1100</v>
+        <v>1070</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
@@ -2394,10 +2390,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B114" s="1">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="C114" s="1">
         <v>0</v>
@@ -2408,13 +2404,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B115" s="1">
         <v>0</v>
       </c>
       <c r="C115" s="1">
-        <v>-6904</v>
+        <v>-7000</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
@@ -2422,13 +2418,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B116" s="1">
         <v>0</v>
       </c>
       <c r="C116" s="1">
-        <v>-15650</v>
+        <v>-41838</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
@@ -2436,7 +2432,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B117" s="1">
         <v>-800</v>
@@ -2450,7 +2446,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B118" s="1">
         <v>300</v>
@@ -2464,7 +2460,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
@@ -2478,7 +2474,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B120" s="1">
         <v>23800</v>
@@ -2492,13 +2488,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B121" s="1">
-        <v>-1845</v>
+        <v>-4032</v>
       </c>
       <c r="C121" s="1">
-        <v>-6888</v>
+        <v>30</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
@@ -2506,13 +2502,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B122" s="1">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="C122" s="1">
-        <v>-106</v>
+        <v>-66</v>
       </c>
       <c r="D122" s="1">
         <v>0</v>
@@ -2520,7 +2516,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B123" s="1">
         <v>0</v>
@@ -2534,13 +2530,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B124" s="1">
         <v>0</v>
       </c>
       <c r="C124" s="1">
-        <v>5900</v>
+        <v>2200</v>
       </c>
       <c r="D124" s="1">
         <v>0</v>
@@ -2548,13 +2544,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B125" s="1">
         <v>0</v>
       </c>
       <c r="C125" s="1">
-        <v>-1495</v>
+        <v>542</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
@@ -2562,7 +2558,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B126" s="1">
         <v>0</v>
@@ -2576,7 +2572,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B127" s="1">
         <v>-800</v>
@@ -2590,7 +2586,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B128" s="1">
         <v>0</v>
@@ -2604,7 +2600,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
@@ -2618,13 +2614,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B130" s="1">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="C130" s="1">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D130" s="1">
         <v>0</v>
@@ -2632,13 +2628,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B131" s="1">
         <v>0</v>
       </c>
       <c r="C131" s="1">
-        <v>-700</v>
+        <v>8500</v>
       </c>
       <c r="D131" s="1">
         <v>0</v>
@@ -2646,7 +2642,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B132" s="1">
         <v>0</v>
@@ -2660,7 +2656,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B133" s="1">
         <v>0</v>
@@ -2674,7 +2670,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B134" s="1">
         <v>-150</v>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>الشيكل</t>
   </si>
@@ -283,9 +283,6 @@
     <t>حمدي الريفي ابومحمد</t>
   </si>
   <si>
-    <t>مهند ابوخضير</t>
-  </si>
-  <si>
     <t>موني جرام</t>
   </si>
   <si>
@@ -328,18 +325,12 @@
     <t>احمد بارود جينيف</t>
   </si>
   <si>
-    <t>محمد رفعت مشتهى</t>
-  </si>
-  <si>
     <t>خدمات العماره سفن ستار</t>
   </si>
   <si>
     <t>طيبه</t>
   </si>
   <si>
-    <t>محمد فوره</t>
-  </si>
-  <si>
     <t>علاء المشهراوي</t>
   </si>
   <si>
@@ -379,9 +370,6 @@
     <t>اميره الواديه</t>
   </si>
   <si>
-    <t>حسن العبادله</t>
-  </si>
-  <si>
     <t>محمد الخزندار</t>
   </si>
   <si>
@@ -397,9 +385,6 @@
     <t>صندوق 1 صندوق واحد صندوق كاظم كـــــــــــــاظــــــــم</t>
   </si>
   <si>
-    <t>شادي ابوحصيره</t>
-  </si>
-  <si>
     <t>تشطيب الدور الأرضي</t>
   </si>
   <si>
@@ -415,12 +400,6 @@
     <t>حسين سليم</t>
   </si>
   <si>
-    <t>سرحان قويدر</t>
-  </si>
-  <si>
-    <t>ابوالمجد ابوعقلين</t>
-  </si>
-  <si>
     <t>دبي الدن</t>
   </si>
   <si>
@@ -436,7 +415,19 @@
     <t>امي عماره</t>
   </si>
   <si>
-    <t>هادي ابومعروف</t>
+    <t>اسامه محمد مشتهى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البكري </t>
+  </si>
+  <si>
+    <t>غطاس حاكوره</t>
+  </si>
+  <si>
+    <t>محمد حميد</t>
+  </si>
+  <si>
+    <t>اسامه العشي</t>
   </si>
 </sst>
 </file>
@@ -831,15 +822,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.19921875" customWidth="1"/>
+    <col min="1" max="1" width="34.59765625" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="13.3984375" customWidth="1"/>
@@ -864,43 +855,71 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>150004</v>
+      </c>
+      <c r="D2">
+        <v>-18522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>-40</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-40</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>105450</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>1608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>-2500</v>
+        <v>150</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-11900</v>
       </c>
       <c r="D5">
-        <v>-40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>-875</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -908,13 +927,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C7">
-        <v>-14895</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -922,13 +941,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-352</v>
+        <v>476</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -936,13 +955,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -950,13 +969,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>476</v>
+        <v>1499</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -964,13 +983,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-33</v>
+        <v>155</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -978,13 +997,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>15361</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -992,13 +1011,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1006,13 +1025,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>-639</v>
+        <v>-1374</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1020,13 +1039,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-970</v>
       </c>
       <c r="C15">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1034,13 +1053,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="C16">
-        <v>-1345</v>
+        <v>-115</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1048,10 +1067,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>-970</v>
+        <v>-1520</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1062,13 +1081,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>-115</v>
+        <v>-10650</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1076,13 +1095,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>-1410</v>
+        <v>-270</v>
       </c>
       <c r="C19">
-        <v>-503</v>
+        <v>9448</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1090,13 +1109,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="C20">
-        <v>-10650</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1104,13 +1123,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>-1305</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>5473</v>
+        <v>-156</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1118,13 +1137,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>-160</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1132,27 +1151,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>-156</v>
+        <v>4075</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1160,27 +1179,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4075</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>-656</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1188,13 +1207,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>-1596</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1202,13 +1221,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C28">
-        <v>-656</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1216,13 +1235,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>-1596</v>
+        <v>-6000</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1230,13 +1249,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>-300</v>
+        <v>-610</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1244,13 +1263,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>-6000</v>
+        <v>-500</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1258,13 +1277,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>-610</v>
+        <v>-5600</v>
       </c>
       <c r="C32">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1272,13 +1291,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>3942</v>
       </c>
       <c r="C33">
-        <v>-550</v>
+        <v>-345</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1286,13 +1305,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>-5600</v>
+        <v>-15</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1300,13 +1319,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>3942</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>-345</v>
+        <v>-10</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1314,13 +1333,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="B36">
-        <v>-15</v>
+        <v>2705</v>
       </c>
       <c r="C36">
-        <v>-5000</v>
+        <v>-207</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1328,13 +1347,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="C37">
-        <v>-10</v>
+        <v>100</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1342,13 +1361,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>2805</v>
+        <v>-20</v>
       </c>
       <c r="C38">
-        <v>-207</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1356,13 +1375,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B39">
-        <v>3405</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>-145</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1370,10 +1389,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40">
-        <v>-20</v>
+        <v>5475</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1384,13 +1403,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>-770</v>
+        <v>-10860</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1398,13 +1417,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="B42">
-        <v>5475</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>-4150</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1412,13 +1431,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C43">
-        <v>-2749</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1426,13 +1445,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>-4150</v>
+        <v>-60</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1440,10 +1459,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="B45">
-        <v>300</v>
+        <v>-95</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1454,13 +1473,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>-60</v>
+        <v>-10</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1468,13 +1487,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="B47">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1482,13 +1501,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C48">
-        <v>-10</v>
+        <v>-2419</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1496,13 +1515,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="C49">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1510,13 +1529,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="B50">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>-2419</v>
+        <v>-128</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1524,13 +1543,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1538,13 +1557,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="C52">
-        <v>-128</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1552,24 +1571,24 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>-300</v>
+        <v>-15846</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>34215</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="B54">
-        <v>-250</v>
+        <v>106</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1580,27 +1599,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="C55">
-        <v>-9829</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>10110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1608,13 +1627,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B57">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1622,13 +1641,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>-625</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>-2522</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1636,13 +1655,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>34290</v>
       </c>
       <c r="C59">
-        <v>-10</v>
+        <v>-689</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1650,13 +1669,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B60">
-        <v>-625</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>-2522</v>
+        <v>-165</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1664,13 +1683,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B61">
-        <v>18530</v>
+        <v>3551</v>
       </c>
       <c r="C61">
-        <v>-9729</v>
+        <v>-807</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1678,13 +1697,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-389</v>
       </c>
       <c r="C62">
-        <v>-165</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1692,13 +1711,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B63">
-        <v>3116</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>-357</v>
+        <v>-1065</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1706,13 +1725,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B64">
-        <v>-534</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1720,27 +1739,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>-245</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-6585</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C66">
-        <v>-200</v>
+        <v>1299</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1748,27 +1767,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="D67">
-        <v>-2525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B68">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>1299</v>
+        <v>-16</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1776,13 +1795,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>205</v>
+        <v>2580</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1790,13 +1809,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>-16</v>
+        <v>-146</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1804,13 +1823,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>5886</v>
+        <v>-800</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1818,13 +1837,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1070</v>
       </c>
       <c r="C72">
-        <v>-146</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1832,13 +1851,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>747</v>
+        <v>-12813</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1846,13 +1865,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B74">
-        <v>1120</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>-21000</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1860,13 +1879,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C75">
-        <v>-12813</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1874,13 +1893,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>-21000</v>
+        <v>-7977</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1888,13 +1907,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B77">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>-133</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -1902,13 +1921,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>-12516</v>
+        <v>-500</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -1916,13 +1935,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="C79">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1930,10 +1949,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="B80">
-        <v>-2000</v>
+        <v>1620</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1944,13 +1963,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="B81">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -1958,13 +1977,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B82">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1972,13 +1991,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>100</v>
+        <v>346</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -1986,13 +2005,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>-1343</v>
+        <v>-80</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2000,13 +2019,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="C85">
-        <v>-1105</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2014,13 +2033,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>-80</v>
+        <v>8118</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2028,13 +2047,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B87">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2042,22 +2061,19 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="C88">
-        <v>8118</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>9</v>
-      </c>
       <c r="B89">
         <v>0</v>
       </c>
@@ -2070,27 +2086,24 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B90">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>-12662</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>100</v>
-      </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>-714</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2098,21 +2111,24 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C92">
-        <v>-12662</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>74</v>
+      </c>
       <c r="B93">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2123,10 +2139,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B94">
-        <v>175</v>
+        <v>-7</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2137,13 +2153,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B95">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2151,13 +2167,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B96">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-253</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2165,27 +2181,24 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>-21</v>
+        <v>-250</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>77</v>
-      </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>-253</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2193,13 +2206,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>-250</v>
+        <v>-100</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -2207,13 +2220,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>-4024</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -2221,13 +2234,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>-100</v>
+        <v>-886</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2235,10 +2248,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>-613</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2249,38 +2262,41 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>-1731</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>-1495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B104">
-        <v>-533</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-7610</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>82</v>
+      </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>20820</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2288,13 +2304,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="C106">
-        <v>-2595</v>
+        <v>-300</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2302,24 +2318,24 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>12107</v>
+        <v>-670</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B108">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C108">
         <v>-300</v>
@@ -2330,27 +2346,27 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>-670</v>
+        <v>31739</v>
       </c>
       <c r="D109">
-        <v>-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>-300</v>
+        <v>-10</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2358,27 +2374,24 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C111">
-        <v>43018</v>
+        <v>-100</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>84</v>
-      </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2386,13 +2399,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B113">
-        <v>10</v>
+        <v>-100</v>
       </c>
       <c r="C113">
-        <v>-100</v>
+        <v>-77</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -2403,10 +2416,10 @@
         <v>85</v>
       </c>
       <c r="B114">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>-41257</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2414,13 +2427,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="C115">
-        <v>-77</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2428,13 +2441,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>-23498</v>
+        <v>1519</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2442,13 +2455,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B117">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2456,13 +2469,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>23800</v>
       </c>
       <c r="C118">
-        <v>815</v>
+        <v>-7682</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2470,13 +2483,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>-30335</v>
       </c>
       <c r="C119">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2484,13 +2497,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B120">
-        <v>23800</v>
+        <v>-200</v>
       </c>
       <c r="C120">
-        <v>-7682</v>
+        <v>-121</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2498,13 +2511,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B121">
-        <v>-28609</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>-1652</v>
+        <v>-15000</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2512,13 +2525,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B122">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>-121</v>
+        <v>100</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -2526,13 +2539,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>-15000</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2540,21 +2553,24 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>91</v>
+      </c>
       <c r="B125">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2565,13 +2581,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>-200</v>
+        <v>-108</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2579,13 +2595,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="B127">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -2593,13 +2609,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="C128">
-        <v>-108</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -2607,13 +2623,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="C129">
-        <v>7943</v>
+        <v>8000</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -2621,13 +2637,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B130">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>-500</v>
+        <v>-997</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -2635,13 +2651,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C131">
-        <v>8500</v>
+        <v>-1474</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2649,13 +2665,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="C132">
-        <v>-997</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2663,13 +2679,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>-1174</v>
+        <v>-78</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2677,75 +2693,18 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B134">
-        <v>-150</v>
+        <v>-25</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135">
-        <v>-78</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>135</v>
-      </c>
-      <c r="B136">
-        <v>-50</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>123</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>-1</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138">
-        <v>1000</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>-100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>الشيكل</t>
   </si>
@@ -367,9 +367,6 @@
     <t>فراس دير البلح</t>
   </si>
   <si>
-    <t>اميره الواديه</t>
-  </si>
-  <si>
     <t>محمد الخزندار</t>
   </si>
   <si>
@@ -406,9 +403,6 @@
     <t>خالد محمود</t>
   </si>
   <si>
-    <t>ياسمين ابوسيدو</t>
-  </si>
-  <si>
     <t>عطا النيرب</t>
   </si>
   <si>
@@ -424,10 +418,10 @@
     <t>غطاس حاكوره</t>
   </si>
   <si>
-    <t>محمد حميد</t>
-  </si>
-  <si>
     <t>اسامه العشي</t>
+  </si>
+  <si>
+    <t>كارلوس عرفات</t>
   </si>
 </sst>
 </file>
@@ -822,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A116" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -855,71 +849,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>150004</v>
-      </c>
-      <c r="D2">
-        <v>-18522</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>-40</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-40</v>
-      </c>
-    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>63</v>
+        <v>148553</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-35522</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>150</v>
+        <v>-40</v>
       </c>
       <c r="C5">
-        <v>-11900</v>
+        <v>-100</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-875</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -927,27 +893,27 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>-50</v>
+        <v>150</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-11900</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>476</v>
+        <v>-875</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -955,13 +921,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C9">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -969,13 +935,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1499</v>
+        <v>476</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -983,13 +949,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>155</v>
+        <v>-33</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -997,13 +963,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15361</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1011,13 +977,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1025,13 +991,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>-1374</v>
+        <v>15361</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1039,13 +1005,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>-970</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1053,13 +1019,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>-115</v>
+        <v>-1345</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1067,10 +1033,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>-1520</v>
+        <v>-970</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1081,13 +1047,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="C18">
-        <v>-10650</v>
+        <v>-115</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1095,13 +1061,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>-270</v>
+        <v>-1520</v>
       </c>
       <c r="C19">
-        <v>9448</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1109,13 +1075,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>-160</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-10650</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1123,13 +1089,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>-270</v>
       </c>
       <c r="C21">
-        <v>-156</v>
+        <v>9448</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1137,13 +1103,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1151,27 +1117,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4075</v>
+        <v>-156</v>
       </c>
       <c r="D23">
-        <v>-3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1179,27 +1145,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>4075</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="C26">
-        <v>-656</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1207,13 +1173,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>-1596</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1221,13 +1187,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>-656</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1235,13 +1201,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>-6000</v>
+        <v>-1596</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1249,13 +1215,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B30">
-        <v>-610</v>
+        <v>-300</v>
       </c>
       <c r="C30">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1263,13 +1229,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>-500</v>
+        <v>-6000</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1277,13 +1243,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>-5600</v>
+        <v>-610</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1291,13 +1257,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>3942</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>-345</v>
+        <v>-500</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1305,13 +1271,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>-15</v>
+        <v>-5600</v>
       </c>
       <c r="C34">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1319,13 +1285,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3942</v>
       </c>
       <c r="C35">
-        <v>-10</v>
+        <v>-345</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1333,13 +1299,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>2705</v>
+        <v>-15</v>
       </c>
       <c r="C36">
-        <v>-207</v>
+        <v>-5000</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1347,13 +1313,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>-10</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1361,13 +1327,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="B38">
-        <v>-20</v>
+        <v>2705</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>-207</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1375,13 +1341,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="C39">
-        <v>-145</v>
+        <v>100</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1389,10 +1355,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40">
-        <v>5475</v>
+        <v>-20</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1403,13 +1369,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>-10860</v>
+        <v>-1145</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1417,13 +1383,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>5475</v>
       </c>
       <c r="C42">
-        <v>-4150</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1431,13 +1397,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>-14975</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1445,13 +1411,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>-60</v>
+        <v>-4150</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1459,10 +1425,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="B45">
-        <v>-95</v>
+        <v>300</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1473,13 +1439,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>-10</v>
+        <v>-60</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1487,13 +1453,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="C47">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1501,13 +1467,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B48">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>-2419</v>
+        <v>-10</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1515,13 +1481,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B49">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1529,13 +1495,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C50">
-        <v>-128</v>
+        <v>-2419</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1543,13 +1509,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="C51">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1557,13 +1523,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="B52">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-128</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1571,24 +1537,24 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>-15846</v>
+        <v>-300</v>
       </c>
       <c r="D53">
-        <v>34215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="B54">
-        <v>106</v>
+        <v>-250</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1599,27 +1565,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B55">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>-15736</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>35165</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1627,13 +1593,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="C57">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1641,13 +1607,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B58">
-        <v>-625</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>-2522</v>
+        <v>7</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1655,13 +1621,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59">
-        <v>34290</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>-689</v>
+        <v>-10</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1669,13 +1635,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>-625</v>
       </c>
       <c r="C60">
-        <v>-165</v>
+        <v>-2522</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1683,13 +1649,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B61">
-        <v>3551</v>
+        <v>34290</v>
       </c>
       <c r="C61">
-        <v>-807</v>
+        <v>-26611</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1697,13 +1663,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B62">
-        <v>-389</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-165</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1711,13 +1677,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>3551</v>
       </c>
       <c r="C63">
-        <v>-1065</v>
+        <v>-807</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1725,13 +1691,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>-389</v>
       </c>
       <c r="C64">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1739,27 +1705,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-1065</v>
       </c>
       <c r="D65">
-        <v>-6585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>1299</v>
+        <v>-200</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1767,27 +1733,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>-6585</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C68">
-        <v>-16</v>
+        <v>1299</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1795,13 +1761,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>2580</v>
+        <v>-1492</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1809,13 +1775,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>-146</v>
+        <v>-16</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1823,13 +1789,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>-800</v>
+        <v>2580</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1837,13 +1803,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>-146</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1851,13 +1817,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>-12813</v>
+        <v>-9</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1865,13 +1831,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1070</v>
       </c>
       <c r="C74">
-        <v>-21000</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1879,13 +1845,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>-12813</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1893,13 +1859,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>-7977</v>
+        <v>-20000</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1907,13 +1873,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C77">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -1921,13 +1887,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>-500</v>
+        <v>-6665</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -1935,13 +1901,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B79">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-133</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1949,13 +1915,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B80">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -1963,13 +1929,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="C81">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -1977,13 +1943,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="C82">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1991,13 +1957,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>346</v>
+        <v>100</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2005,13 +1971,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>-80</v>
+        <v>-2666</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2019,13 +1985,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="B85">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2033,13 +1999,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>8118</v>
+        <v>-80</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2047,10 +2013,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2061,24 +2027,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B88">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>8118</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>-2931</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2086,24 +2055,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="C90">
-        <v>-12662</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>131</v>
+      </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>-4090</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2111,24 +2083,21 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B92">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>-12662</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>74</v>
-      </c>
       <c r="B93">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2139,10 +2108,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-7</v>
+        <v>150</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2153,13 +2122,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="C95">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2167,13 +2136,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="C96">
-        <v>-253</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2181,24 +2150,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>-250</v>
+        <v>-21</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>77</v>
+      </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>-253</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2206,22 +2178,19 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>-100</v>
+        <v>-250</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>124</v>
-      </c>
       <c r="B100">
         <v>0</v>
       </c>
@@ -2234,13 +2203,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>-886</v>
+        <v>-100</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2248,10 +2217,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B102">
-        <v>-613</v>
+        <v>0</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2262,13 +2231,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>-886</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -2276,13 +2245,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-613</v>
       </c>
       <c r="C104">
-        <v>-7610</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2290,13 +2259,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>20820</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2304,13 +2273,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B106">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>-300</v>
+        <v>42390</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2318,24 +2287,24 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>-670</v>
+        <v>18807</v>
       </c>
       <c r="D107">
-        <v>-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="C108">
         <v>-300</v>
@@ -2346,27 +2315,27 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>31739</v>
+        <v>-670</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>-10</v>
+        <v>-300</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2374,24 +2343,27 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B111">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>-100</v>
+        <v>19239</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>84</v>
+      </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2399,27 +2371,24 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113">
         <v>-100</v>
       </c>
-      <c r="C113">
-        <v>-77</v>
-      </c>
       <c r="D113">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>85</v>
-      </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>-41257</v>
+        <v>0</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2427,13 +2396,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B115">
-        <v>-800</v>
+        <v>-100</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2441,13 +2410,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>1519</v>
+        <v>-27521</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2455,13 +2424,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="C117">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2469,13 +2438,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B118">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>-7682</v>
+        <v>1519</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2483,13 +2452,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B119">
-        <v>-30335</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2497,13 +2466,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B120">
-        <v>-200</v>
+        <v>23800</v>
       </c>
       <c r="C120">
-        <v>-121</v>
+        <v>-7682</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2511,13 +2480,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>-30335</v>
       </c>
       <c r="C121">
-        <v>-15000</v>
+        <v>387</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2525,13 +2494,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C122">
-        <v>100</v>
+        <v>-121</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -2539,22 +2508,19 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>-15000</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>126</v>
-      </c>
       <c r="B124">
         <v>0</v>
       </c>
@@ -2566,11 +2532,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>91</v>
-      </c>
       <c r="B125">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2580,14 +2543,11 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>107</v>
-      </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>-108</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2595,13 +2555,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="C127">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -2609,13 +2569,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B128">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>-108</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -2623,13 +2583,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="C129">
-        <v>8000</v>
+        <v>-50</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -2637,13 +2597,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="C130">
-        <v>-997</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -2651,13 +2611,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B131">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>-1474</v>
+        <v>8000</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2665,13 +2625,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B132">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>-997</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2679,13 +2639,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C133">
-        <v>-78</v>
+        <v>-6600</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2693,16 +2653,44 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B134">
-        <v>-25</v>
+        <v>-150</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>125</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>-78</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>126</v>
+      </c>
+      <c r="B136">
+        <v>-225</v>
+      </c>
+      <c r="C136">
         <v>-100</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>الشيكل</t>
   </si>
@@ -340,27 +340,18 @@
     <t>سمير فتحي ساق الله</t>
   </si>
   <si>
-    <t>ابواسعد حموده</t>
-  </si>
-  <si>
     <t>احمد جوال بي</t>
   </si>
   <si>
     <t>ابودرويش</t>
   </si>
   <si>
-    <t>احمد خليل</t>
-  </si>
-  <si>
     <t>ام محمود مهنا</t>
   </si>
   <si>
     <t>مصطفى بشير</t>
   </si>
   <si>
-    <t>ام العبد الترتوري 2</t>
-  </si>
-  <si>
     <t>ابوضياء الخالدي</t>
   </si>
   <si>
@@ -379,9 +370,6 @@
     <t>محمد ابوفول</t>
   </si>
   <si>
-    <t>صندوق 1 صندوق واحد صندوق كاظم كـــــــــــــاظــــــــم</t>
-  </si>
-  <si>
     <t>تشطيب الدور الأرضي</t>
   </si>
   <si>
@@ -391,9 +379,6 @@
     <t>ايوعلاء ابوسمهدانه</t>
   </si>
   <si>
-    <t>ابوطلعت الحساينه</t>
-  </si>
-  <si>
     <t>حسين سليم</t>
   </si>
   <si>
@@ -406,22 +391,49 @@
     <t>عطا النيرب</t>
   </si>
   <si>
-    <t>امي عماره</t>
-  </si>
-  <si>
     <t>اسامه محمد مشتهى</t>
   </si>
   <si>
-    <t xml:space="preserve">البكري </t>
-  </si>
-  <si>
-    <t>غطاس حاكوره</t>
-  </si>
-  <si>
     <t>اسامه العشي</t>
   </si>
   <si>
-    <t>كارلوس عرفات</t>
+    <t>صندوق 1 صندوق واحــد صندوق كاظم كـــــــــــــاظــــــــــــم</t>
+  </si>
+  <si>
+    <t>ابومفيد ام العبد</t>
+  </si>
+  <si>
+    <t>وفاء الزير</t>
+  </si>
+  <si>
+    <t>حازم مشتهى</t>
+  </si>
+  <si>
+    <t>تامر الكردي السكسك</t>
+  </si>
+  <si>
+    <t>محمود الغرابلي</t>
+  </si>
+  <si>
+    <t>شادي ابوحصيره</t>
+  </si>
+  <si>
+    <t>حمود حوسو</t>
+  </si>
+  <si>
+    <t>حجاج</t>
+  </si>
+  <si>
+    <t>شعبان جراد</t>
+  </si>
+  <si>
+    <t>علا ياسين</t>
+  </si>
+  <si>
+    <t>خالد الريس</t>
+  </si>
+  <si>
+    <t>نور عبيد فيصل الشوا</t>
   </si>
 </sst>
 </file>
@@ -818,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A116" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:XFD174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -851,16 +863,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>148553</v>
+        <v>103352</v>
       </c>
       <c r="D4">
-        <v>-35522</v>
+        <v>-26522</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -868,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-40</v>
+        <v>-1300</v>
       </c>
       <c r="C5">
         <v>-100</v>
@@ -896,13 +908,13 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="C7">
-        <v>-11900</v>
+        <v>-2145</v>
       </c>
       <c r="D7">
-        <v>1300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -913,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-875</v>
+        <v>-2807</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -921,13 +933,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>-50</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1025,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>-1345</v>
+        <v>-1093</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1067,7 +1079,7 @@
         <v>-1520</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-505</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1095,7 +1107,7 @@
         <v>-270</v>
       </c>
       <c r="C21">
-        <v>9448</v>
+        <v>12568</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1327,13 +1339,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B38">
-        <v>2705</v>
+        <v>1830</v>
       </c>
       <c r="C38">
-        <v>-207</v>
+        <v>-256</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1341,13 +1353,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B39">
-        <v>505</v>
+        <v>-50</v>
       </c>
       <c r="C39">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1369,7 +1381,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1400,10 +1412,10 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="C43">
-        <v>-14975</v>
+        <v>-15328</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1411,13 +1423,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>-4150</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1523,7 +1535,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1557,7 +1569,7 @@
         <v>-250</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1571,15 +1583,15 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>-15736</v>
+        <v>-7886</v>
       </c>
       <c r="D55">
-        <v>35165</v>
+        <v>31681</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B56">
         <v>106</v>
@@ -1607,7 +1619,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1652,10 +1664,10 @@
         <v>51</v>
       </c>
       <c r="B61">
-        <v>34290</v>
+        <v>36060</v>
       </c>
       <c r="C61">
-        <v>-26611</v>
+        <v>-24694</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1680,7 +1692,7 @@
         <v>53</v>
       </c>
       <c r="B63">
-        <v>3551</v>
+        <v>4021</v>
       </c>
       <c r="C63">
         <v>-807</v>
@@ -1711,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>-1065</v>
+        <v>-265</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1742,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>-6585</v>
+        <v>-3585</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1767,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>-1492</v>
+        <v>52</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1795,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>2580</v>
+        <v>2267</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1823,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>-9</v>
+        <v>29590</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1893,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>-6665</v>
+        <v>-4240</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -1915,13 +1927,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -1977,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>-2666</v>
+        <v>-1499</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -1991,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2069,16 +2081,16 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>-4090</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2191,6 +2203,9 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>129</v>
+      </c>
       <c r="B100">
         <v>0</v>
       </c>
@@ -2203,13 +2218,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>-100</v>
+        <v>-51</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2217,7 +2232,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2237,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>-886</v>
+        <v>-1686</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -2245,10 +2260,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104">
-        <v>-613</v>
+        <v>-538</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2259,13 +2274,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2279,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>42390</v>
+        <v>-6470</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2293,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>18807</v>
+        <v>16361</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -2329,7 +2344,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2343,13 +2358,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>19239</v>
+        <v>13929</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2371,7 +2386,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B113">
         <v>10</v>
@@ -2384,6 +2399,9 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>132</v>
+      </c>
       <c r="B114">
         <v>0</v>
       </c>
@@ -2396,10 +2414,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B115">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="C115">
         <v>-77</v>
@@ -2416,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>-27521</v>
+        <v>-13749</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2444,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>1519</v>
+        <v>394</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2452,7 +2470,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2483,10 +2501,10 @@
         <v>88</v>
       </c>
       <c r="B121">
-        <v>-30335</v>
+        <v>-31830</v>
       </c>
       <c r="C121">
-        <v>387</v>
+        <v>-1279</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2521,8 +2539,11 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>133</v>
+      </c>
       <c r="B124">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2532,11 +2553,14 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>134</v>
+      </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>-112</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -2569,13 +2593,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="C128">
-        <v>-108</v>
+        <v>-5020</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -2583,7 +2607,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2597,7 +2621,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B130">
         <v>-800</v>
@@ -2611,13 +2635,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2625,7 +2649,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2639,13 +2663,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B133">
         <v>-300</v>
       </c>
       <c r="C133">
-        <v>-6600</v>
+        <v>-7100</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2653,7 +2677,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B134">
         <v>-150</v>
@@ -2667,13 +2691,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="C135">
-        <v>-78</v>
+        <v>-6578</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2681,13 +2705,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B136">
-        <v>-225</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>-100</v>
+        <v>231</v>
       </c>
       <c r="D136">
         <v>0</v>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>الشيكل</t>
   </si>
@@ -172,9 +172,6 @@
     <t>مطيع مشتهى ابورامي</t>
   </si>
   <si>
-    <t>البورد العربي ايداعات</t>
-  </si>
-  <si>
     <t>باسم صافي</t>
   </si>
   <si>
@@ -268,9 +265,6 @@
     <t>تيودور شحاده</t>
   </si>
   <si>
-    <t>الدانا</t>
-  </si>
-  <si>
     <t xml:space="preserve">مدى غلة غزه </t>
   </si>
   <si>
@@ -397,9 +391,6 @@
     <t>اسامه العشي</t>
   </si>
   <si>
-    <t>صندوق 1 صندوق واحــد صندوق كاظم كـــــــــــــاظــــــــــــم</t>
-  </si>
-  <si>
     <t>ابومفيد ام العبد</t>
   </si>
   <si>
@@ -412,9 +403,6 @@
     <t>تامر الكردي السكسك</t>
   </si>
   <si>
-    <t>محمود الغرابلي</t>
-  </si>
-  <si>
     <t>شادي ابوحصيره</t>
   </si>
   <si>
@@ -427,13 +415,28 @@
     <t>شعبان جراد</t>
   </si>
   <si>
-    <t>علا ياسين</t>
-  </si>
-  <si>
     <t>خالد الريس</t>
   </si>
   <si>
-    <t>نور عبيد فيصل الشوا</t>
+    <t>صندوق 1 صندوق واحد صندوق كاظم كـــــــــــــاظــــــــم</t>
+  </si>
+  <si>
+    <t>صائب ناصر</t>
+  </si>
+  <si>
+    <t>شاهر مشتهى ابوعرفات</t>
+  </si>
+  <si>
+    <t>محمد رفعت مشتهى</t>
+  </si>
+  <si>
+    <t>الدن</t>
+  </si>
+  <si>
+    <t>امي عماره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غسان بسيسو </t>
   </si>
 </sst>
 </file>
@@ -828,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:XFD174"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -863,16 +866,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>103352</v>
+        <v>166228</v>
       </c>
       <c r="D4">
-        <v>-26522</v>
+        <v>-26722</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -880,10 +883,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-1300</v>
+        <v>-1500</v>
       </c>
       <c r="C5">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="D5">
         <v>-40</v>
@@ -911,10 +914,10 @@
         <v>115</v>
       </c>
       <c r="C7">
-        <v>-2145</v>
+        <v>-2655</v>
       </c>
       <c r="D7">
-        <v>500</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -925,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-2807</v>
+        <v>-2207</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -933,7 +936,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B9">
         <v>-50</v>
@@ -975,13 +978,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1009,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>15361</v>
+        <v>23361</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1079,7 +1082,7 @@
         <v>-1520</v>
       </c>
       <c r="C19">
-        <v>-505</v>
+        <v>-509</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1184,9 +1187,6 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
       <c r="B27">
         <v>0</v>
       </c>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B30">
         <v>-300</v>
@@ -1300,10 +1300,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3942</v>
+        <v>6150</v>
       </c>
       <c r="C35">
-        <v>-345</v>
+        <v>-1102</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B38">
         <v>1830</v>
       </c>
       <c r="C38">
-        <v>-256</v>
+        <v>-516</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B39">
         <v>-50</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>-150</v>
       </c>
       <c r="C43">
-        <v>-15328</v>
+        <v>-10841</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1423,13 +1423,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>-25000</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B47">
         <v>-95</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1583,15 +1583,15 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>-7886</v>
+        <v>-20807</v>
       </c>
       <c r="D55">
-        <v>31681</v>
+        <v>31795</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B56">
         <v>106</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57">
         <v>-14</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B60">
         <v>-625</v>
@@ -1661,13 +1661,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61">
-        <v>36060</v>
+        <v>38160</v>
       </c>
       <c r="C61">
-        <v>-24694</v>
+        <v>-8325</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1689,10 +1689,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B63">
-        <v>4021</v>
+        <v>5306</v>
       </c>
       <c r="C63">
         <v>-807</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64">
         <v>-389</v>
@@ -1717,21 +1717,21 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>-265</v>
+        <v>-412</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-808</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1754,18 +1754,18 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>-3585</v>
+        <v>-1585</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B68">
         <v>20</v>
       </c>
       <c r="C68">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1829,13 +1829,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>29590</v>
+        <v>495</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B74">
         <v>1070</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1871,13 +1871,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>-20000</v>
+        <v>-19000</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B77">
         <v>-200</v>
@@ -1899,13 +1899,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>-4240</v>
+        <v>-2545</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B81">
         <v>-150</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B82">
         <v>1620</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1983,13 +1983,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>-1499</v>
+        <v>-2128</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B87">
         <v>-95</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B90">
         <v>900</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2090,12 +2090,12 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>-500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B94">
         <v>150</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B95">
         <v>2700</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B96">
         <v>-7</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2218,13 +2218,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>-51</v>
+        <v>-102</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B104">
-        <v>-538</v>
+        <v>-873</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2274,13 +2274,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>175</v>
+        <v>-731</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2288,13 +2288,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>-6470</v>
+        <v>-8276</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2302,13 +2302,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>16361</v>
+        <v>3021</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B108">
         <v>245</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2358,13 +2358,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>13929</v>
+        <v>300</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B113">
         <v>10</v>
@@ -2400,13 +2400,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B115">
         <v>-300</v>
@@ -2428,13 +2428,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>-13749</v>
+        <v>-20127</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B117">
         <v>-800</v>
@@ -2456,21 +2456,21 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B120">
         <v>23800</v>
@@ -2498,13 +2498,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B121">
         <v>-31830</v>
       </c>
       <c r="C121">
-        <v>-1279</v>
+        <v>-1876</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B122">
         <v>-200</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -2543,30 +2543,33 @@
         <v>133</v>
       </c>
       <c r="B124">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>-108</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>-12</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>134</v>
       </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125">
-        <v>-112</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>0</v>
       </c>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B127">
         <v>-400</v>
@@ -2596,10 +2599,10 @@
         <v>135</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C128">
-        <v>-5020</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -2607,7 +2610,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2621,7 +2624,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B130">
         <v>-800</v>
@@ -2635,13 +2638,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2649,7 +2652,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2663,10 +2666,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B133">
-        <v>-300</v>
+        <v>-800</v>
       </c>
       <c r="C133">
         <v>-7100</v>
@@ -2677,7 +2680,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B134">
         <v>-150</v>
@@ -2691,7 +2694,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2705,7 +2708,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2714,6 +2717,20 @@
         <v>231</v>
       </c>
       <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>1150</v>
+      </c>
+      <c r="D137">
         <v>0</v>
       </c>
     </row>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>الشيكل</t>
   </si>
@@ -43,400 +43,433 @@
     <t>الريال</t>
   </si>
   <si>
-    <t>ابومفيد</t>
-  </si>
-  <si>
-    <t>اكسبريس موني</t>
-  </si>
-  <si>
-    <t>سمير حرزالله</t>
-  </si>
-  <si>
-    <t>ابن خلدون/رفح</t>
-  </si>
-  <si>
-    <t>ابويونس شملخ</t>
-  </si>
-  <si>
-    <t>الزيادات في الحوالات</t>
-  </si>
-  <si>
-    <t>ربيع سكيك</t>
-  </si>
-  <si>
-    <t>مرشد</t>
-  </si>
-  <si>
-    <t>اسامه وجدي</t>
-  </si>
-  <si>
-    <t>حاتم مشتهى</t>
-  </si>
-  <si>
-    <t>مدحت حجي</t>
-  </si>
-  <si>
-    <t>اسامه ابوسيدو/وشاح</t>
-  </si>
-  <si>
-    <t>احمد فاتورة جوال</t>
-  </si>
-  <si>
-    <t>سماح الخزندار</t>
-  </si>
-  <si>
-    <t>احمد مفيد</t>
-  </si>
-  <si>
-    <t>بيت كوين</t>
-  </si>
-  <si>
-    <t>وفيق ابوسيدو1900</t>
-  </si>
-  <si>
-    <t>الحداد العماره</t>
-  </si>
-  <si>
-    <t>بسيوني</t>
-  </si>
-  <si>
-    <t>ابوياسين لبد</t>
-  </si>
-  <si>
-    <t>طابو الارض 1200 العشي و800 ابومفيد و275 نص الدور الارضي و400 عماد الاشقر و400 الحجه و 400 احمد و 600 الروف</t>
-  </si>
-  <si>
-    <t>عامل الحجر القدسي</t>
-  </si>
-  <si>
-    <t>المختار سمير ابوسيدو</t>
-  </si>
-  <si>
-    <t>بيت كوين 2</t>
-  </si>
-  <si>
-    <t>كامل ماضي</t>
-  </si>
-  <si>
-    <t>الروف ابورمضان</t>
-  </si>
-  <si>
-    <t>ابوانس مشتهى  لغاية شهر 12</t>
-  </si>
-  <si>
-    <t>محمد تشطيب</t>
-  </si>
-  <si>
-    <t>ناهض الكردي</t>
-  </si>
-  <si>
-    <t>احمد تشطيب</t>
-  </si>
-  <si>
-    <t>ابوخالد مطر</t>
-  </si>
-  <si>
-    <t>اسامه مصبح</t>
-  </si>
-  <si>
-    <t>ابوعبدالله مشتهى</t>
-  </si>
-  <si>
-    <t>الفت جراده</t>
-  </si>
-  <si>
-    <t>عبدالله الاشقر كندا</t>
-  </si>
-  <si>
-    <t>سعدي عطالله تيسير عاشور</t>
-  </si>
-  <si>
-    <t>ابوالعبد صيام</t>
-  </si>
-  <si>
-    <t>راجي الشوا</t>
-  </si>
-  <si>
-    <t>الازبط</t>
-  </si>
-  <si>
-    <t>ابوصالح</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بهاء غنام </t>
-  </si>
-  <si>
-    <t>ابوعلي نفتنار</t>
-  </si>
-  <si>
-    <t>مطيع مشتهى ابورامي</t>
-  </si>
-  <si>
-    <t>باسم صافي</t>
-  </si>
-  <si>
-    <t>عبد البنا</t>
-  </si>
-  <si>
-    <t>سامي الحداد</t>
-  </si>
-  <si>
-    <t>منذر الحلو</t>
-  </si>
-  <si>
-    <t>هيثم سلاخي</t>
-  </si>
-  <si>
-    <t>جوال بي</t>
-  </si>
-  <si>
-    <t>محمد الصباغ ابوعلي</t>
-  </si>
-  <si>
-    <t>نعيم مشتهى ابواشرف</t>
-  </si>
-  <si>
-    <t>زيادات موني جرام</t>
-  </si>
-  <si>
-    <t>خلدون تركيا</t>
-  </si>
-  <si>
-    <t>خلدون البرعصي</t>
-  </si>
-  <si>
-    <t>شنيوره</t>
-  </si>
-  <si>
-    <t>محمد الجيوسي</t>
-  </si>
-  <si>
-    <t>شومر اسامه</t>
-  </si>
-  <si>
-    <t>محمد مفيد عماد الاشقر</t>
-  </si>
-  <si>
-    <t>اسماعيل ناصر عياد</t>
-  </si>
-  <si>
-    <t>ناجي الخضري</t>
-  </si>
-  <si>
-    <t>محمد مفيد تامين عماره</t>
-  </si>
-  <si>
-    <t>النعسان الاصيل</t>
-  </si>
-  <si>
-    <t>ابوالحسن دغمش</t>
-  </si>
-  <si>
-    <t>فادي حنونه</t>
-  </si>
-  <si>
-    <t>طيبه تركيا</t>
-  </si>
-  <si>
-    <t>ابوحمده</t>
-  </si>
-  <si>
-    <t>منير جواد ابوادم</t>
-  </si>
-  <si>
-    <t>بسام عجور وساطه</t>
-  </si>
-  <si>
-    <t>عبدالله اشتيوي</t>
-  </si>
-  <si>
-    <t>صاحب ابومحمود ابوحليمه</t>
-  </si>
-  <si>
-    <t>الاء الخزندار</t>
-  </si>
-  <si>
-    <t>يوسف الغز</t>
-  </si>
-  <si>
-    <t>ابورفعت مشتهى</t>
-  </si>
-  <si>
-    <t>تيودور شحاده</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدى غلة غزه </t>
-  </si>
-  <si>
-    <t>مدى غلة تركيا</t>
-  </si>
-  <si>
-    <t>الحرامين الخليل</t>
-  </si>
-  <si>
-    <t>حمدي الريفي ابومحمد</t>
-  </si>
-  <si>
-    <t>موني جرام</t>
-  </si>
-  <si>
-    <t>مصباح الشوا</t>
-  </si>
-  <si>
-    <t>الجرجاوي ابويامن</t>
-  </si>
-  <si>
-    <t>ناصر العمراني/بنك فلسطين</t>
-  </si>
-  <si>
-    <t>دبابش</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تامين سلطة النقد سمير حرزالله </t>
-  </si>
-  <si>
-    <t>خالد جراده</t>
-  </si>
-  <si>
-    <t>ام سائد شركة فيجين</t>
-  </si>
-  <si>
-    <t>وفيق2</t>
-  </si>
-  <si>
-    <t>ابوفياض</t>
-  </si>
-  <si>
-    <t>ابومدلله سمارت فون</t>
-  </si>
-  <si>
-    <t>الصفدي صفد</t>
-  </si>
-  <si>
-    <t>الروف 2 حتى 28-2-2023</t>
-  </si>
-  <si>
-    <t>احمد بارود جينيف</t>
-  </si>
-  <si>
-    <t>خدمات العماره سفن ستار</t>
-  </si>
-  <si>
-    <t>طيبه</t>
-  </si>
-  <si>
-    <t>علاء المشهراوي</t>
-  </si>
-  <si>
-    <t>صامد الشريف</t>
-  </si>
-  <si>
-    <t>سمير فتحي ساق الله</t>
-  </si>
-  <si>
-    <t>احمد جوال بي</t>
-  </si>
-  <si>
-    <t>ابودرويش</t>
-  </si>
-  <si>
-    <t>ام محمود مهنا</t>
-  </si>
-  <si>
-    <t>مصطفى بشير</t>
-  </si>
-  <si>
-    <t>ابوضياء الخالدي</t>
-  </si>
-  <si>
-    <t>فراس دير البلح</t>
-  </si>
-  <si>
-    <t>محمد الخزندار</t>
-  </si>
-  <si>
-    <t>مالك ابومعروف</t>
-  </si>
-  <si>
-    <t>ريم ابوسيدو</t>
-  </si>
-  <si>
-    <t>محمد ابوفول</t>
-  </si>
-  <si>
-    <t>تشطيب الدور الأرضي</t>
-  </si>
-  <si>
-    <t>موئل احمد</t>
-  </si>
-  <si>
-    <t>ايوعلاء ابوسمهدانه</t>
-  </si>
-  <si>
-    <t>حسين سليم</t>
-  </si>
-  <si>
-    <t>دبي الدن</t>
-  </si>
-  <si>
-    <t>خالد محمود</t>
-  </si>
-  <si>
-    <t>عطا النيرب</t>
-  </si>
-  <si>
-    <t>اسامه محمد مشتهى</t>
-  </si>
-  <si>
-    <t>اسامه العشي</t>
-  </si>
-  <si>
-    <t>ابومفيد ام العبد</t>
-  </si>
-  <si>
-    <t>وفاء الزير</t>
-  </si>
-  <si>
-    <t>حازم مشتهى</t>
-  </si>
-  <si>
-    <t>تامر الكردي السكسك</t>
-  </si>
-  <si>
-    <t>شادي ابوحصيره</t>
-  </si>
-  <si>
-    <t>حمود حوسو</t>
-  </si>
-  <si>
-    <t>حجاج</t>
-  </si>
-  <si>
-    <t>شعبان جراد</t>
-  </si>
-  <si>
-    <t>خالد الريس</t>
-  </si>
-  <si>
-    <t>صندوق 1 صندوق واحد صندوق كاظم كـــــــــــــاظــــــــم</t>
-  </si>
-  <si>
-    <t>صائب ناصر</t>
-  </si>
-  <si>
-    <t>شاهر مشتهى ابوعرفات</t>
-  </si>
-  <si>
-    <t>محمد رفعت مشتهى</t>
-  </si>
-  <si>
-    <t>الدن</t>
-  </si>
-  <si>
-    <t>امي عماره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">غسان بسيسو </t>
+    <t>بنك فلسطين</t>
+  </si>
+  <si>
+    <t>زكاه سنه 2024</t>
+  </si>
+  <si>
+    <t>ايجار 2024</t>
+  </si>
+  <si>
+    <t>ايجار 2025 حتى 20-02-2023</t>
+  </si>
+  <si>
+    <t>صندوق الاستثمار</t>
+  </si>
+  <si>
+    <t>أبو رامي الزعيم</t>
+  </si>
+  <si>
+    <t>بالستينين كلاود</t>
+  </si>
+  <si>
+    <t>حمودة ساعد</t>
+  </si>
+  <si>
+    <t>أبو حليمة</t>
+  </si>
+  <si>
+    <t>ساعد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وديع ضاهر  </t>
+  </si>
+  <si>
+    <t>حاتم المجذوب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أبو المعتصم </t>
+  </si>
+  <si>
+    <t>أبو فادي أبو سيدو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الجليس </t>
+  </si>
+  <si>
+    <t>أبو مفيد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أبو فياض </t>
+  </si>
+  <si>
+    <t>خالد عبد الرحمن</t>
+  </si>
+  <si>
+    <t>جهاد أبو حليمة</t>
+  </si>
+  <si>
+    <t>أبو رامي أبو شمالة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حمادة ساق الله  </t>
+  </si>
+  <si>
+    <t>قيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">باسل الحداد </t>
+  </si>
+  <si>
+    <t>خضر الشوا80000</t>
+  </si>
+  <si>
+    <t>مصطفى - احمد</t>
+  </si>
+  <si>
+    <t>أحمد شقة</t>
+  </si>
+  <si>
+    <t>صندوق2 صندوق احمد صندوق 2 صندوق احـــــــــــــــــــــــــــــمــــــــــــــــــــــــــــــد</t>
+  </si>
+  <si>
+    <t>عماد الاشقر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وسام    ***  سلطة نقد </t>
+  </si>
+  <si>
+    <t>أيهاب أبن خالي</t>
+  </si>
+  <si>
+    <t>رشدي أبو سيدو</t>
+  </si>
+  <si>
+    <t>سامر شراب</t>
+  </si>
+  <si>
+    <t>غسان العجلة</t>
+  </si>
+  <si>
+    <t>فكة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أبو أنس يورو </t>
+  </si>
+  <si>
+    <t>حسين سالم</t>
+  </si>
+  <si>
+    <t>تجميع كهرباء</t>
+  </si>
+  <si>
+    <t>أبو تامر عزام</t>
+  </si>
+  <si>
+    <t>هاني النيرب</t>
+  </si>
+  <si>
+    <t>وفيق ابو سيدو</t>
+  </si>
+  <si>
+    <t>نجلاء ابو سيدو</t>
+  </si>
+  <si>
+    <t>عبد الله المصري</t>
+  </si>
+  <si>
+    <t>أدهم الحاطوم</t>
+  </si>
+  <si>
+    <t>اسامه و شومر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أحمد أبو سيدو تعديل </t>
+  </si>
+  <si>
+    <t>حوسو</t>
+  </si>
+  <si>
+    <t>الزهارنة ألمنيوم</t>
+  </si>
+  <si>
+    <t>جودت الريس</t>
+  </si>
+  <si>
+    <t>محمد ثابت</t>
+  </si>
+  <si>
+    <t>مصطفى ابو سيدو</t>
+  </si>
+  <si>
+    <t>كافور للعطور</t>
+  </si>
+  <si>
+    <t>عماد أبو سيدو</t>
+  </si>
+  <si>
+    <t>العجلة محامي</t>
+  </si>
+  <si>
+    <t>منير علي حسن</t>
+  </si>
+  <si>
+    <t>عمر أبو سيدو</t>
+  </si>
+  <si>
+    <t>ابو حمزة المشهراوي + أسامة سفر</t>
+  </si>
+  <si>
+    <t>مجموع عملات أجنبية</t>
+  </si>
+  <si>
+    <t>أبو محمد الكجك</t>
+  </si>
+  <si>
+    <t>الفار 100</t>
+  </si>
+  <si>
+    <t>الرنتيسي</t>
+  </si>
+  <si>
+    <t>أياد الريس</t>
+  </si>
+  <si>
+    <t>رماح الريس</t>
+  </si>
+  <si>
+    <t>أنور بنك القاهرة عمان</t>
+  </si>
+  <si>
+    <t>أيهاب الريس</t>
+  </si>
+  <si>
+    <t>الجمعية</t>
+  </si>
+  <si>
+    <t>نضارات أبو تيكانا</t>
+  </si>
+  <si>
+    <t>مالك أبو معروف</t>
+  </si>
+  <si>
+    <t>نبيل أبو معيلق</t>
+  </si>
+  <si>
+    <t>بطنيجي كمبيوتر</t>
+  </si>
+  <si>
+    <t>جبر النزلي</t>
+  </si>
+  <si>
+    <t>علي الحايك</t>
+  </si>
+  <si>
+    <t>ماهر الحاج علي</t>
+  </si>
+  <si>
+    <t>عمر زقوت</t>
+  </si>
+  <si>
+    <t>سلام عليوة شيكات</t>
+  </si>
+  <si>
+    <t>محمد عليوة</t>
+  </si>
+  <si>
+    <t>سلطة النقد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زهير الحلو </t>
+  </si>
+  <si>
+    <t>حلس حرز االله</t>
+  </si>
+  <si>
+    <t>حوالات أبو الشوبكي</t>
+  </si>
+  <si>
+    <t>ابو عرفا سكيك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فايز السعدي </t>
+  </si>
+  <si>
+    <t>دغمش بناشر</t>
+  </si>
+  <si>
+    <t>أبو يوسف الغلايني</t>
+  </si>
+  <si>
+    <t>ثائر الريس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جميل الميقاتي * قطر* </t>
+  </si>
+  <si>
+    <t>عادل لظن</t>
+  </si>
+  <si>
+    <t>أبو مدللة</t>
+  </si>
+  <si>
+    <t>حسام صالحة الأشقر</t>
+  </si>
+  <si>
+    <t>الشيخ رضوان</t>
+  </si>
+  <si>
+    <t>أبو عماد الحايك</t>
+  </si>
+  <si>
+    <t>أستثمار في الريس سنتر + كاظم</t>
+  </si>
+  <si>
+    <t>بريكة</t>
+  </si>
+  <si>
+    <t>أمجد ميلاد</t>
+  </si>
+  <si>
+    <t>أيمن حميد</t>
+  </si>
+  <si>
+    <t>وائل مصبح</t>
+  </si>
+  <si>
+    <t>خالي الرمال</t>
+  </si>
+  <si>
+    <t>محمد عرفات</t>
+  </si>
+  <si>
+    <t>خالي حمادة خاص  + أيمان</t>
+  </si>
+  <si>
+    <t>القيشاوي بنك فلسطين 20/1</t>
+  </si>
+  <si>
+    <t>دغمش سمسار</t>
+  </si>
+  <si>
+    <t>حسين وكالة</t>
+  </si>
+  <si>
+    <t>يوسف الغمري</t>
+  </si>
+  <si>
+    <t>أبو علي طويلة</t>
+  </si>
+  <si>
+    <t>قطر فون</t>
+  </si>
+  <si>
+    <t>حساينة السرايا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ابو ياسر </t>
+  </si>
+  <si>
+    <t>خالي حمادة + أبو رفيق</t>
+  </si>
+  <si>
+    <t>شادي غازي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كاظم </t>
+  </si>
+  <si>
+    <t>صيدلية ماجد</t>
+  </si>
+  <si>
+    <t>الغصين</t>
+  </si>
+  <si>
+    <t>انيس</t>
+  </si>
+  <si>
+    <t>زاهر ابو سيدو</t>
+  </si>
+  <si>
+    <t>أبو نصير غنم صاحب اسامة</t>
+  </si>
+  <si>
+    <t>أبراهيم لظن</t>
+  </si>
+  <si>
+    <t>دليس</t>
+  </si>
+  <si>
+    <t>زيادة لراس المال</t>
+  </si>
+  <si>
+    <t>تأمينات بنك القدس</t>
+  </si>
+  <si>
+    <t>الميدنا حمزة محاسب</t>
+  </si>
+  <si>
+    <t>أبو علاء الرفاتي</t>
+  </si>
+  <si>
+    <t>باسل ميلاد</t>
+  </si>
+  <si>
+    <t>مشتهى وحسونة</t>
+  </si>
+  <si>
+    <t>دكتور عصفور</t>
+  </si>
+  <si>
+    <t>أسامة أبو سيدو أيداع</t>
+  </si>
+  <si>
+    <t>DAI</t>
+  </si>
+  <si>
+    <t>ميار دلول</t>
+  </si>
+  <si>
+    <t>أبو يامن الجرجاوي</t>
+  </si>
+  <si>
+    <t>أبو خميس الجرجاوي 2</t>
+  </si>
+  <si>
+    <t>عابدين</t>
+  </si>
+  <si>
+    <t>محمد فورة</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> بنك القدس17-06-2023 $</t>
+  </si>
+  <si>
+    <t>أبو يعقوب لظن</t>
+  </si>
+  <si>
+    <t>شـحاتة بـنك</t>
+  </si>
+  <si>
+    <t>البنك الاسلامي الفلسطيني</t>
+  </si>
+  <si>
+    <t>ابو رام ديمقراطية</t>
+  </si>
+  <si>
+    <t>نضال قدادة</t>
+  </si>
+  <si>
+    <t>علي الحمامي + أبراهيم لظن</t>
+  </si>
+  <si>
+    <t>محمود كاظم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البسمة </t>
+  </si>
+  <si>
+    <t>صوان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برنامج المحاسبة للشركة  </t>
+  </si>
+  <si>
+    <t>منيب أبو سيدو</t>
+  </si>
+  <si>
+    <t>شيكات أجلة للصرف</t>
   </si>
 </sst>
 </file>
@@ -831,20 +864,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A145" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155:XFD171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.59765625" customWidth="1"/>
+    <col min="1" max="1" width="31.19921875" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="13.3984375" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" customWidth="1"/>
-    <col min="6" max="6" width="26.3984375" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -864,43 +897,57 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>-75</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-17</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-2850</v>
       </c>
       <c r="C4">
-        <v>166228</v>
+        <v>-3125</v>
       </c>
       <c r="D4">
-        <v>-26722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -908,55 +955,46 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>115</v>
+        <v>-61000</v>
       </c>
       <c r="C7">
-        <v>-2655</v>
+        <v>6589</v>
       </c>
       <c r="D7">
-        <v>2208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-2207</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>121</v>
-      </c>
       <c r="B9">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -964,13 +1002,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C11">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -978,13 +1016,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>-51593</v>
       </c>
       <c r="C12">
-        <v>49</v>
+        <v>-7976</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -992,13 +1030,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>155</v>
+        <v>-50</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1006,13 +1044,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="C14">
-        <v>23361</v>
+        <v>-12774</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1020,13 +1058,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-380</v>
       </c>
       <c r="C15">
-        <v>113</v>
+        <v>-250</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1034,13 +1072,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>-1093</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1048,13 +1086,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>-970</v>
+        <v>-580</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1062,13 +1100,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>-115</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1076,13 +1114,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>-1520</v>
+        <v>42163</v>
       </c>
       <c r="C19">
-        <v>-509</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1090,13 +1128,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>-10650</v>
+        <v>-300</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1104,24 +1142,24 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>-270</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>12568</v>
+        <v>-12000</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>-160</v>
+        <v>-2580</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1132,13 +1170,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>-156</v>
+        <v>1000</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1146,13 +1184,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>-100</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1160,35 +1198,38 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>-385</v>
       </c>
       <c r="C25">
-        <v>4075</v>
+        <v>-4557</v>
       </c>
       <c r="D25">
-        <v>-3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>-450</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
-        <v>800</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1205,21 +1246,18 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>-656</v>
+        <v>-155</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>-1596</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1227,13 +1265,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>6435</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1244,10 +1282,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>-285</v>
       </c>
       <c r="C31">
-        <v>-6000</v>
+        <v>-8220</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1258,10 +1296,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-610</v>
+        <v>-29385</v>
       </c>
       <c r="C32">
-        <v>1868</v>
+        <v>7079</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1272,13 +1310,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-20490</v>
       </c>
       <c r="C33">
-        <v>-500</v>
+        <v>-225805</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>21552</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,7 +1324,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-5600</v>
+        <v>2500</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1300,10 +1338,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6150</v>
+        <v>-1156</v>
       </c>
       <c r="C35">
-        <v>-1102</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1314,10 +1352,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-15</v>
+        <v>-650</v>
       </c>
       <c r="C36">
-        <v>-5000</v>
+        <v>-1635</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1328,10 +1366,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-378</v>
       </c>
       <c r="C37">
-        <v>-10</v>
+        <v>-700</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1339,13 +1377,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>1830</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>-516</v>
+        <v>-5002</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1353,13 +1391,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>-2322</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1367,10 +1405,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>-20</v>
+        <v>-1000</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1381,13 +1419,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-570</v>
       </c>
       <c r="C41">
-        <v>-1145</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1395,27 +1433,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>5475</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>-150</v>
+        <v>-1685</v>
       </c>
       <c r="C43">
-        <v>-10841</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1423,13 +1461,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="C44">
-        <v>-25000</v>
+        <v>-124</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1437,10 +1475,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>300</v>
+        <v>-117657</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1451,13 +1489,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>-60</v>
+        <v>-10000</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1465,13 +1503,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1479,13 +1517,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>-10</v>
+        <v>6800</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1493,13 +1531,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="C49">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1507,13 +1545,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>-2419</v>
+        <v>-170</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1521,13 +1559,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>-523</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1535,13 +1573,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-7500</v>
       </c>
       <c r="C52">
-        <v>-128</v>
+        <v>-200</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1549,13 +1587,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>-300</v>
+        <v>-5263</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1563,13 +1601,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>-250</v>
+        <v>-5000</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>86000</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1577,27 +1615,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C55">
-        <v>-20807</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>31795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1605,10 +1643,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1619,13 +1657,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>-480</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1633,27 +1671,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>-1862</v>
       </c>
       <c r="C59">
-        <v>-10</v>
+        <v>-7592</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>10632</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>-625</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>-2522</v>
+        <v>-500</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1661,13 +1699,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>38160</v>
+        <v>500</v>
       </c>
       <c r="C61">
-        <v>-8325</v>
+        <v>-280</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1675,13 +1713,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C62">
-        <v>-165</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1689,13 +1727,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>5306</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>-807</v>
+        <v>-4441</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1703,13 +1741,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>-389</v>
+        <v>-4220</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1717,27 +1755,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="C65">
-        <v>-412</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>-808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C66">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1745,36 +1783,33 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>-1585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>20</v>
+        <v>-500</v>
       </c>
       <c r="C68">
-        <v>1304</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>57</v>
-      </c>
       <c r="B69">
         <v>0</v>
       </c>
@@ -1787,13 +1822,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>-16</v>
+        <v>-500</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1801,13 +1836,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="C71">
-        <v>2267</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1815,13 +1850,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>-146</v>
+        <v>-100</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1829,13 +1864,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="C73">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1843,13 +1878,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B74">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1857,13 +1892,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>-12813</v>
+        <v>-1700</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1871,13 +1906,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="C76">
-        <v>-19000</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1885,27 +1920,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B77">
-        <v>-200</v>
+        <v>-6200</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>-750</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="C78">
-        <v>-2545</v>
+        <v>-1244</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -1913,13 +1948,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="C79">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1927,13 +1962,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>-122</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -1941,41 +1976,41 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B81">
-        <v>-150</v>
+        <v>5000</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>-21360</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>-2507</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B82">
-        <v>1620</v>
+        <v>-6500</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C83">
-        <v>100</v>
+        <v>-35000</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -1983,13 +2018,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-275</v>
       </c>
       <c r="C84">
-        <v>-2128</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -1997,13 +2032,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2011,13 +2046,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>-1090</v>
       </c>
       <c r="C86">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2025,27 +2060,24 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B87">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>69</v>
-      </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>8118</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2053,13 +2085,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>-2931</v>
+        <v>-915</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2067,10 +2099,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B90">
-        <v>900</v>
+        <v>-300</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2081,38 +2113,38 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>72</v>
-      </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>-12662</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>88</v>
+      </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>-615</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2120,13 +2152,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B94">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>791</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2134,27 +2166,27 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B95">
-        <v>2700</v>
+        <v>6550</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>-4600</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B96">
-        <v>-7</v>
+        <v>-280</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2162,13 +2194,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>-21</v>
+        <v>-900</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2176,13 +2208,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>-650</v>
       </c>
       <c r="C98">
-        <v>-253</v>
+        <v>-2781</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2190,27 +2222,27 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>-250</v>
+        <v>100</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-30000</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -2218,13 +2250,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>-1260</v>
       </c>
       <c r="C101">
-        <v>-102</v>
+        <v>125</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2232,27 +2264,27 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>-1686</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -2260,41 +2292,41 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B104">
-        <v>-873</v>
+        <v>237483</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-23483</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C105">
-        <v>-731</v>
+        <v>-14783</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>-550</v>
       </c>
       <c r="C106">
-        <v>-8276</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2302,13 +2334,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>3021</v>
+        <v>1550</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -2316,13 +2348,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B108">
-        <v>245</v>
+        <v>8000</v>
       </c>
       <c r="C108">
-        <v>-300</v>
+        <v>-2440</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2330,27 +2362,27 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>-670</v>
+        <v>-600</v>
       </c>
       <c r="D109">
-        <v>-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="C110">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2361,10 +2393,10 @@
         <v>106</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>-4000</v>
       </c>
       <c r="C111">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2372,13 +2404,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>21810</v>
       </c>
       <c r="C112">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2386,27 +2418,27 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B113">
-        <v>10</v>
+        <v>1984</v>
       </c>
       <c r="C113">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>-550</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2414,13 +2446,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B115">
-        <v>-300</v>
+        <v>-150</v>
       </c>
       <c r="C115">
-        <v>-77</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2428,13 +2460,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>-20127</v>
+        <v>9000</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2442,41 +2474,41 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B117">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>720</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>-1000</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>-170</v>
       </c>
       <c r="C119">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2484,13 +2516,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B120">
-        <v>23800</v>
+        <v>-150</v>
       </c>
       <c r="C120">
-        <v>-7682</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2498,13 +2530,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="B121">
-        <v>-31830</v>
+        <v>24000</v>
       </c>
       <c r="C121">
-        <v>-1876</v>
+        <v>-3000</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2512,13 +2544,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B122">
-        <v>-200</v>
+        <v>527</v>
       </c>
       <c r="C122">
-        <v>-121</v>
+        <v>-198</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -2526,13 +2558,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="C123">
-        <v>-15000</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2540,41 +2572,41 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>-1418</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>-2318</v>
       </c>
       <c r="D124">
-        <v>-108</v>
+        <v>-350</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>-13918</v>
       </c>
       <c r="C125">
-        <v>-12</v>
+        <v>-800</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>-810</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>24447</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2582,13 +2614,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="B127">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -2596,27 +2628,24 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B128">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>-190</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>120</v>
-      </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="C129">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -2624,10 +2653,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B130">
-        <v>-800</v>
+        <v>-2550</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2638,13 +2667,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>-925</v>
       </c>
       <c r="C131">
-        <v>4500</v>
+        <v>-10</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2652,13 +2681,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C132">
-        <v>-997</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2666,13 +2695,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B133">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>-7100</v>
+        <v>-720</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2680,10 +2709,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B134">
-        <v>-150</v>
+        <v>500</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2694,13 +2723,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>-830</v>
       </c>
       <c r="C135">
-        <v>-6578</v>
+        <v>-94</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2708,29 +2737,264 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>231</v>
+        <v>-100</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>131</v>
+      </c>
+      <c r="B137">
+        <v>-1500</v>
+      </c>
+      <c r="C137">
+        <v>-900</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>132</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>-937</v>
+      </c>
+      <c r="D138">
+        <v>-215</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>133</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>10534</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>134</v>
+      </c>
+      <c r="B141">
+        <v>-200</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>135</v>
+      </c>
+      <c r="B142">
+        <v>-193500</v>
+      </c>
+      <c r="C142">
+        <v>-57647</v>
+      </c>
+      <c r="D142">
+        <v>-383</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>136</v>
       </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>1150</v>
-      </c>
-      <c r="D137">
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>-200</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>137</v>
+      </c>
+      <c r="B144">
+        <v>-4800</v>
+      </c>
+      <c r="C144">
+        <v>-1488</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>138</v>
+      </c>
+      <c r="B145">
+        <v>-1350</v>
+      </c>
+      <c r="C145">
+        <v>-2421</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>139</v>
+      </c>
+      <c r="B146">
+        <v>-50</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>140</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>-100</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>141</v>
+      </c>
+      <c r="B148">
+        <v>1900</v>
+      </c>
+      <c r="C148">
+        <v>-19001</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>142</v>
+      </c>
+      <c r="B149">
+        <v>568360</v>
+      </c>
+      <c r="C149">
+        <v>-1500</v>
+      </c>
+      <c r="D149">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>143</v>
+      </c>
+      <c r="B150">
+        <v>-22380</v>
+      </c>
+      <c r="C150">
+        <v>104200</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>144</v>
+      </c>
+      <c r="B151">
+        <v>-400</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>145</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>1500</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>146</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>-200</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>147</v>
+      </c>
+      <c r="B154">
+        <v>-1850</v>
+      </c>
+      <c r="C154">
+        <v>-1300</v>
+      </c>
+      <c r="D154">
         <v>0</v>
       </c>
     </row>

--- a/excel/ah_parties.xlsx
+++ b/excel/ah_parties.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>الشيكل</t>
   </si>
@@ -43,433 +43,427 @@
     <t>الريال</t>
   </si>
   <si>
-    <t>بنك فلسطين</t>
-  </si>
-  <si>
-    <t>زكاه سنه 2024</t>
-  </si>
-  <si>
-    <t>ايجار 2024</t>
-  </si>
-  <si>
-    <t>ايجار 2025 حتى 20-02-2023</t>
-  </si>
-  <si>
-    <t>صندوق الاستثمار</t>
-  </si>
-  <si>
-    <t>أبو رامي الزعيم</t>
-  </si>
-  <si>
-    <t>بالستينين كلاود</t>
-  </si>
-  <si>
-    <t>حمودة ساعد</t>
-  </si>
-  <si>
-    <t>أبو حليمة</t>
-  </si>
-  <si>
-    <t>ساعد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">وديع ضاهر  </t>
-  </si>
-  <si>
-    <t>حاتم المجذوب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أبو المعتصم </t>
-  </si>
-  <si>
-    <t>أبو فادي أبو سيدو</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الجليس </t>
-  </si>
-  <si>
-    <t>أبو مفيد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أبو فياض </t>
-  </si>
-  <si>
-    <t>خالد عبد الرحمن</t>
-  </si>
-  <si>
-    <t>جهاد أبو حليمة</t>
-  </si>
-  <si>
-    <t>أبو رامي أبو شمالة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حمادة ساق الله  </t>
-  </si>
-  <si>
-    <t>قيس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">باسل الحداد </t>
-  </si>
-  <si>
-    <t>خضر الشوا80000</t>
-  </si>
-  <si>
-    <t>مصطفى - احمد</t>
-  </si>
-  <si>
-    <t>أحمد شقة</t>
-  </si>
-  <si>
-    <t>صندوق2 صندوق احمد صندوق 2 صندوق احـــــــــــــــــــــــــــــمــــــــــــــــــــــــــــــد</t>
-  </si>
-  <si>
-    <t>عماد الاشقر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">وسام    ***  سلطة نقد </t>
-  </si>
-  <si>
-    <t>أيهاب أبن خالي</t>
-  </si>
-  <si>
-    <t>رشدي أبو سيدو</t>
-  </si>
-  <si>
-    <t>سامر شراب</t>
-  </si>
-  <si>
-    <t>غسان العجلة</t>
-  </si>
-  <si>
-    <t>فكة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أبو أنس يورو </t>
-  </si>
-  <si>
-    <t>حسين سالم</t>
-  </si>
-  <si>
-    <t>تجميع كهرباء</t>
-  </si>
-  <si>
-    <t>أبو تامر عزام</t>
-  </si>
-  <si>
-    <t>هاني النيرب</t>
-  </si>
-  <si>
-    <t>وفيق ابو سيدو</t>
-  </si>
-  <si>
-    <t>نجلاء ابو سيدو</t>
-  </si>
-  <si>
-    <t>عبد الله المصري</t>
-  </si>
-  <si>
-    <t>أدهم الحاطوم</t>
-  </si>
-  <si>
-    <t>اسامه و شومر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أحمد أبو سيدو تعديل </t>
-  </si>
-  <si>
-    <t>حوسو</t>
-  </si>
-  <si>
-    <t>الزهارنة ألمنيوم</t>
-  </si>
-  <si>
-    <t>جودت الريس</t>
-  </si>
-  <si>
-    <t>محمد ثابت</t>
-  </si>
-  <si>
-    <t>مصطفى ابو سيدو</t>
-  </si>
-  <si>
-    <t>كافور للعطور</t>
-  </si>
-  <si>
-    <t>عماد أبو سيدو</t>
-  </si>
-  <si>
-    <t>العجلة محامي</t>
-  </si>
-  <si>
-    <t>منير علي حسن</t>
-  </si>
-  <si>
-    <t>عمر أبو سيدو</t>
-  </si>
-  <si>
-    <t>ابو حمزة المشهراوي + أسامة سفر</t>
-  </si>
-  <si>
-    <t>مجموع عملات أجنبية</t>
-  </si>
-  <si>
-    <t>أبو محمد الكجك</t>
-  </si>
-  <si>
-    <t>الفار 100</t>
-  </si>
-  <si>
-    <t>الرنتيسي</t>
-  </si>
-  <si>
-    <t>أياد الريس</t>
-  </si>
-  <si>
-    <t>رماح الريس</t>
-  </si>
-  <si>
-    <t>أنور بنك القاهرة عمان</t>
-  </si>
-  <si>
-    <t>أيهاب الريس</t>
-  </si>
-  <si>
-    <t>الجمعية</t>
-  </si>
-  <si>
-    <t>نضارات أبو تيكانا</t>
-  </si>
-  <si>
-    <t>مالك أبو معروف</t>
-  </si>
-  <si>
-    <t>نبيل أبو معيلق</t>
-  </si>
-  <si>
-    <t>بطنيجي كمبيوتر</t>
-  </si>
-  <si>
-    <t>جبر النزلي</t>
-  </si>
-  <si>
-    <t>علي الحايك</t>
-  </si>
-  <si>
-    <t>ماهر الحاج علي</t>
-  </si>
-  <si>
-    <t>عمر زقوت</t>
-  </si>
-  <si>
-    <t>سلام عليوة شيكات</t>
-  </si>
-  <si>
-    <t>محمد عليوة</t>
-  </si>
-  <si>
-    <t>سلطة النقد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زهير الحلو </t>
-  </si>
-  <si>
-    <t>حلس حرز االله</t>
-  </si>
-  <si>
-    <t>حوالات أبو الشوبكي</t>
-  </si>
-  <si>
-    <t>ابو عرفا سكيك</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فايز السعدي </t>
-  </si>
-  <si>
-    <t>دغمش بناشر</t>
-  </si>
-  <si>
-    <t>أبو يوسف الغلايني</t>
-  </si>
-  <si>
-    <t>ثائر الريس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جميل الميقاتي * قطر* </t>
-  </si>
-  <si>
-    <t>عادل لظن</t>
-  </si>
-  <si>
-    <t>أبو مدللة</t>
-  </si>
-  <si>
-    <t>حسام صالحة الأشقر</t>
-  </si>
-  <si>
-    <t>الشيخ رضوان</t>
-  </si>
-  <si>
-    <t>أبو عماد الحايك</t>
-  </si>
-  <si>
-    <t>أستثمار في الريس سنتر + كاظم</t>
-  </si>
-  <si>
-    <t>بريكة</t>
-  </si>
-  <si>
-    <t>أمجد ميلاد</t>
-  </si>
-  <si>
-    <t>أيمن حميد</t>
-  </si>
-  <si>
-    <t>وائل مصبح</t>
-  </si>
-  <si>
-    <t>خالي الرمال</t>
-  </si>
-  <si>
-    <t>محمد عرفات</t>
-  </si>
-  <si>
-    <t>خالي حمادة خاص  + أيمان</t>
-  </si>
-  <si>
-    <t>القيشاوي بنك فلسطين 20/1</t>
-  </si>
-  <si>
-    <t>دغمش سمسار</t>
-  </si>
-  <si>
-    <t>حسين وكالة</t>
-  </si>
-  <si>
-    <t>يوسف الغمري</t>
-  </si>
-  <si>
-    <t>أبو علي طويلة</t>
-  </si>
-  <si>
-    <t>قطر فون</t>
-  </si>
-  <si>
-    <t>حساينة السرايا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ابو ياسر </t>
-  </si>
-  <si>
-    <t>خالي حمادة + أبو رفيق</t>
-  </si>
-  <si>
-    <t>شادي غازي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كاظم </t>
-  </si>
-  <si>
-    <t>صيدلية ماجد</t>
-  </si>
-  <si>
-    <t>الغصين</t>
-  </si>
-  <si>
-    <t>انيس</t>
-  </si>
-  <si>
-    <t>زاهر ابو سيدو</t>
-  </si>
-  <si>
-    <t>أبو نصير غنم صاحب اسامة</t>
-  </si>
-  <si>
-    <t>أبراهيم لظن</t>
-  </si>
-  <si>
-    <t>دليس</t>
-  </si>
-  <si>
-    <t>زيادة لراس المال</t>
-  </si>
-  <si>
-    <t>تأمينات بنك القدس</t>
-  </si>
-  <si>
-    <t>الميدنا حمزة محاسب</t>
-  </si>
-  <si>
-    <t>أبو علاء الرفاتي</t>
-  </si>
-  <si>
-    <t>باسل ميلاد</t>
-  </si>
-  <si>
-    <t>مشتهى وحسونة</t>
-  </si>
-  <si>
-    <t>دكتور عصفور</t>
-  </si>
-  <si>
-    <t>أسامة أبو سيدو أيداع</t>
-  </si>
-  <si>
-    <t>DAI</t>
-  </si>
-  <si>
-    <t>ميار دلول</t>
-  </si>
-  <si>
-    <t>أبو يامن الجرجاوي</t>
-  </si>
-  <si>
-    <t>أبو خميس الجرجاوي 2</t>
-  </si>
-  <si>
-    <t>عابدين</t>
-  </si>
-  <si>
-    <t>محمد فورة</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> بنك القدس17-06-2023 $</t>
-  </si>
-  <si>
-    <t>أبو يعقوب لظن</t>
-  </si>
-  <si>
-    <t>شـحاتة بـنك</t>
-  </si>
-  <si>
-    <t>البنك الاسلامي الفلسطيني</t>
-  </si>
-  <si>
-    <t>ابو رام ديمقراطية</t>
-  </si>
-  <si>
-    <t>نضال قدادة</t>
-  </si>
-  <si>
-    <t>علي الحمامي + أبراهيم لظن</t>
-  </si>
-  <si>
-    <t>محمود كاظم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">البسمة </t>
-  </si>
-  <si>
-    <t>صوان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برنامج المحاسبة للشركة  </t>
-  </si>
-  <si>
-    <t>منيب أبو سيدو</t>
-  </si>
-  <si>
-    <t>شيكات أجلة للصرف</t>
+    <t>صندوق 1 صندوق واحد صندوق كاظم كـــــــــــــاظــــــــم</t>
+  </si>
+  <si>
+    <t>ابومفيد</t>
+  </si>
+  <si>
+    <t>اكسبريس موني</t>
+  </si>
+  <si>
+    <t>سمير حرزالله</t>
+  </si>
+  <si>
+    <t>ابن خلدون/رفح</t>
+  </si>
+  <si>
+    <t>ابومفيد ام العبد</t>
+  </si>
+  <si>
+    <t>الزيادات في الحوالات</t>
+  </si>
+  <si>
+    <t>ربيع سكيك</t>
+  </si>
+  <si>
+    <t>ابوحمده</t>
+  </si>
+  <si>
+    <t>اسامه وجدي</t>
+  </si>
+  <si>
+    <t>حاتم مشتهى</t>
+  </si>
+  <si>
+    <t>مدحت حجي</t>
+  </si>
+  <si>
+    <t>اسامه ابوسيدو/وشاح</t>
+  </si>
+  <si>
+    <t>احمد فاتورة جوال</t>
+  </si>
+  <si>
+    <t>سماح الخزندار</t>
+  </si>
+  <si>
+    <t>احمد مفيد</t>
+  </si>
+  <si>
+    <t>بيت كوين</t>
+  </si>
+  <si>
+    <t>وفيق ابوسيدو1900</t>
+  </si>
+  <si>
+    <t>الحداد العماره</t>
+  </si>
+  <si>
+    <t>بسيوني</t>
+  </si>
+  <si>
+    <t>ابوياسين لبد</t>
+  </si>
+  <si>
+    <t>طابو الارض 1200 العشي و800 ابومفيد و275 نص الدور الارضي و400 عماد الاشقر و400 الحجه و 400 احمد و 600 الروف</t>
+  </si>
+  <si>
+    <t>عامل الحجر القدسي</t>
+  </si>
+  <si>
+    <t>الدانا</t>
+  </si>
+  <si>
+    <t>المختار سمير ابوسيدو</t>
+  </si>
+  <si>
+    <t>بيت كوين 2</t>
+  </si>
+  <si>
+    <t>ام سائد شركة فيجين</t>
+  </si>
+  <si>
+    <t>كامل ماضي</t>
+  </si>
+  <si>
+    <t>الروف ابورمضان</t>
+  </si>
+  <si>
+    <t>ابوانس مشتهى  لغاية شهر 12</t>
+  </si>
+  <si>
+    <t>محمد تشطيب</t>
+  </si>
+  <si>
+    <t>ناهض الكردي</t>
+  </si>
+  <si>
+    <t>احمد تشطيب</t>
+  </si>
+  <si>
+    <t>ابوخالد مطر</t>
+  </si>
+  <si>
+    <t>ايوعلاء ابوسمهدانه</t>
+  </si>
+  <si>
+    <t>وفاء الزير</t>
+  </si>
+  <si>
+    <t>اسامه مصبح</t>
+  </si>
+  <si>
+    <t>مالك ابومعروف</t>
+  </si>
+  <si>
+    <t>ابوعبدالله مشتهى</t>
+  </si>
+  <si>
+    <t>الفت جراده</t>
+  </si>
+  <si>
+    <t>محمد فوره</t>
+  </si>
+  <si>
+    <t>عبدالله الاشقر كندا</t>
+  </si>
+  <si>
+    <t>سعدي عطالله تيسير عاشور</t>
+  </si>
+  <si>
+    <t>علاء المشهراوي</t>
+  </si>
+  <si>
+    <t>ابوالعبد صيام</t>
+  </si>
+  <si>
+    <t>راجي الشوا</t>
+  </si>
+  <si>
+    <t>الازبط</t>
+  </si>
+  <si>
+    <t>ابوصالح</t>
+  </si>
+  <si>
+    <t>ام محمود مهنا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بهاء غنام </t>
+  </si>
+  <si>
+    <t>ابوعلي نفتنار</t>
+  </si>
+  <si>
+    <t>مطيع مشتهى ابورامي</t>
+  </si>
+  <si>
+    <t>اسامه محمد مشتهى</t>
+  </si>
+  <si>
+    <t>باسم صافي</t>
+  </si>
+  <si>
+    <t>حسين سليم</t>
+  </si>
+  <si>
+    <t>عبد البنا</t>
+  </si>
+  <si>
+    <t>الروف 2 حتى 28-2-2023</t>
+  </si>
+  <si>
+    <t>سامي الحداد</t>
+  </si>
+  <si>
+    <t>منذر الحلو</t>
+  </si>
+  <si>
+    <t>هيثم سلاخي</t>
+  </si>
+  <si>
+    <t>جوال بي</t>
+  </si>
+  <si>
+    <t>محمد الصباغ ابوعلي</t>
+  </si>
+  <si>
+    <t>نعيم مشتهى ابواشرف</t>
+  </si>
+  <si>
+    <t>تيودور شحاده</t>
+  </si>
+  <si>
+    <t>زيادات موني جرام</t>
+  </si>
+  <si>
+    <t>خلدون تركيا</t>
+  </si>
+  <si>
+    <t>خلدون البرعصي</t>
+  </si>
+  <si>
+    <t>الصفدي صفد</t>
+  </si>
+  <si>
+    <t>شنيوره</t>
+  </si>
+  <si>
+    <t>احمد بارود جينيف</t>
+  </si>
+  <si>
+    <t>محمد الجيوسي</t>
+  </si>
+  <si>
+    <t>شومر اسامه</t>
+  </si>
+  <si>
+    <t>وفيق2</t>
+  </si>
+  <si>
+    <t>محمد مفيد عماد الاشقر</t>
+  </si>
+  <si>
+    <t>اسماعيل ناصر عياد</t>
+  </si>
+  <si>
+    <t>ناجي الخضري</t>
+  </si>
+  <si>
+    <t>تامر الكردي السكسك</t>
+  </si>
+  <si>
+    <t>سمير فتحي ساق الله</t>
+  </si>
+  <si>
+    <t>محمد مفيد تامين عماره</t>
+  </si>
+  <si>
+    <t>النعسان الاصيل</t>
+  </si>
+  <si>
+    <t>ابوالحسن دغمش</t>
+  </si>
+  <si>
+    <t>مرشد</t>
+  </si>
+  <si>
+    <t>طيبه</t>
+  </si>
+  <si>
+    <t>فادي حنونه</t>
+  </si>
+  <si>
+    <t>طيبه تركيا</t>
+  </si>
+  <si>
+    <t>ابويونس شملخ</t>
+  </si>
+  <si>
+    <t>منير جواد ابوادم</t>
+  </si>
+  <si>
+    <t>نيفين ياغي خضير</t>
+  </si>
+  <si>
+    <t>بسام عجور وساطه</t>
+  </si>
+  <si>
+    <t>خدمات العماره سفن ستار</t>
+  </si>
+  <si>
+    <t>عبدالله اشتيوي</t>
+  </si>
+  <si>
+    <t>صاحب ابومحمود ابوحليمه</t>
+  </si>
+  <si>
+    <t>الاء الخزندار</t>
+  </si>
+  <si>
+    <t>يوسف الغز</t>
+  </si>
+  <si>
+    <t>ابورفعت مشتهى</t>
+  </si>
+  <si>
+    <t>شعبان جراد</t>
+  </si>
+  <si>
+    <t>حمود حوسو</t>
+  </si>
+  <si>
+    <t>محمود سكيك ميلاد</t>
+  </si>
+  <si>
+    <t>ابوفياض</t>
+  </si>
+  <si>
+    <t>احمد جوال بي</t>
+  </si>
+  <si>
+    <t>فراس كارلوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مدى غلة غزه </t>
+  </si>
+  <si>
+    <t>مدى غلة تركيا</t>
+  </si>
+  <si>
+    <t>الحرامين الخليل</t>
+  </si>
+  <si>
+    <t>ابومدلله سمارت فون</t>
+  </si>
+  <si>
+    <t>ابودرويش</t>
+  </si>
+  <si>
+    <t>ابوضياء الخالدي</t>
+  </si>
+  <si>
+    <t>حمدي الريفي ابومحمد</t>
+  </si>
+  <si>
+    <t>مصطفى بشير</t>
+  </si>
+  <si>
+    <t>خلدون غلة تركيا</t>
+  </si>
+  <si>
+    <t>خالد محمود</t>
+  </si>
+  <si>
+    <t>موني جرام</t>
+  </si>
+  <si>
+    <t>مصباح الشوا</t>
+  </si>
+  <si>
+    <t>شاهر مشتهى ابوعرفات</t>
+  </si>
+  <si>
+    <t>فراس دير البلح</t>
+  </si>
+  <si>
+    <t>الجرجاوي ابويامن</t>
+  </si>
+  <si>
+    <t>ناصر العمراني/بنك فلسطين</t>
+  </si>
+  <si>
+    <t>دبابش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تامين سلطة النقد سمير حرزالله </t>
+  </si>
+  <si>
+    <t>محمد رفعت مشتهى</t>
+  </si>
+  <si>
+    <t>خالد الريس</t>
+  </si>
+  <si>
+    <t>محمود الغربلي</t>
+  </si>
+  <si>
+    <t>خالد جراده</t>
+  </si>
+  <si>
+    <t>امي عماره</t>
+  </si>
+  <si>
+    <t>اسامه العشي</t>
+  </si>
+  <si>
+    <t>تشطيب الدور الأرضي</t>
+  </si>
+  <si>
+    <t>الطيف هيثم فياض</t>
+  </si>
+  <si>
+    <t>محمد الخزندار</t>
+  </si>
+  <si>
+    <t>ريم ابوسيدو</t>
+  </si>
+  <si>
+    <t>محمد ابوفول</t>
+  </si>
+  <si>
+    <t>عطا النيرب</t>
+  </si>
+  <si>
+    <t>صامد الشريف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غسان بسيسو </t>
+  </si>
+  <si>
+    <t>هادي ابومعروف</t>
+  </si>
+  <si>
+    <t>محمد شعت</t>
+  </si>
+  <si>
+    <t>ابومدلله كاش جو</t>
+  </si>
+  <si>
+    <t>فتحي بريكه ابوحسام</t>
+  </si>
+  <si>
+    <t>محمد ابوراس</t>
+  </si>
+  <si>
+    <t>فياض</t>
+  </si>
+  <si>
+    <t>نادبر بدير شيفت</t>
+  </si>
+  <si>
+    <t>منذر شمالي</t>
   </si>
 </sst>
 </file>
@@ -864,20 +858,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A145" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155:XFD171"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A133" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.19921875" customWidth="1"/>
+    <col min="1" max="1" width="34.59765625" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="13.3984375" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" customWidth="1"/>
-    <col min="6" max="6" width="21.19921875" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" customWidth="1"/>
+    <col min="6" max="6" width="26.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -897,57 +891,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>-75</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-17</v>
-      </c>
-    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-2850</v>
+        <v>20490</v>
       </c>
       <c r="C4">
-        <v>-3125</v>
+        <v>225805</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-21552</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -955,46 +935,55 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>-85</v>
+      </c>
+      <c r="C7">
+        <v>3794</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>-61000</v>
-      </c>
-      <c r="C7">
-        <v>6589</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-2007</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
       <c r="B9">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1002,13 +991,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1016,13 +1005,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-51593</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>-7976</v>
+        <v>596</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1030,13 +1019,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>-50</v>
+        <v>155</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1044,13 +1033,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>-12774</v>
+        <v>23361</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1058,13 +1047,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-380</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>-250</v>
+        <v>113</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1072,13 +1061,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-1093</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1086,13 +1075,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>-580</v>
+        <v>-970</v>
       </c>
       <c r="C17">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1100,13 +1089,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-115</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1114,10 +1103,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>42163</v>
+        <v>-1440</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1128,13 +1117,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>-300</v>
+        <v>-10650</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1142,24 +1131,24 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>-540</v>
       </c>
       <c r="C21">
-        <v>-12000</v>
+        <v>12368</v>
       </c>
       <c r="D21">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-2580</v>
+        <v>-160</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1170,13 +1159,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1000</v>
+        <v>-156</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1184,13 +1173,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1198,27 +1187,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-385</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>-4557</v>
+        <v>4075</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="C26">
-        <v>-450</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1226,13 +1215,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1240,24 +1229,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>-155</v>
+        <v>-656</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>-1596</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1265,13 +1257,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C30">
-        <v>6435</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1279,13 +1271,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-285</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>-8220</v>
+        <v>-6000</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1293,13 +1285,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-29385</v>
+        <v>-610</v>
       </c>
       <c r="C32">
-        <v>7079</v>
+        <v>1868</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1307,24 +1299,24 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-20490</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>-225805</v>
+        <v>-500</v>
       </c>
       <c r="D33">
-        <v>21552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>2500</v>
+        <v>-5600</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1335,13 +1327,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-1156</v>
+        <v>6150</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-1102</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1349,13 +1341,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-650</v>
+        <v>-15</v>
       </c>
       <c r="C36">
-        <v>-1635</v>
+        <v>-5000</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1363,13 +1355,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>-378</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>-700</v>
+        <v>-10</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1377,13 +1369,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>4630</v>
       </c>
       <c r="C38">
-        <v>-5002</v>
+        <v>-516</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1391,13 +1383,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C39">
-        <v>-2322</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1405,10 +1397,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-1000</v>
+        <v>-20</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1419,13 +1411,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-570</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>-1545</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1433,27 +1425,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>5475</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>-300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-1685</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>-14311</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1461,13 +1453,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>-124</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1475,10 +1467,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B45">
-        <v>-117657</v>
+        <v>300</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1489,13 +1481,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>-10000</v>
+        <v>-60</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1503,13 +1495,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="C47">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1517,13 +1509,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>6800</v>
+        <v>-10</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1531,13 +1523,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1545,13 +1537,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C50">
-        <v>-170</v>
+        <v>-2419</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1559,13 +1551,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="C51">
-        <v>-523</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1573,13 +1565,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B52">
-        <v>-7500</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>-200</v>
+        <v>-128</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1587,13 +1579,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>-5263</v>
+        <v>-300</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1601,13 +1593,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-5000</v>
+        <v>-50</v>
       </c>
       <c r="C54">
-        <v>86000</v>
+        <v>7</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1615,27 +1607,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>-34992</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>38641</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1643,10 +1635,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1657,13 +1649,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>-480</v>
+        <v>7</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1671,27 +1663,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-1862</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>-7592</v>
+        <v>-10</v>
       </c>
       <c r="D59">
-        <v>10632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>-650</v>
       </c>
       <c r="C60">
-        <v>-500</v>
+        <v>-2522</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1699,13 +1691,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>500</v>
+        <v>51620</v>
       </c>
       <c r="C61">
-        <v>-280</v>
+        <v>-21540</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1713,13 +1705,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-165</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1727,13 +1719,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>6013</v>
       </c>
       <c r="C63">
-        <v>-4441</v>
+        <v>-807</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1741,13 +1733,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-4220</v>
+        <v>-389</v>
       </c>
       <c r="C64">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1755,13 +1747,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-809</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1769,13 +1761,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1783,38 +1775,41 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-3400</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>-1585</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-500</v>
+        <v>20</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1304</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>2008</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1822,13 +1817,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>-500</v>
+        <v>-16</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1836,13 +1831,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>2357</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1850,13 +1845,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>-100</v>
+        <v>-146</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1864,13 +1859,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1447</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1878,13 +1873,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C74">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1892,13 +1887,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>-1700</v>
+        <v>-12813</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1906,13 +1901,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-350</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>-19000</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1920,27 +1915,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-6200</v>
+        <v>-200</v>
       </c>
       <c r="C77">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>-750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>-1244</v>
+        <v>-10372</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -1948,13 +1943,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-133</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1962,13 +1957,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>-122</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -1976,41 +1971,41 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>5000</v>
+        <v>-150</v>
       </c>
       <c r="C81">
-        <v>-21360</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>-2507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-6500</v>
+        <v>1620</v>
       </c>
       <c r="C82">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>-157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>-35000</v>
+        <v>100</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2018,27 +2013,27 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-275</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-166</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>-1400</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2046,13 +2041,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-1090</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>-125</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2060,24 +2055,27 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>-600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>8118</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2085,13 +2083,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>-915</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2099,10 +2097,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-300</v>
+        <v>900</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2113,38 +2111,38 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C91">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>-12662</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>88</v>
-      </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>-615</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2152,13 +2150,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B94">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C94">
-        <v>791</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2166,27 +2164,27 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>6550</v>
+        <v>2700</v>
       </c>
       <c r="C95">
-        <v>-4600</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>28000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B96">
-        <v>-280</v>
+        <v>-7</v>
       </c>
       <c r="C96">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2194,13 +2192,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>-900</v>
+        <v>-21</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2208,13 +2206,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B98">
-        <v>-650</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>-2781</v>
+        <v>-253</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2222,27 +2220,27 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="D99">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B100">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>-30000</v>
+        <v>-740</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -2250,13 +2248,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B101">
-        <v>-1260</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>125</v>
+        <v>-102</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2264,27 +2262,27 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B102">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>-100</v>
+        <v>-1256</v>
       </c>
       <c r="D102">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>-986</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -2292,41 +2290,41 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B104">
-        <v>237483</v>
+        <v>-557</v>
       </c>
       <c r="C104">
-        <v>-23483</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B105">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>-14783</v>
+        <v>-9720</v>
       </c>
       <c r="D105">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B106">
-        <v>-550</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2334,13 +2332,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -2348,13 +2346,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B108">
-        <v>8000</v>
+        <v>245</v>
       </c>
       <c r="C108">
-        <v>-2440</v>
+        <v>-300</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2362,27 +2360,27 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>-600</v>
+        <v>-670</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B110">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2390,13 +2388,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B111">
-        <v>-4000</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2404,13 +2402,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B112">
-        <v>21810</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2418,27 +2416,27 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B113">
-        <v>1984</v>
+        <v>10</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D113">
-        <v>-550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>2527</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2446,13 +2444,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B115">
-        <v>-150</v>
+        <v>-300</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2460,13 +2458,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>9000</v>
+        <v>-26606</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2474,41 +2472,41 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="C117">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B118">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>-1500</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B119">
-        <v>-170</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2516,13 +2514,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B120">
-        <v>-150</v>
+        <v>23800</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>-7682</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2530,13 +2528,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B121">
-        <v>24000</v>
+        <v>-52320</v>
       </c>
       <c r="C121">
-        <v>-3000</v>
+        <v>-4976</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2544,13 +2542,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B122">
-        <v>527</v>
+        <v>-200</v>
       </c>
       <c r="C122">
-        <v>-198</v>
+        <v>-121</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -2558,13 +2556,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B123">
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>-15000</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2572,41 +2570,41 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B124">
-        <v>-1418</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>-2318</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>-350</v>
+        <v>-216</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B125">
-        <v>-13918</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>-800</v>
+        <v>-12</v>
       </c>
       <c r="D125">
-        <v>-810</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="C126">
-        <v>24447</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2614,13 +2612,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C127">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -2628,24 +2626,27 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>-92</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>-190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -2653,10 +2654,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B130">
-        <v>-2550</v>
+        <v>-800</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2667,13 +2668,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B131">
-        <v>-925</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>-10</v>
+        <v>1008</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2681,13 +2682,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B132">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>-997</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2695,13 +2696,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C133">
-        <v>-720</v>
+        <v>-7900</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2709,10 +2710,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B134">
-        <v>500</v>
+        <v>-150</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2723,13 +2724,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B135">
-        <v>-830</v>
+        <v>0</v>
       </c>
       <c r="C135">
-        <v>-94</v>
+        <v>-7103</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2737,27 +2738,27 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>-100</v>
+        <v>231</v>
       </c>
       <c r="D136">
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B137">
-        <v>-1500</v>
+        <v>-1300</v>
       </c>
       <c r="C137">
-        <v>-900</v>
+        <v>-260</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -2765,38 +2766,41 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="C138">
-        <v>-937</v>
+        <v>-100</v>
       </c>
       <c r="D138">
-        <v>-215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="C139">
-        <v>10534</v>
+        <v>181</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>-22825</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -2804,13 +2808,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B141">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -2818,27 +2822,27 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B142">
-        <v>-193500</v>
+        <v>0</v>
       </c>
       <c r="C142">
-        <v>-57647</v>
+        <v>-1115</v>
       </c>
       <c r="D142">
-        <v>-383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143">
-        <v>-200</v>
+        <v>227</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -2846,13 +2850,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B144">
-        <v>-4800</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>-1488</v>
+        <v>474</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -2860,141 +2864,15 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B145">
-        <v>-1350</v>
+        <v>0</v>
       </c>
       <c r="C145">
-        <v>-2421</v>
+        <v>199</v>
       </c>
       <c r="D145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>139</v>
-      </c>
-      <c r="B146">
-        <v>-50</v>
-      </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>140</v>
-      </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147">
-        <v>-100</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>141</v>
-      </c>
-      <c r="B148">
-        <v>1900</v>
-      </c>
-      <c r="C148">
-        <v>-19001</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>142</v>
-      </c>
-      <c r="B149">
-        <v>568360</v>
-      </c>
-      <c r="C149">
-        <v>-1500</v>
-      </c>
-      <c r="D149">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>143</v>
-      </c>
-      <c r="B150">
-        <v>-22380</v>
-      </c>
-      <c r="C150">
-        <v>104200</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>144</v>
-      </c>
-      <c r="B151">
-        <v>-400</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>145</v>
-      </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-      <c r="C152">
-        <v>1500</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>146</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-      <c r="C153">
-        <v>-200</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>147</v>
-      </c>
-      <c r="B154">
-        <v>-1850</v>
-      </c>
-      <c r="C154">
-        <v>-1300</v>
-      </c>
-      <c r="D154">
         <v>0</v>
       </c>
     </row>
